--- a/03_内部設計/022-クラス仕様書/jsp/商品検索画面のJSP仕様書.xlsx
+++ b/03_内部設計/022-クラス仕様書/jsp/商品検索画面のJSP仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BC1B73-2623-4B22-9ADB-2EC0D7F4D08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED64FB-CEC4-40CD-B4A1-EEC816477D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="528" windowWidth="17280" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JSP仕様" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>JSP仕様</t>
   </si>
@@ -318,6 +318,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>送信時、JavaScriptで入力欄の未入力チェックを行う。</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -599,14 +615,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -614,17 +636,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,16 +708,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -665,59 +732,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,7 +1084,7 @@
   <dimension ref="A1:HY33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="14.4"/>
@@ -1077,79 +1093,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:233" ht="15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="35" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="33" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="35" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="23" t="s">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="21" t="s">
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="23" t="s">
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="20">
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="39">
         <v>45555</v>
       </c>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
@@ -1284,67 +1300,69 @@
       <c r="GE1" s="1"/>
     </row>
     <row r="2" spans="1:233" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="33" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="23" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="23" t="s">
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="39">
+        <v>45561</v>
+      </c>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
@@ -1668,65 +1686,65 @@
       <c r="GE3" s="1"/>
     </row>
     <row r="4" spans="1:233" ht="15" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="27" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="29"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="45"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="45"/>
+      <c r="BC4" s="46"/>
       <c r="BD4" s="8"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
@@ -1907,61 +1925,61 @@
       <c r="HY4" s="8"/>
     </row>
     <row r="5" spans="1:233" ht="15" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="31"/>
-      <c r="AY5" s="31"/>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="31"/>
-      <c r="BC5" s="32"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="49"/>
       <c r="BD5" s="8"/>
       <c r="BE5" s="8"/>
       <c r="BF5" s="8"/>
@@ -2331,71 +2349,71 @@
       <c r="GE6" s="6"/>
     </row>
     <row r="7" spans="1:233" ht="15" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26" t="s">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26" t="s">
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26" t="s">
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="26"/>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="26"/>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="26"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
@@ -2530,61 +2548,61 @@
       <c r="GE7" s="1"/>
     </row>
     <row r="8" spans="1:233" ht="15" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="26"/>
-      <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
-      <c r="AU8" s="26"/>
-      <c r="AV8" s="26"/>
-      <c r="AW8" s="26"/>
-      <c r="AX8" s="26"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26"/>
-      <c r="BB8" s="26"/>
-      <c r="BC8" s="26"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
@@ -2719,71 +2737,71 @@
       <c r="GE8" s="1"/>
     </row>
     <row r="9" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="17" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="16" t="s">
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="19" t="s">
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
@@ -2918,67 +2936,67 @@
       <c r="GE9" s="9"/>
     </row>
     <row r="10" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="17" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="19"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
@@ -3113,69 +3131,69 @@
       <c r="GE10" s="9"/>
     </row>
     <row r="11" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="17" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="16" t="s">
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="19"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
       <c r="BD11" s="9"/>
       <c r="BE11" s="9"/>
       <c r="BF11" s="9"/>
@@ -3310,67 +3328,69 @@
       <c r="GE11" s="9"/>
     </row>
     <row r="12" spans="1:233" ht="15" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13" t="s">
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="19"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
@@ -3505,67 +3525,67 @@
       <c r="GE12" s="1"/>
     </row>
     <row r="13" spans="1:233" ht="15" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="14" t="s">
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="19"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="19"/>
-      <c r="BA13" s="19"/>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="19"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
@@ -3700,69 +3720,69 @@
       <c r="GE13" s="1"/>
     </row>
     <row r="14" spans="1:233" ht="15" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="14" t="s">
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="19" t="s">
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
-      <c r="AU14" s="19"/>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="19"/>
-      <c r="BA14" s="19"/>
-      <c r="BB14" s="19"/>
-      <c r="BC14" s="19"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
@@ -3897,69 +3917,69 @@
       <c r="GE14" s="1"/>
     </row>
     <row r="15" spans="1:233" ht="15" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="14" t="s">
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="19" t="s">
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="19"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
@@ -4094,69 +4114,69 @@
       <c r="GE15" s="1"/>
     </row>
     <row r="16" spans="1:233" ht="15" customHeight="1">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14" t="s">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="19" t="s">
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="19"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
@@ -4291,61 +4311,61 @@
       <c r="GE16" s="1"/>
     </row>
     <row r="17" spans="1:187" ht="15" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="19"/>
-      <c r="BC17" s="19"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
@@ -4480,61 +4500,61 @@
       <c r="GE17" s="1"/>
     </row>
     <row r="18" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="19"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
       <c r="BD18" s="9"/>
       <c r="BE18" s="9"/>
       <c r="BF18" s="9"/>
@@ -4669,61 +4689,61 @@
       <c r="GE18" s="9"/>
     </row>
     <row r="19" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="19"/>
-      <c r="AV19" s="19"/>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="19"/>
-      <c r="BB19" s="19"/>
-      <c r="BC19" s="19"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
       <c r="BD19" s="9"/>
       <c r="BE19" s="9"/>
       <c r="BF19" s="9"/>
@@ -4858,61 +4878,61 @@
       <c r="GE19" s="9"/>
     </row>
     <row r="20" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
       <c r="BD20" s="9"/>
       <c r="BE20" s="9"/>
       <c r="BF20" s="9"/>
@@ -5047,61 +5067,61 @@
       <c r="GE20" s="9"/>
     </row>
     <row r="21" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="19"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="19"/>
-      <c r="AY21" s="19"/>
-      <c r="AZ21" s="19"/>
-      <c r="BA21" s="19"/>
-      <c r="BB21" s="19"/>
-      <c r="BC21" s="19"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
       <c r="BD21" s="9"/>
       <c r="BE21" s="9"/>
       <c r="BF21" s="9"/>
@@ -5236,61 +5256,61 @@
       <c r="GE21" s="9"/>
     </row>
     <row r="22" spans="1:187" ht="15" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="38"/>
-      <c r="AS22" s="38"/>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="38"/>
-      <c r="AV22" s="38"/>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="38"/>
-      <c r="AY22" s="38"/>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="38"/>
-      <c r="BB22" s="38"/>
-      <c r="BC22" s="38"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="19"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
@@ -5425,61 +5445,61 @@
       <c r="GE22" s="1"/>
     </row>
     <row r="23" spans="1:187" ht="15" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="38"/>
-      <c r="AT23" s="38"/>
-      <c r="AU23" s="38"/>
-      <c r="AV23" s="38"/>
-      <c r="AW23" s="38"/>
-      <c r="AX23" s="38"/>
-      <c r="AY23" s="38"/>
-      <c r="AZ23" s="38"/>
-      <c r="BA23" s="38"/>
-      <c r="BB23" s="38"/>
-      <c r="BC23" s="38"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="19"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
@@ -5614,61 +5634,61 @@
       <c r="GE23" s="1"/>
     </row>
     <row r="24" spans="1:187" ht="15" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="38"/>
-      <c r="AS24" s="38"/>
-      <c r="AT24" s="38"/>
-      <c r="AU24" s="38"/>
-      <c r="AV24" s="38"/>
-      <c r="AW24" s="38"/>
-      <c r="AX24" s="38"/>
-      <c r="AY24" s="38"/>
-      <c r="AZ24" s="38"/>
-      <c r="BA24" s="38"/>
-      <c r="BB24" s="38"/>
-      <c r="BC24" s="38"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="19"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
@@ -5803,61 +5823,61 @@
       <c r="GE24" s="1"/>
     </row>
     <row r="25" spans="1:187" ht="15" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="43"/>
-      <c r="AS25" s="43"/>
-      <c r="AT25" s="43"/>
-      <c r="AU25" s="43"/>
-      <c r="AV25" s="43"/>
-      <c r="AW25" s="43"/>
-      <c r="AX25" s="43"/>
-      <c r="AY25" s="43"/>
-      <c r="AZ25" s="43"/>
-      <c r="BA25" s="43"/>
-      <c r="BB25" s="43"/>
-      <c r="BC25" s="43"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="31"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
+      <c r="AV25" s="31"/>
+      <c r="AW25" s="31"/>
+      <c r="AX25" s="31"/>
+      <c r="AY25" s="31"/>
+      <c r="AZ25" s="31"/>
+      <c r="BA25" s="31"/>
+      <c r="BB25" s="31"/>
+      <c r="BC25" s="31"/>
       <c r="BD25" s="8"/>
       <c r="BE25" s="8"/>
       <c r="BF25" s="8"/>
@@ -5992,61 +6012,61 @@
       <c r="GE25" s="8"/>
     </row>
     <row r="26" spans="1:187" ht="15" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="47"/>
-      <c r="AN26" s="47"/>
-      <c r="AO26" s="47"/>
-      <c r="AP26" s="47"/>
-      <c r="AQ26" s="47"/>
-      <c r="AR26" s="47"/>
-      <c r="AS26" s="47"/>
-      <c r="AT26" s="47"/>
-      <c r="AU26" s="47"/>
-      <c r="AV26" s="47"/>
-      <c r="AW26" s="47"/>
-      <c r="AX26" s="47"/>
-      <c r="AY26" s="47"/>
-      <c r="AZ26" s="47"/>
-      <c r="BA26" s="47"/>
-      <c r="BB26" s="47"/>
-      <c r="BC26" s="47"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="25"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="25"/>
+      <c r="BC26" s="25"/>
       <c r="BD26" s="8"/>
       <c r="BE26" s="8"/>
       <c r="BF26" s="8"/>
@@ -6181,61 +6201,61 @@
       <c r="GE26" s="8"/>
     </row>
     <row r="27" spans="1:187" ht="15" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="38"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="38"/>
-      <c r="AT27" s="38"/>
-      <c r="AU27" s="38"/>
-      <c r="AV27" s="38"/>
-      <c r="AW27" s="38"/>
-      <c r="AX27" s="38"/>
-      <c r="AY27" s="38"/>
-      <c r="AZ27" s="38"/>
-      <c r="BA27" s="38"/>
-      <c r="BB27" s="38"/>
-      <c r="BC27" s="38"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="19"/>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="19"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
@@ -6370,61 +6390,61 @@
       <c r="GE27" s="1"/>
     </row>
     <row r="28" spans="1:187" ht="15" customHeight="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="19"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19"/>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
-      <c r="BA28" s="19"/>
-      <c r="BB28" s="19"/>
-      <c r="BC28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+      <c r="BA28" s="14"/>
+      <c r="BB28" s="14"/>
+      <c r="BC28" s="14"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
@@ -6559,61 +6579,61 @@
       <c r="GE28" s="1"/>
     </row>
     <row r="29" spans="1:187" ht="15" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="45"/>
-      <c r="AX29" s="45"/>
-      <c r="AY29" s="45"/>
-      <c r="AZ29" s="45"/>
-      <c r="BA29" s="45"/>
-      <c r="BB29" s="45"/>
-      <c r="BC29" s="45"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
@@ -6748,61 +6768,61 @@
       <c r="GE29" s="1"/>
     </row>
     <row r="30" spans="1:187" ht="15" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="45"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
-      <c r="AT30" s="45"/>
-      <c r="AU30" s="45"/>
-      <c r="AV30" s="45"/>
-      <c r="AW30" s="45"/>
-      <c r="AX30" s="45"/>
-      <c r="AY30" s="45"/>
-      <c r="AZ30" s="45"/>
-      <c r="BA30" s="45"/>
-      <c r="BB30" s="45"/>
-      <c r="BC30" s="45"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
@@ -6937,61 +6957,61 @@
       <c r="GE30" s="1"/>
     </row>
     <row r="31" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19"/>
-      <c r="AQ31" s="19"/>
-      <c r="AR31" s="19"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="19"/>
-      <c r="AU31" s="19"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="19"/>
-      <c r="BA31" s="19"/>
-      <c r="BB31" s="19"/>
-      <c r="BC31" s="19"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="14"/>
+      <c r="AS31" s="14"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="14"/>
+      <c r="AZ31" s="14"/>
+      <c r="BA31" s="14"/>
+      <c r="BB31" s="14"/>
+      <c r="BC31" s="14"/>
       <c r="BD31" s="9"/>
       <c r="BE31" s="9"/>
       <c r="BF31" s="9"/>
@@ -7126,61 +7146,61 @@
       <c r="GE31" s="9"/>
     </row>
     <row r="32" spans="1:187" ht="15" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="45"/>
-      <c r="AQ32" s="45"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="45"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
-      <c r="BA32" s="45"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="45"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
@@ -7505,6 +7525,126 @@
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="AE10:BC10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="W11:AD11"/>
+    <mergeCell ref="AE11:BC11"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A7:H8"/>
+    <mergeCell ref="I7:P8"/>
+    <mergeCell ref="Q7:V8"/>
+    <mergeCell ref="W7:AD8"/>
+    <mergeCell ref="F4:BC5"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AE7:BC8"/>
+    <mergeCell ref="AE22:BC22"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="W21:AD21"/>
+    <mergeCell ref="I19:P19"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="W19:AD19"/>
+    <mergeCell ref="AE21:BC21"/>
+    <mergeCell ref="AE19:BC19"/>
+    <mergeCell ref="AE14:BC14"/>
+    <mergeCell ref="AE15:BC15"/>
+    <mergeCell ref="AE16:BC16"/>
+    <mergeCell ref="AE17:BC17"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="AE12:BC12"/>
+    <mergeCell ref="AE13:BC13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="AE9:BC9"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="W29:AD29"/>
+    <mergeCell ref="W25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="W30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:P32"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="W32:AD32"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="W26:AD26"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="W24:AD24"/>
+    <mergeCell ref="AE24:BC24"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="W22:AD22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="W17:AD17"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="W16:AD16"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A19:H19"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="I31:P31"/>
     <mergeCell ref="Q31:V31"/>
@@ -7529,126 +7669,6 @@
     <mergeCell ref="Q28:V28"/>
     <mergeCell ref="W28:AD28"/>
     <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="W22:AD22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="W17:AD17"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="W16:AD16"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="W24:AD24"/>
-    <mergeCell ref="AE24:BC24"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="W29:AD29"/>
-    <mergeCell ref="W25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="W30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:P32"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="W32:AD32"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="AE27:BC27"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="W26:AD26"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AE7:BC8"/>
-    <mergeCell ref="AE22:BC22"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="W21:AD21"/>
-    <mergeCell ref="I19:P19"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="W19:AD19"/>
-    <mergeCell ref="AE21:BC21"/>
-    <mergeCell ref="AE19:BC19"/>
-    <mergeCell ref="AE14:BC14"/>
-    <mergeCell ref="AE15:BC15"/>
-    <mergeCell ref="AE16:BC16"/>
-    <mergeCell ref="AE17:BC17"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="AE12:BC12"/>
-    <mergeCell ref="AE13:BC13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="AE9:BC9"/>
-    <mergeCell ref="AE10:BC10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="W11:AD11"/>
-    <mergeCell ref="AE11:BC11"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="A7:H8"/>
-    <mergeCell ref="I7:P8"/>
-    <mergeCell ref="Q7:V8"/>
-    <mergeCell ref="W7:AD8"/>
-    <mergeCell ref="F4:BC5"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="W10:AD10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7858,18 +7878,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7891,18 +7911,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8A1FDC-951E-4F8A-8B1E-600169D502EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6750BA14-EF93-4A19-AEC6-7431BDBB93BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8A1FDC-951E-4F8A-8B1E-600169D502EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/03_内部設計/022-クラス仕様書/jsp/商品検索画面のJSP仕様書.xlsx
+++ b/03_内部設計/022-クラス仕様書/jsp/商品検索画面のJSP仕様書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED64FB-CEC4-40CD-B4A1-EEC816477D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD31B3-40FB-469C-A916-8556E9BE0C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="（データリスト）" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">JSP仕様!$A$1:$BC$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">JSP仕様!$A$1:$BC$37</definedName>
     <definedName name="部品種別">OFFSET('（データリスト）'!$A$1,0,0,COUNTA('（データリスト）'!$A:$A),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>JSP仕様</t>
   </si>
@@ -268,10 +268,6 @@
     <t>リンク</t>
   </si>
   <si>
-    <t>MainServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>logout</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -287,51 +283,130 @@
     <t>-</t>
   </si>
   <si>
-    <t>MainServlet</t>
+    <t>ログアウト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラー発生時に表示する。</t>
-    <rPh sb="3" eb="6">
-      <t>ハッセイジ</t>
+    <t>見出し</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+  </si>
+  <si>
+    <t>キーワード入力欄</t>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>keywordTag</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>categoryTag</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カテゴリ選択欄</t>
+    <rPh sb="4" eb="7">
+      <t>センタクラン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>初期値は「すべて」にする。</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>errorJS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptのエラー内容を表示する。</t>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログアウト</t>
+    <t>Javaのエラー内容を表示する。</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインしていない場合に表示する。</t>
+    <t>MainServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックしたとき、SearchResultServletにPOST送信する。
+送信時、JavaScriptでキーワード入力欄の未入力チェックを行う。</t>
+    <rPh sb="33" eb="35">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ソウシンジ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしている場合に表示する。クリックしたとき、UpdateUserServletにPOST送信する。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしている場合に表示する。クリックしたとき、MainServletにPOST送信する。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない場合に表示する。クリックしたとき、LoginServletにGET送信する。</t>
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインしている場合に表示する。</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>送信時、JavaScriptで入力欄の未入力チェックを行う。</t>
-    <rPh sb="0" eb="3">
-      <t>ソウシンジ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オコナ</t>
-    </rPh>
+    <t>クリックしたとき、CartServletにGET送信する。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -581,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,17 +690,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -649,12 +730,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,6 +809,78 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:HY33"/>
+  <dimension ref="A1:HY38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AX3" sqref="AX3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18:BC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="14.4"/>
@@ -1343,7 +1490,9 @@
       </c>
       <c r="AL2" s="36"/>
       <c r="AM2" s="36"/>
-      <c r="AN2" s="41"/>
+      <c r="AN2" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="AO2" s="41"/>
       <c r="AP2" s="41"/>
       <c r="AQ2" s="41"/>
@@ -1356,7 +1505,7 @@
       <c r="AV2" s="36"/>
       <c r="AW2" s="36"/>
       <c r="AX2" s="39">
-        <v>45561</v>
+        <v>45568</v>
       </c>
       <c r="AY2" s="39"/>
       <c r="AZ2" s="39"/>
@@ -2737,71 +2886,67 @@
       <c r="GE8" s="1"/>
     </row>
     <row r="9" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="13" t="s">
+      <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="14" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
@@ -2936,67 +3081,71 @@
       <c r="GE9" s="9"/>
     </row>
     <row r="10" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="23" t="s">
-        <v>27</v>
+      <c r="A10" s="13" t="s">
+        <v>44</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23" t="s">
-        <v>33</v>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="16" t="s">
+        <v>45</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="11" t="s">
-        <v>39</v>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="13" t="s">
+        <v>46</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
@@ -3131,69 +3280,71 @@
       <c r="GE10" s="9"/>
     </row>
     <row r="11" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>28</v>
+      <c r="A11" s="13" t="s">
+        <v>44</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
-        <v>34</v>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="16" t="s">
+        <v>56</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="11" t="s">
-        <v>40</v>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="13" t="s">
+        <v>46</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="13" t="s">
-        <v>43</v>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="14" t="s">
+        <v>57</v>
       </c>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
       <c r="BD11" s="9"/>
       <c r="BE11" s="9"/>
       <c r="BF11" s="9"/>
@@ -3327,856 +3478,854 @@
       <c r="GD11" s="9"/>
       <c r="GE11" s="9"/>
     </row>
-    <row r="12" spans="1:233" ht="15" customHeight="1">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="9"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="9"/>
+      <c r="CA12" s="9"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="9"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9"/>
+      <c r="CI12" s="9"/>
+      <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
+      <c r="CM12" s="9"/>
+      <c r="CN12" s="9"/>
+      <c r="CO12" s="9"/>
+      <c r="CP12" s="9"/>
+      <c r="CQ12" s="9"/>
+      <c r="CR12" s="9"/>
+      <c r="CS12" s="9"/>
+      <c r="CT12" s="9"/>
+      <c r="CU12" s="9"/>
+      <c r="CV12" s="9"/>
+      <c r="CW12" s="9"/>
+      <c r="CX12" s="9"/>
+      <c r="CY12" s="9"/>
+      <c r="CZ12" s="9"/>
+      <c r="DA12" s="9"/>
+      <c r="DB12" s="9"/>
+      <c r="DC12" s="9"/>
+      <c r="DD12" s="9"/>
+      <c r="DE12" s="9"/>
+      <c r="DF12" s="9"/>
+      <c r="DG12" s="9"/>
+      <c r="DH12" s="9"/>
+      <c r="DI12" s="9"/>
+      <c r="DJ12" s="9"/>
+      <c r="DK12" s="9"/>
+      <c r="DL12" s="9"/>
+      <c r="DM12" s="9"/>
+      <c r="DN12" s="9"/>
+      <c r="DO12" s="9"/>
+      <c r="DP12" s="9"/>
+      <c r="DQ12" s="9"/>
+      <c r="DR12" s="9"/>
+      <c r="DS12" s="9"/>
+      <c r="DT12" s="9"/>
+      <c r="DU12" s="9"/>
+      <c r="DV12" s="9"/>
+      <c r="DW12" s="9"/>
+      <c r="DX12" s="9"/>
+      <c r="DY12" s="9"/>
+      <c r="DZ12" s="9"/>
+      <c r="EA12" s="9"/>
+      <c r="EB12" s="9"/>
+      <c r="EC12" s="9"/>
+      <c r="ED12" s="9"/>
+      <c r="EE12" s="9"/>
+      <c r="EF12" s="9"/>
+      <c r="EG12" s="9"/>
+      <c r="EH12" s="9"/>
+      <c r="EI12" s="9"/>
+      <c r="EJ12" s="9"/>
+      <c r="EK12" s="9"/>
+      <c r="EL12" s="9"/>
+      <c r="EM12" s="9"/>
+      <c r="EN12" s="9"/>
+      <c r="EO12" s="9"/>
+      <c r="EP12" s="9"/>
+      <c r="EQ12" s="9"/>
+      <c r="ER12" s="9"/>
+      <c r="ES12" s="9"/>
+      <c r="ET12" s="9"/>
+      <c r="EU12" s="9"/>
+      <c r="EV12" s="9"/>
+      <c r="EW12" s="9"/>
+      <c r="EX12" s="9"/>
+      <c r="EY12" s="9"/>
+      <c r="EZ12" s="9"/>
+      <c r="FA12" s="9"/>
+      <c r="FB12" s="9"/>
+      <c r="FC12" s="9"/>
+      <c r="FD12" s="9"/>
+      <c r="FE12" s="9"/>
+      <c r="FF12" s="9"/>
+      <c r="FG12" s="9"/>
+      <c r="FH12" s="9"/>
+      <c r="FI12" s="9"/>
+      <c r="FJ12" s="9"/>
+      <c r="FK12" s="9"/>
+      <c r="FL12" s="9"/>
+      <c r="FM12" s="9"/>
+      <c r="FN12" s="9"/>
+      <c r="FO12" s="9"/>
+      <c r="FP12" s="9"/>
+      <c r="FQ12" s="9"/>
+      <c r="FR12" s="9"/>
+      <c r="FS12" s="9"/>
+      <c r="FT12" s="9"/>
+      <c r="FU12" s="9"/>
+      <c r="FV12" s="9"/>
+      <c r="FW12" s="9"/>
+      <c r="FX12" s="9"/>
+      <c r="FY12" s="9"/>
+      <c r="FZ12" s="9"/>
+      <c r="GA12" s="9"/>
+      <c r="GB12" s="9"/>
+      <c r="GC12" s="9"/>
+      <c r="GD12" s="9"/>
+      <c r="GE12" s="9"/>
+    </row>
+    <row r="13" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="9"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="9"/>
+      <c r="BV13" s="9"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="9"/>
+      <c r="CA13" s="9"/>
+      <c r="CB13" s="9"/>
+      <c r="CC13" s="9"/>
+      <c r="CD13" s="9"/>
+      <c r="CE13" s="9"/>
+      <c r="CF13" s="9"/>
+      <c r="CG13" s="9"/>
+      <c r="CH13" s="9"/>
+      <c r="CI13" s="9"/>
+      <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
+      <c r="CL13" s="9"/>
+      <c r="CM13" s="9"/>
+      <c r="CN13" s="9"/>
+      <c r="CO13" s="9"/>
+      <c r="CP13" s="9"/>
+      <c r="CQ13" s="9"/>
+      <c r="CR13" s="9"/>
+      <c r="CS13" s="9"/>
+      <c r="CT13" s="9"/>
+      <c r="CU13" s="9"/>
+      <c r="CV13" s="9"/>
+      <c r="CW13" s="9"/>
+      <c r="CX13" s="9"/>
+      <c r="CY13" s="9"/>
+      <c r="CZ13" s="9"/>
+      <c r="DA13" s="9"/>
+      <c r="DB13" s="9"/>
+      <c r="DC13" s="9"/>
+      <c r="DD13" s="9"/>
+      <c r="DE13" s="9"/>
+      <c r="DF13" s="9"/>
+      <c r="DG13" s="9"/>
+      <c r="DH13" s="9"/>
+      <c r="DI13" s="9"/>
+      <c r="DJ13" s="9"/>
+      <c r="DK13" s="9"/>
+      <c r="DL13" s="9"/>
+      <c r="DM13" s="9"/>
+      <c r="DN13" s="9"/>
+      <c r="DO13" s="9"/>
+      <c r="DP13" s="9"/>
+      <c r="DQ13" s="9"/>
+      <c r="DR13" s="9"/>
+      <c r="DS13" s="9"/>
+      <c r="DT13" s="9"/>
+      <c r="DU13" s="9"/>
+      <c r="DV13" s="9"/>
+      <c r="DW13" s="9"/>
+      <c r="DX13" s="9"/>
+      <c r="DY13" s="9"/>
+      <c r="DZ13" s="9"/>
+      <c r="EA13" s="9"/>
+      <c r="EB13" s="9"/>
+      <c r="EC13" s="9"/>
+      <c r="ED13" s="9"/>
+      <c r="EE13" s="9"/>
+      <c r="EF13" s="9"/>
+      <c r="EG13" s="9"/>
+      <c r="EH13" s="9"/>
+      <c r="EI13" s="9"/>
+      <c r="EJ13" s="9"/>
+      <c r="EK13" s="9"/>
+      <c r="EL13" s="9"/>
+      <c r="EM13" s="9"/>
+      <c r="EN13" s="9"/>
+      <c r="EO13" s="9"/>
+      <c r="EP13" s="9"/>
+      <c r="EQ13" s="9"/>
+      <c r="ER13" s="9"/>
+      <c r="ES13" s="9"/>
+      <c r="ET13" s="9"/>
+      <c r="EU13" s="9"/>
+      <c r="EV13" s="9"/>
+      <c r="EW13" s="9"/>
+      <c r="EX13" s="9"/>
+      <c r="EY13" s="9"/>
+      <c r="EZ13" s="9"/>
+      <c r="FA13" s="9"/>
+      <c r="FB13" s="9"/>
+      <c r="FC13" s="9"/>
+      <c r="FD13" s="9"/>
+      <c r="FE13" s="9"/>
+      <c r="FF13" s="9"/>
+      <c r="FG13" s="9"/>
+      <c r="FH13" s="9"/>
+      <c r="FI13" s="9"/>
+      <c r="FJ13" s="9"/>
+      <c r="FK13" s="9"/>
+      <c r="FL13" s="9"/>
+      <c r="FM13" s="9"/>
+      <c r="FN13" s="9"/>
+      <c r="FO13" s="9"/>
+      <c r="FP13" s="9"/>
+      <c r="FQ13" s="9"/>
+      <c r="FR13" s="9"/>
+      <c r="FS13" s="9"/>
+      <c r="FT13" s="9"/>
+      <c r="FU13" s="9"/>
+      <c r="FV13" s="9"/>
+      <c r="FW13" s="9"/>
+      <c r="FX13" s="9"/>
+      <c r="FY13" s="9"/>
+      <c r="FZ13" s="9"/>
+      <c r="GA13" s="9"/>
+      <c r="GB13" s="9"/>
+      <c r="GC13" s="9"/>
+      <c r="GD13" s="9"/>
+      <c r="GE13" s="9"/>
+    </row>
+    <row r="14" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
+      <c r="CM14" s="9"/>
+      <c r="CN14" s="9"/>
+      <c r="CO14" s="9"/>
+      <c r="CP14" s="9"/>
+      <c r="CQ14" s="9"/>
+      <c r="CR14" s="9"/>
+      <c r="CS14" s="9"/>
+      <c r="CT14" s="9"/>
+      <c r="CU14" s="9"/>
+      <c r="CV14" s="9"/>
+      <c r="CW14" s="9"/>
+      <c r="CX14" s="9"/>
+      <c r="CY14" s="9"/>
+      <c r="CZ14" s="9"/>
+      <c r="DA14" s="9"/>
+      <c r="DB14" s="9"/>
+      <c r="DC14" s="9"/>
+      <c r="DD14" s="9"/>
+      <c r="DE14" s="9"/>
+      <c r="DF14" s="9"/>
+      <c r="DG14" s="9"/>
+      <c r="DH14" s="9"/>
+      <c r="DI14" s="9"/>
+      <c r="DJ14" s="9"/>
+      <c r="DK14" s="9"/>
+      <c r="DL14" s="9"/>
+      <c r="DM14" s="9"/>
+      <c r="DN14" s="9"/>
+      <c r="DO14" s="9"/>
+      <c r="DP14" s="9"/>
+      <c r="DQ14" s="9"/>
+      <c r="DR14" s="9"/>
+      <c r="DS14" s="9"/>
+      <c r="DT14" s="9"/>
+      <c r="DU14" s="9"/>
+      <c r="DV14" s="9"/>
+      <c r="DW14" s="9"/>
+      <c r="DX14" s="9"/>
+      <c r="DY14" s="9"/>
+      <c r="DZ14" s="9"/>
+      <c r="EA14" s="9"/>
+      <c r="EB14" s="9"/>
+      <c r="EC14" s="9"/>
+      <c r="ED14" s="9"/>
+      <c r="EE14" s="9"/>
+      <c r="EF14" s="9"/>
+      <c r="EG14" s="9"/>
+      <c r="EH14" s="9"/>
+      <c r="EI14" s="9"/>
+      <c r="EJ14" s="9"/>
+      <c r="EK14" s="9"/>
+      <c r="EL14" s="9"/>
+      <c r="EM14" s="9"/>
+      <c r="EN14" s="9"/>
+      <c r="EO14" s="9"/>
+      <c r="EP14" s="9"/>
+      <c r="EQ14" s="9"/>
+      <c r="ER14" s="9"/>
+      <c r="ES14" s="9"/>
+      <c r="ET14" s="9"/>
+      <c r="EU14" s="9"/>
+      <c r="EV14" s="9"/>
+      <c r="EW14" s="9"/>
+      <c r="EX14" s="9"/>
+      <c r="EY14" s="9"/>
+      <c r="EZ14" s="9"/>
+      <c r="FA14" s="9"/>
+      <c r="FB14" s="9"/>
+      <c r="FC14" s="9"/>
+      <c r="FD14" s="9"/>
+      <c r="FE14" s="9"/>
+      <c r="FF14" s="9"/>
+      <c r="FG14" s="9"/>
+      <c r="FH14" s="9"/>
+      <c r="FI14" s="9"/>
+      <c r="FJ14" s="9"/>
+      <c r="FK14" s="9"/>
+      <c r="FL14" s="9"/>
+      <c r="FM14" s="9"/>
+      <c r="FN14" s="9"/>
+      <c r="FO14" s="9"/>
+      <c r="FP14" s="9"/>
+      <c r="FQ14" s="9"/>
+      <c r="FR14" s="9"/>
+      <c r="FS14" s="9"/>
+      <c r="FT14" s="9"/>
+      <c r="FU14" s="9"/>
+      <c r="FV14" s="9"/>
+      <c r="FW14" s="9"/>
+      <c r="FX14" s="9"/>
+      <c r="FY14" s="9"/>
+      <c r="FZ14" s="9"/>
+      <c r="GA14" s="9"/>
+      <c r="GB14" s="9"/>
+      <c r="GC14" s="9"/>
+      <c r="GD14" s="9"/>
+      <c r="GE14" s="9"/>
+    </row>
+    <row r="15" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="15"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="9"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="9"/>
+      <c r="BT15" s="9"/>
+      <c r="BU15" s="9"/>
+      <c r="BV15" s="9"/>
+      <c r="BW15" s="9"/>
+      <c r="BX15" s="9"/>
+      <c r="BY15" s="9"/>
+      <c r="BZ15" s="9"/>
+      <c r="CA15" s="9"/>
+      <c r="CB15" s="9"/>
+      <c r="CC15" s="9"/>
+      <c r="CD15" s="9"/>
+      <c r="CE15" s="9"/>
+      <c r="CF15" s="9"/>
+      <c r="CG15" s="9"/>
+      <c r="CH15" s="9"/>
+      <c r="CI15" s="9"/>
+      <c r="CJ15" s="9"/>
+      <c r="CK15" s="9"/>
+      <c r="CL15" s="9"/>
+      <c r="CM15" s="9"/>
+      <c r="CN15" s="9"/>
+      <c r="CO15" s="9"/>
+      <c r="CP15" s="9"/>
+      <c r="CQ15" s="9"/>
+      <c r="CR15" s="9"/>
+      <c r="CS15" s="9"/>
+      <c r="CT15" s="9"/>
+      <c r="CU15" s="9"/>
+      <c r="CV15" s="9"/>
+      <c r="CW15" s="9"/>
+      <c r="CX15" s="9"/>
+      <c r="CY15" s="9"/>
+      <c r="CZ15" s="9"/>
+      <c r="DA15" s="9"/>
+      <c r="DB15" s="9"/>
+      <c r="DC15" s="9"/>
+      <c r="DD15" s="9"/>
+      <c r="DE15" s="9"/>
+      <c r="DF15" s="9"/>
+      <c r="DG15" s="9"/>
+      <c r="DH15" s="9"/>
+      <c r="DI15" s="9"/>
+      <c r="DJ15" s="9"/>
+      <c r="DK15" s="9"/>
+      <c r="DL15" s="9"/>
+      <c r="DM15" s="9"/>
+      <c r="DN15" s="9"/>
+      <c r="DO15" s="9"/>
+      <c r="DP15" s="9"/>
+      <c r="DQ15" s="9"/>
+      <c r="DR15" s="9"/>
+      <c r="DS15" s="9"/>
+      <c r="DT15" s="9"/>
+      <c r="DU15" s="9"/>
+      <c r="DV15" s="9"/>
+      <c r="DW15" s="9"/>
+      <c r="DX15" s="9"/>
+      <c r="DY15" s="9"/>
+      <c r="DZ15" s="9"/>
+      <c r="EA15" s="9"/>
+      <c r="EB15" s="9"/>
+      <c r="EC15" s="9"/>
+      <c r="ED15" s="9"/>
+      <c r="EE15" s="9"/>
+      <c r="EF15" s="9"/>
+      <c r="EG15" s="9"/>
+      <c r="EH15" s="9"/>
+      <c r="EI15" s="9"/>
+      <c r="EJ15" s="9"/>
+      <c r="EK15" s="9"/>
+      <c r="EL15" s="9"/>
+      <c r="EM15" s="9"/>
+      <c r="EN15" s="9"/>
+      <c r="EO15" s="9"/>
+      <c r="EP15" s="9"/>
+      <c r="EQ15" s="9"/>
+      <c r="ER15" s="9"/>
+      <c r="ES15" s="9"/>
+      <c r="ET15" s="9"/>
+      <c r="EU15" s="9"/>
+      <c r="EV15" s="9"/>
+      <c r="EW15" s="9"/>
+      <c r="EX15" s="9"/>
+      <c r="EY15" s="9"/>
+      <c r="EZ15" s="9"/>
+      <c r="FA15" s="9"/>
+      <c r="FB15" s="9"/>
+      <c r="FC15" s="9"/>
+      <c r="FD15" s="9"/>
+      <c r="FE15" s="9"/>
+      <c r="FF15" s="9"/>
+      <c r="FG15" s="9"/>
+      <c r="FH15" s="9"/>
+      <c r="FI15" s="9"/>
+      <c r="FJ15" s="9"/>
+      <c r="FK15" s="9"/>
+      <c r="FL15" s="9"/>
+      <c r="FM15" s="9"/>
+      <c r="FN15" s="9"/>
+      <c r="FO15" s="9"/>
+      <c r="FP15" s="9"/>
+      <c r="FQ15" s="9"/>
+      <c r="FR15" s="9"/>
+      <c r="FS15" s="9"/>
+      <c r="FT15" s="9"/>
+      <c r="FU15" s="9"/>
+      <c r="FV15" s="9"/>
+      <c r="FW15" s="9"/>
+      <c r="FX15" s="9"/>
+      <c r="FY15" s="9"/>
+      <c r="FZ15" s="9"/>
+      <c r="GA15" s="9"/>
+      <c r="GB15" s="9"/>
+      <c r="GC15" s="9"/>
+      <c r="GD15" s="9"/>
+      <c r="GE15" s="9"/>
+    </row>
+    <row r="16" spans="1:233" ht="15" customHeight="1">
+      <c r="A16" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="22" t="s">
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="14" t="s">
-        <v>53</v>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="51" t="s">
+        <v>61</v>
       </c>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
-      <c r="BQ12" s="1"/>
-      <c r="BR12" s="1"/>
-      <c r="BS12" s="1"/>
-      <c r="BT12" s="1"/>
-      <c r="BU12" s="1"/>
-      <c r="BV12" s="1"/>
-      <c r="BW12" s="1"/>
-      <c r="BX12" s="1"/>
-      <c r="BY12" s="1"/>
-      <c r="BZ12" s="1"/>
-      <c r="CA12" s="1"/>
-      <c r="CB12" s="1"/>
-      <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
-      <c r="CF12" s="1"/>
-      <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
-      <c r="CI12" s="1"/>
-      <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
-      <c r="CL12" s="1"/>
-      <c r="CM12" s="1"/>
-      <c r="CN12" s="1"/>
-      <c r="CO12" s="1"/>
-      <c r="CP12" s="1"/>
-      <c r="CQ12" s="1"/>
-      <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
-      <c r="CT12" s="1"/>
-      <c r="CU12" s="1"/>
-      <c r="CV12" s="1"/>
-      <c r="CW12" s="1"/>
-      <c r="CX12" s="1"/>
-      <c r="CY12" s="1"/>
-      <c r="CZ12" s="1"/>
-      <c r="DA12" s="1"/>
-      <c r="DB12" s="1"/>
-      <c r="DC12" s="1"/>
-      <c r="DD12" s="1"/>
-      <c r="DE12" s="1"/>
-      <c r="DF12" s="1"/>
-      <c r="DG12" s="1"/>
-      <c r="DH12" s="1"/>
-      <c r="DI12" s="1"/>
-      <c r="DJ12" s="1"/>
-      <c r="DK12" s="1"/>
-      <c r="DL12" s="1"/>
-      <c r="DM12" s="1"/>
-      <c r="DN12" s="1"/>
-      <c r="DO12" s="1"/>
-      <c r="DP12" s="1"/>
-      <c r="DQ12" s="1"/>
-      <c r="DR12" s="1"/>
-      <c r="DS12" s="1"/>
-      <c r="DT12" s="1"/>
-      <c r="DU12" s="1"/>
-      <c r="DV12" s="1"/>
-      <c r="DW12" s="1"/>
-      <c r="DX12" s="1"/>
-      <c r="DY12" s="1"/>
-      <c r="DZ12" s="1"/>
-      <c r="EA12" s="1"/>
-      <c r="EB12" s="1"/>
-      <c r="EC12" s="1"/>
-      <c r="ED12" s="1"/>
-      <c r="EE12" s="1"/>
-      <c r="EF12" s="1"/>
-      <c r="EG12" s="1"/>
-      <c r="EH12" s="1"/>
-      <c r="EI12" s="1"/>
-      <c r="EJ12" s="1"/>
-      <c r="EK12" s="1"/>
-      <c r="EL12" s="1"/>
-      <c r="EM12" s="1"/>
-      <c r="EN12" s="1"/>
-      <c r="EO12" s="1"/>
-      <c r="EP12" s="1"/>
-      <c r="EQ12" s="1"/>
-      <c r="ER12" s="1"/>
-      <c r="ES12" s="1"/>
-      <c r="ET12" s="1"/>
-      <c r="EU12" s="1"/>
-      <c r="EV12" s="1"/>
-      <c r="EW12" s="1"/>
-      <c r="EX12" s="1"/>
-      <c r="EY12" s="1"/>
-      <c r="EZ12" s="1"/>
-      <c r="FA12" s="1"/>
-      <c r="FB12" s="1"/>
-      <c r="FC12" s="1"/>
-      <c r="FD12" s="1"/>
-      <c r="FE12" s="1"/>
-      <c r="FF12" s="1"/>
-      <c r="FG12" s="1"/>
-      <c r="FH12" s="1"/>
-      <c r="FI12" s="1"/>
-      <c r="FJ12" s="1"/>
-      <c r="FK12" s="1"/>
-      <c r="FL12" s="1"/>
-      <c r="FM12" s="1"/>
-      <c r="FN12" s="1"/>
-      <c r="FO12" s="1"/>
-      <c r="FP12" s="1"/>
-      <c r="FQ12" s="1"/>
-      <c r="FR12" s="1"/>
-      <c r="FS12" s="1"/>
-      <c r="FT12" s="1"/>
-      <c r="FU12" s="1"/>
-      <c r="FV12" s="1"/>
-      <c r="FW12" s="1"/>
-      <c r="FX12" s="1"/>
-      <c r="FY12" s="1"/>
-      <c r="FZ12" s="1"/>
-      <c r="GA12" s="1"/>
-      <c r="GB12" s="1"/>
-      <c r="GC12" s="1"/>
-      <c r="GD12" s="1"/>
-      <c r="GE12" s="1"/>
-    </row>
-    <row r="13" spans="1:233" ht="15" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
-      <c r="BO13" s="1"/>
-      <c r="BP13" s="1"/>
-      <c r="BQ13" s="1"/>
-      <c r="BR13" s="1"/>
-      <c r="BS13" s="1"/>
-      <c r="BT13" s="1"/>
-      <c r="BU13" s="1"/>
-      <c r="BV13" s="1"/>
-      <c r="BW13" s="1"/>
-      <c r="BX13" s="1"/>
-      <c r="BY13" s="1"/>
-      <c r="BZ13" s="1"/>
-      <c r="CA13" s="1"/>
-      <c r="CB13" s="1"/>
-      <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
-      <c r="CI13" s="1"/>
-      <c r="CJ13" s="1"/>
-      <c r="CK13" s="1"/>
-      <c r="CL13" s="1"/>
-      <c r="CM13" s="1"/>
-      <c r="CN13" s="1"/>
-      <c r="CO13" s="1"/>
-      <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
-      <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
-      <c r="CU13" s="1"/>
-      <c r="CV13" s="1"/>
-      <c r="CW13" s="1"/>
-      <c r="CX13" s="1"/>
-      <c r="CY13" s="1"/>
-      <c r="CZ13" s="1"/>
-      <c r="DA13" s="1"/>
-      <c r="DB13" s="1"/>
-      <c r="DC13" s="1"/>
-      <c r="DD13" s="1"/>
-      <c r="DE13" s="1"/>
-      <c r="DF13" s="1"/>
-      <c r="DG13" s="1"/>
-      <c r="DH13" s="1"/>
-      <c r="DI13" s="1"/>
-      <c r="DJ13" s="1"/>
-      <c r="DK13" s="1"/>
-      <c r="DL13" s="1"/>
-      <c r="DM13" s="1"/>
-      <c r="DN13" s="1"/>
-      <c r="DO13" s="1"/>
-      <c r="DP13" s="1"/>
-      <c r="DQ13" s="1"/>
-      <c r="DR13" s="1"/>
-      <c r="DS13" s="1"/>
-      <c r="DT13" s="1"/>
-      <c r="DU13" s="1"/>
-      <c r="DV13" s="1"/>
-      <c r="DW13" s="1"/>
-      <c r="DX13" s="1"/>
-      <c r="DY13" s="1"/>
-      <c r="DZ13" s="1"/>
-      <c r="EA13" s="1"/>
-      <c r="EB13" s="1"/>
-      <c r="EC13" s="1"/>
-      <c r="ED13" s="1"/>
-      <c r="EE13" s="1"/>
-      <c r="EF13" s="1"/>
-      <c r="EG13" s="1"/>
-      <c r="EH13" s="1"/>
-      <c r="EI13" s="1"/>
-      <c r="EJ13" s="1"/>
-      <c r="EK13" s="1"/>
-      <c r="EL13" s="1"/>
-      <c r="EM13" s="1"/>
-      <c r="EN13" s="1"/>
-      <c r="EO13" s="1"/>
-      <c r="EP13" s="1"/>
-      <c r="EQ13" s="1"/>
-      <c r="ER13" s="1"/>
-      <c r="ES13" s="1"/>
-      <c r="ET13" s="1"/>
-      <c r="EU13" s="1"/>
-      <c r="EV13" s="1"/>
-      <c r="EW13" s="1"/>
-      <c r="EX13" s="1"/>
-      <c r="EY13" s="1"/>
-      <c r="EZ13" s="1"/>
-      <c r="FA13" s="1"/>
-      <c r="FB13" s="1"/>
-      <c r="FC13" s="1"/>
-      <c r="FD13" s="1"/>
-      <c r="FE13" s="1"/>
-      <c r="FF13" s="1"/>
-      <c r="FG13" s="1"/>
-      <c r="FH13" s="1"/>
-      <c r="FI13" s="1"/>
-      <c r="FJ13" s="1"/>
-      <c r="FK13" s="1"/>
-      <c r="FL13" s="1"/>
-      <c r="FM13" s="1"/>
-      <c r="FN13" s="1"/>
-      <c r="FO13" s="1"/>
-      <c r="FP13" s="1"/>
-      <c r="FQ13" s="1"/>
-      <c r="FR13" s="1"/>
-      <c r="FS13" s="1"/>
-      <c r="FT13" s="1"/>
-      <c r="FU13" s="1"/>
-      <c r="FV13" s="1"/>
-      <c r="FW13" s="1"/>
-      <c r="FX13" s="1"/>
-      <c r="FY13" s="1"/>
-      <c r="FZ13" s="1"/>
-      <c r="GA13" s="1"/>
-      <c r="GB13" s="1"/>
-      <c r="GC13" s="1"/>
-      <c r="GD13" s="1"/>
-      <c r="GE13" s="1"/>
-    </row>
-    <row r="14" spans="1:233" ht="15" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
-      <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="1"/>
-      <c r="BQ14" s="1"/>
-      <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
-      <c r="BT14" s="1"/>
-      <c r="BU14" s="1"/>
-      <c r="BV14" s="1"/>
-      <c r="BW14" s="1"/>
-      <c r="BX14" s="1"/>
-      <c r="BY14" s="1"/>
-      <c r="BZ14" s="1"/>
-      <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
-      <c r="CL14" s="1"/>
-      <c r="CM14" s="1"/>
-      <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
-      <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
-      <c r="CT14" s="1"/>
-      <c r="CU14" s="1"/>
-      <c r="CV14" s="1"/>
-      <c r="CW14" s="1"/>
-      <c r="CX14" s="1"/>
-      <c r="CY14" s="1"/>
-      <c r="CZ14" s="1"/>
-      <c r="DA14" s="1"/>
-      <c r="DB14" s="1"/>
-      <c r="DC14" s="1"/>
-      <c r="DD14" s="1"/>
-      <c r="DE14" s="1"/>
-      <c r="DF14" s="1"/>
-      <c r="DG14" s="1"/>
-      <c r="DH14" s="1"/>
-      <c r="DI14" s="1"/>
-      <c r="DJ14" s="1"/>
-      <c r="DK14" s="1"/>
-      <c r="DL14" s="1"/>
-      <c r="DM14" s="1"/>
-      <c r="DN14" s="1"/>
-      <c r="DO14" s="1"/>
-      <c r="DP14" s="1"/>
-      <c r="DQ14" s="1"/>
-      <c r="DR14" s="1"/>
-      <c r="DS14" s="1"/>
-      <c r="DT14" s="1"/>
-      <c r="DU14" s="1"/>
-      <c r="DV14" s="1"/>
-      <c r="DW14" s="1"/>
-      <c r="DX14" s="1"/>
-      <c r="DY14" s="1"/>
-      <c r="DZ14" s="1"/>
-      <c r="EA14" s="1"/>
-      <c r="EB14" s="1"/>
-      <c r="EC14" s="1"/>
-      <c r="ED14" s="1"/>
-      <c r="EE14" s="1"/>
-      <c r="EF14" s="1"/>
-      <c r="EG14" s="1"/>
-      <c r="EH14" s="1"/>
-      <c r="EI14" s="1"/>
-      <c r="EJ14" s="1"/>
-      <c r="EK14" s="1"/>
-      <c r="EL14" s="1"/>
-      <c r="EM14" s="1"/>
-      <c r="EN14" s="1"/>
-      <c r="EO14" s="1"/>
-      <c r="EP14" s="1"/>
-      <c r="EQ14" s="1"/>
-      <c r="ER14" s="1"/>
-      <c r="ES14" s="1"/>
-      <c r="ET14" s="1"/>
-      <c r="EU14" s="1"/>
-      <c r="EV14" s="1"/>
-      <c r="EW14" s="1"/>
-      <c r="EX14" s="1"/>
-      <c r="EY14" s="1"/>
-      <c r="EZ14" s="1"/>
-      <c r="FA14" s="1"/>
-      <c r="FB14" s="1"/>
-      <c r="FC14" s="1"/>
-      <c r="FD14" s="1"/>
-      <c r="FE14" s="1"/>
-      <c r="FF14" s="1"/>
-      <c r="FG14" s="1"/>
-      <c r="FH14" s="1"/>
-      <c r="FI14" s="1"/>
-      <c r="FJ14" s="1"/>
-      <c r="FK14" s="1"/>
-      <c r="FL14" s="1"/>
-      <c r="FM14" s="1"/>
-      <c r="FN14" s="1"/>
-      <c r="FO14" s="1"/>
-      <c r="FP14" s="1"/>
-      <c r="FQ14" s="1"/>
-      <c r="FR14" s="1"/>
-      <c r="FS14" s="1"/>
-      <c r="FT14" s="1"/>
-      <c r="FU14" s="1"/>
-      <c r="FV14" s="1"/>
-      <c r="FW14" s="1"/>
-      <c r="FX14" s="1"/>
-      <c r="FY14" s="1"/>
-      <c r="FZ14" s="1"/>
-      <c r="GA14" s="1"/>
-      <c r="GB14" s="1"/>
-      <c r="GC14" s="1"/>
-      <c r="GD14" s="1"/>
-      <c r="GE14" s="1"/>
-    </row>
-    <row r="15" spans="1:233" ht="15" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
-      <c r="BN15" s="1"/>
-      <c r="BO15" s="1"/>
-      <c r="BP15" s="1"/>
-      <c r="BQ15" s="1"/>
-      <c r="BR15" s="1"/>
-      <c r="BS15" s="1"/>
-      <c r="BT15" s="1"/>
-      <c r="BU15" s="1"/>
-      <c r="BV15" s="1"/>
-      <c r="BW15" s="1"/>
-      <c r="BX15" s="1"/>
-      <c r="BY15" s="1"/>
-      <c r="BZ15" s="1"/>
-      <c r="CA15" s="1"/>
-      <c r="CB15" s="1"/>
-      <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
-      <c r="CF15" s="1"/>
-      <c r="CG15" s="1"/>
-      <c r="CH15" s="1"/>
-      <c r="CI15" s="1"/>
-      <c r="CJ15" s="1"/>
-      <c r="CK15" s="1"/>
-      <c r="CL15" s="1"/>
-      <c r="CM15" s="1"/>
-      <c r="CN15" s="1"/>
-      <c r="CO15" s="1"/>
-      <c r="CP15" s="1"/>
-      <c r="CQ15" s="1"/>
-      <c r="CR15" s="1"/>
-      <c r="CS15" s="1"/>
-      <c r="CT15" s="1"/>
-      <c r="CU15" s="1"/>
-      <c r="CV15" s="1"/>
-      <c r="CW15" s="1"/>
-      <c r="CX15" s="1"/>
-      <c r="CY15" s="1"/>
-      <c r="CZ15" s="1"/>
-      <c r="DA15" s="1"/>
-      <c r="DB15" s="1"/>
-      <c r="DC15" s="1"/>
-      <c r="DD15" s="1"/>
-      <c r="DE15" s="1"/>
-      <c r="DF15" s="1"/>
-      <c r="DG15" s="1"/>
-      <c r="DH15" s="1"/>
-      <c r="DI15" s="1"/>
-      <c r="DJ15" s="1"/>
-      <c r="DK15" s="1"/>
-      <c r="DL15" s="1"/>
-      <c r="DM15" s="1"/>
-      <c r="DN15" s="1"/>
-      <c r="DO15" s="1"/>
-      <c r="DP15" s="1"/>
-      <c r="DQ15" s="1"/>
-      <c r="DR15" s="1"/>
-      <c r="DS15" s="1"/>
-      <c r="DT15" s="1"/>
-      <c r="DU15" s="1"/>
-      <c r="DV15" s="1"/>
-      <c r="DW15" s="1"/>
-      <c r="DX15" s="1"/>
-      <c r="DY15" s="1"/>
-      <c r="DZ15" s="1"/>
-      <c r="EA15" s="1"/>
-      <c r="EB15" s="1"/>
-      <c r="EC15" s="1"/>
-      <c r="ED15" s="1"/>
-      <c r="EE15" s="1"/>
-      <c r="EF15" s="1"/>
-      <c r="EG15" s="1"/>
-      <c r="EH15" s="1"/>
-      <c r="EI15" s="1"/>
-      <c r="EJ15" s="1"/>
-      <c r="EK15" s="1"/>
-      <c r="EL15" s="1"/>
-      <c r="EM15" s="1"/>
-      <c r="EN15" s="1"/>
-      <c r="EO15" s="1"/>
-      <c r="EP15" s="1"/>
-      <c r="EQ15" s="1"/>
-      <c r="ER15" s="1"/>
-      <c r="ES15" s="1"/>
-      <c r="ET15" s="1"/>
-      <c r="EU15" s="1"/>
-      <c r="EV15" s="1"/>
-      <c r="EW15" s="1"/>
-      <c r="EX15" s="1"/>
-      <c r="EY15" s="1"/>
-      <c r="EZ15" s="1"/>
-      <c r="FA15" s="1"/>
-      <c r="FB15" s="1"/>
-      <c r="FC15" s="1"/>
-      <c r="FD15" s="1"/>
-      <c r="FE15" s="1"/>
-      <c r="FF15" s="1"/>
-      <c r="FG15" s="1"/>
-      <c r="FH15" s="1"/>
-      <c r="FI15" s="1"/>
-      <c r="FJ15" s="1"/>
-      <c r="FK15" s="1"/>
-      <c r="FL15" s="1"/>
-      <c r="FM15" s="1"/>
-      <c r="FN15" s="1"/>
-      <c r="FO15" s="1"/>
-      <c r="FP15" s="1"/>
-      <c r="FQ15" s="1"/>
-      <c r="FR15" s="1"/>
-      <c r="FS15" s="1"/>
-      <c r="FT15" s="1"/>
-      <c r="FU15" s="1"/>
-      <c r="FV15" s="1"/>
-      <c r="FW15" s="1"/>
-      <c r="FX15" s="1"/>
-      <c r="FY15" s="1"/>
-      <c r="FZ15" s="1"/>
-      <c r="GA15" s="1"/>
-      <c r="GB15" s="1"/>
-      <c r="GC15" s="1"/>
-      <c r="GD15" s="1"/>
-      <c r="GE15" s="1"/>
-    </row>
-    <row r="16" spans="1:233" ht="15" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="52"/>
+      <c r="AT16" s="52"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="52"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="52"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="52"/>
+      <c r="BB16" s="52"/>
+      <c r="BC16" s="53"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
@@ -4311,204 +4460,208 @@
       <c r="GE16" s="1"/>
     </row>
     <row r="17" spans="1:187" ht="15" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="1"/>
-      <c r="BQ17" s="1"/>
-      <c r="BR17" s="1"/>
-      <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
-      <c r="BU17" s="1"/>
-      <c r="BV17" s="1"/>
-      <c r="BW17" s="1"/>
-      <c r="BX17" s="1"/>
-      <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
-      <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
-      <c r="CU17" s="1"/>
-      <c r="CV17" s="1"/>
-      <c r="CW17" s="1"/>
-      <c r="CX17" s="1"/>
-      <c r="CY17" s="1"/>
-      <c r="CZ17" s="1"/>
-      <c r="DA17" s="1"/>
-      <c r="DB17" s="1"/>
-      <c r="DC17" s="1"/>
-      <c r="DD17" s="1"/>
-      <c r="DE17" s="1"/>
-      <c r="DF17" s="1"/>
-      <c r="DG17" s="1"/>
-      <c r="DH17" s="1"/>
-      <c r="DI17" s="1"/>
-      <c r="DJ17" s="1"/>
-      <c r="DK17" s="1"/>
-      <c r="DL17" s="1"/>
-      <c r="DM17" s="1"/>
-      <c r="DN17" s="1"/>
-      <c r="DO17" s="1"/>
-      <c r="DP17" s="1"/>
-      <c r="DQ17" s="1"/>
-      <c r="DR17" s="1"/>
-      <c r="DS17" s="1"/>
-      <c r="DT17" s="1"/>
-      <c r="DU17" s="1"/>
-      <c r="DV17" s="1"/>
-      <c r="DW17" s="1"/>
-      <c r="DX17" s="1"/>
-      <c r="DY17" s="1"/>
-      <c r="DZ17" s="1"/>
-      <c r="EA17" s="1"/>
-      <c r="EB17" s="1"/>
-      <c r="EC17" s="1"/>
-      <c r="ED17" s="1"/>
-      <c r="EE17" s="1"/>
-      <c r="EF17" s="1"/>
-      <c r="EG17" s="1"/>
-      <c r="EH17" s="1"/>
-      <c r="EI17" s="1"/>
-      <c r="EJ17" s="1"/>
-      <c r="EK17" s="1"/>
-      <c r="EL17" s="1"/>
-      <c r="EM17" s="1"/>
-      <c r="EN17" s="1"/>
-      <c r="EO17" s="1"/>
-      <c r="EP17" s="1"/>
-      <c r="EQ17" s="1"/>
-      <c r="ER17" s="1"/>
-      <c r="ES17" s="1"/>
-      <c r="ET17" s="1"/>
-      <c r="EU17" s="1"/>
-      <c r="EV17" s="1"/>
-      <c r="EW17" s="1"/>
-      <c r="EX17" s="1"/>
-      <c r="EY17" s="1"/>
-      <c r="EZ17" s="1"/>
-      <c r="FA17" s="1"/>
-      <c r="FB17" s="1"/>
-      <c r="FC17" s="1"/>
-      <c r="FD17" s="1"/>
-      <c r="FE17" s="1"/>
-      <c r="FF17" s="1"/>
-      <c r="FG17" s="1"/>
-      <c r="FH17" s="1"/>
-      <c r="FI17" s="1"/>
-      <c r="FJ17" s="1"/>
-      <c r="FK17" s="1"/>
-      <c r="FL17" s="1"/>
-      <c r="FM17" s="1"/>
-      <c r="FN17" s="1"/>
-      <c r="FO17" s="1"/>
-      <c r="FP17" s="1"/>
-      <c r="FQ17" s="1"/>
-      <c r="FR17" s="1"/>
-      <c r="FS17" s="1"/>
-      <c r="FT17" s="1"/>
-      <c r="FU17" s="1"/>
-      <c r="FV17" s="1"/>
-      <c r="FW17" s="1"/>
-      <c r="FX17" s="1"/>
-      <c r="FY17" s="1"/>
-      <c r="FZ17" s="1"/>
-      <c r="GA17" s="1"/>
-      <c r="GB17" s="1"/>
-      <c r="GC17" s="1"/>
-      <c r="GD17" s="1"/>
-      <c r="GE17" s="1"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="55"/>
+      <c r="AL17" s="55"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="55"/>
+      <c r="AP17" s="55"/>
+      <c r="AQ17" s="55"/>
+      <c r="AR17" s="55"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="55"/>
+      <c r="AV17" s="55"/>
+      <c r="AW17" s="55"/>
+      <c r="AX17" s="55"/>
+      <c r="AY17" s="55"/>
+      <c r="AZ17" s="55"/>
+      <c r="BA17" s="55"/>
+      <c r="BB17" s="55"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="8"/>
+      <c r="BF17" s="8"/>
+      <c r="BG17" s="8"/>
+      <c r="BH17" s="8"/>
+      <c r="BI17" s="8"/>
+      <c r="BJ17" s="8"/>
+      <c r="BK17" s="8"/>
+      <c r="BL17" s="8"/>
+      <c r="BM17" s="8"/>
+      <c r="BN17" s="8"/>
+      <c r="BO17" s="8"/>
+      <c r="BP17" s="8"/>
+      <c r="BQ17" s="8"/>
+      <c r="BR17" s="8"/>
+      <c r="BS17" s="8"/>
+      <c r="BT17" s="8"/>
+      <c r="BU17" s="8"/>
+      <c r="BV17" s="8"/>
+      <c r="BW17" s="8"/>
+      <c r="BX17" s="8"/>
+      <c r="BY17" s="8"/>
+      <c r="BZ17" s="8"/>
+      <c r="CA17" s="8"/>
+      <c r="CB17" s="8"/>
+      <c r="CC17" s="8"/>
+      <c r="CD17" s="8"/>
+      <c r="CE17" s="8"/>
+      <c r="CF17" s="8"/>
+      <c r="CG17" s="8"/>
+      <c r="CH17" s="8"/>
+      <c r="CI17" s="8"/>
+      <c r="CJ17" s="8"/>
+      <c r="CK17" s="8"/>
+      <c r="CL17" s="8"/>
+      <c r="CM17" s="8"/>
+      <c r="CN17" s="8"/>
+      <c r="CO17" s="8"/>
+      <c r="CP17" s="8"/>
+      <c r="CQ17" s="8"/>
+      <c r="CR17" s="8"/>
+      <c r="CS17" s="8"/>
+      <c r="CT17" s="8"/>
+      <c r="CU17" s="8"/>
+      <c r="CV17" s="8"/>
+      <c r="CW17" s="8"/>
+      <c r="CX17" s="8"/>
+      <c r="CY17" s="8"/>
+      <c r="CZ17" s="8"/>
+      <c r="DA17" s="8"/>
+      <c r="DB17" s="8"/>
+      <c r="DC17" s="8"/>
+      <c r="DD17" s="8"/>
+      <c r="DE17" s="8"/>
+      <c r="DF17" s="8"/>
+      <c r="DG17" s="8"/>
+      <c r="DH17" s="8"/>
+      <c r="DI17" s="8"/>
+      <c r="DJ17" s="8"/>
+      <c r="DK17" s="8"/>
+      <c r="DL17" s="8"/>
+      <c r="DM17" s="8"/>
+      <c r="DN17" s="8"/>
+      <c r="DO17" s="8"/>
+      <c r="DP17" s="8"/>
+      <c r="DQ17" s="8"/>
+      <c r="DR17" s="8"/>
+      <c r="DS17" s="8"/>
+      <c r="DT17" s="8"/>
+      <c r="DU17" s="8"/>
+      <c r="DV17" s="8"/>
+      <c r="DW17" s="8"/>
+      <c r="DX17" s="8"/>
+      <c r="DY17" s="8"/>
+      <c r="DZ17" s="8"/>
+      <c r="EA17" s="8"/>
+      <c r="EB17" s="8"/>
+      <c r="EC17" s="8"/>
+      <c r="ED17" s="8"/>
+      <c r="EE17" s="8"/>
+      <c r="EF17" s="8"/>
+      <c r="EG17" s="8"/>
+      <c r="EH17" s="8"/>
+      <c r="EI17" s="8"/>
+      <c r="EJ17" s="8"/>
+      <c r="EK17" s="8"/>
+      <c r="EL17" s="8"/>
+      <c r="EM17" s="8"/>
+      <c r="EN17" s="8"/>
+      <c r="EO17" s="8"/>
+      <c r="EP17" s="8"/>
+      <c r="EQ17" s="8"/>
+      <c r="ER17" s="8"/>
+      <c r="ES17" s="8"/>
+      <c r="ET17" s="8"/>
+      <c r="EU17" s="8"/>
+      <c r="EV17" s="8"/>
+      <c r="EW17" s="8"/>
+      <c r="EX17" s="8"/>
+      <c r="EY17" s="8"/>
+      <c r="EZ17" s="8"/>
+      <c r="FA17" s="8"/>
+      <c r="FB17" s="8"/>
+      <c r="FC17" s="8"/>
+      <c r="FD17" s="8"/>
+      <c r="FE17" s="8"/>
+      <c r="FF17" s="8"/>
+      <c r="FG17" s="8"/>
+      <c r="FH17" s="8"/>
+      <c r="FI17" s="8"/>
+      <c r="FJ17" s="8"/>
+      <c r="FK17" s="8"/>
+      <c r="FL17" s="8"/>
+      <c r="FM17" s="8"/>
+      <c r="FN17" s="8"/>
+      <c r="FO17" s="8"/>
+      <c r="FP17" s="8"/>
+      <c r="FQ17" s="8"/>
+      <c r="FR17" s="8"/>
+      <c r="FS17" s="8"/>
+      <c r="FT17" s="8"/>
+      <c r="FU17" s="8"/>
+      <c r="FV17" s="8"/>
+      <c r="FW17" s="8"/>
+      <c r="FX17" s="8"/>
+      <c r="FY17" s="8"/>
+      <c r="FZ17" s="8"/>
+      <c r="GA17" s="8"/>
+      <c r="GB17" s="8"/>
+      <c r="GC17" s="8"/>
+      <c r="GD17" s="8"/>
+      <c r="GE17" s="8"/>
     </row>
-    <row r="18" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
+    <row r="18" spans="1:187" ht="15" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -4516,188 +4669,196 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="14"/>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="14"/>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
-      <c r="BF18" s="9"/>
-      <c r="BG18" s="9"/>
-      <c r="BH18" s="9"/>
-      <c r="BI18" s="9"/>
-      <c r="BJ18" s="9"/>
-      <c r="BK18" s="9"/>
-      <c r="BL18" s="9"/>
-      <c r="BM18" s="9"/>
-      <c r="BN18" s="9"/>
-      <c r="BO18" s="9"/>
-      <c r="BP18" s="9"/>
-      <c r="BQ18" s="9"/>
-      <c r="BR18" s="9"/>
-      <c r="BS18" s="9"/>
-      <c r="BT18" s="9"/>
-      <c r="BU18" s="9"/>
-      <c r="BV18" s="9"/>
-      <c r="BW18" s="9"/>
-      <c r="BX18" s="9"/>
-      <c r="BY18" s="9"/>
-      <c r="BZ18" s="9"/>
-      <c r="CA18" s="9"/>
-      <c r="CB18" s="9"/>
-      <c r="CC18" s="9"/>
-      <c r="CD18" s="9"/>
-      <c r="CE18" s="9"/>
-      <c r="CF18" s="9"/>
-      <c r="CG18" s="9"/>
-      <c r="CH18" s="9"/>
-      <c r="CI18" s="9"/>
-      <c r="CJ18" s="9"/>
-      <c r="CK18" s="9"/>
-      <c r="CL18" s="9"/>
-      <c r="CM18" s="9"/>
-      <c r="CN18" s="9"/>
-      <c r="CO18" s="9"/>
-      <c r="CP18" s="9"/>
-      <c r="CQ18" s="9"/>
-      <c r="CR18" s="9"/>
-      <c r="CS18" s="9"/>
-      <c r="CT18" s="9"/>
-      <c r="CU18" s="9"/>
-      <c r="CV18" s="9"/>
-      <c r="CW18" s="9"/>
-      <c r="CX18" s="9"/>
-      <c r="CY18" s="9"/>
-      <c r="CZ18" s="9"/>
-      <c r="DA18" s="9"/>
-      <c r="DB18" s="9"/>
-      <c r="DC18" s="9"/>
-      <c r="DD18" s="9"/>
-      <c r="DE18" s="9"/>
-      <c r="DF18" s="9"/>
-      <c r="DG18" s="9"/>
-      <c r="DH18" s="9"/>
-      <c r="DI18" s="9"/>
-      <c r="DJ18" s="9"/>
-      <c r="DK18" s="9"/>
-      <c r="DL18" s="9"/>
-      <c r="DM18" s="9"/>
-      <c r="DN18" s="9"/>
-      <c r="DO18" s="9"/>
-      <c r="DP18" s="9"/>
-      <c r="DQ18" s="9"/>
-      <c r="DR18" s="9"/>
-      <c r="DS18" s="9"/>
-      <c r="DT18" s="9"/>
-      <c r="DU18" s="9"/>
-      <c r="DV18" s="9"/>
-      <c r="DW18" s="9"/>
-      <c r="DX18" s="9"/>
-      <c r="DY18" s="9"/>
-      <c r="DZ18" s="9"/>
-      <c r="EA18" s="9"/>
-      <c r="EB18" s="9"/>
-      <c r="EC18" s="9"/>
-      <c r="ED18" s="9"/>
-      <c r="EE18" s="9"/>
-      <c r="EF18" s="9"/>
-      <c r="EG18" s="9"/>
-      <c r="EH18" s="9"/>
-      <c r="EI18" s="9"/>
-      <c r="EJ18" s="9"/>
-      <c r="EK18" s="9"/>
-      <c r="EL18" s="9"/>
-      <c r="EM18" s="9"/>
-      <c r="EN18" s="9"/>
-      <c r="EO18" s="9"/>
-      <c r="EP18" s="9"/>
-      <c r="EQ18" s="9"/>
-      <c r="ER18" s="9"/>
-      <c r="ES18" s="9"/>
-      <c r="ET18" s="9"/>
-      <c r="EU18" s="9"/>
-      <c r="EV18" s="9"/>
-      <c r="EW18" s="9"/>
-      <c r="EX18" s="9"/>
-      <c r="EY18" s="9"/>
-      <c r="EZ18" s="9"/>
-      <c r="FA18" s="9"/>
-      <c r="FB18" s="9"/>
-      <c r="FC18" s="9"/>
-      <c r="FD18" s="9"/>
-      <c r="FE18" s="9"/>
-      <c r="FF18" s="9"/>
-      <c r="FG18" s="9"/>
-      <c r="FH18" s="9"/>
-      <c r="FI18" s="9"/>
-      <c r="FJ18" s="9"/>
-      <c r="FK18" s="9"/>
-      <c r="FL18" s="9"/>
-      <c r="FM18" s="9"/>
-      <c r="FN18" s="9"/>
-      <c r="FO18" s="9"/>
-      <c r="FP18" s="9"/>
-      <c r="FQ18" s="9"/>
-      <c r="FR18" s="9"/>
-      <c r="FS18" s="9"/>
-      <c r="FT18" s="9"/>
-      <c r="FU18" s="9"/>
-      <c r="FV18" s="9"/>
-      <c r="FW18" s="9"/>
-      <c r="FX18" s="9"/>
-      <c r="FY18" s="9"/>
-      <c r="FZ18" s="9"/>
-      <c r="GA18" s="9"/>
-      <c r="GB18" s="9"/>
-      <c r="GC18" s="9"/>
-      <c r="GD18" s="9"/>
-      <c r="GE18" s="9"/>
+      <c r="Q18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="CJ18" s="1"/>
+      <c r="CK18" s="1"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
+      <c r="CN18" s="1"/>
+      <c r="CO18" s="1"/>
+      <c r="CP18" s="1"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
+      <c r="CW18" s="1"/>
+      <c r="CX18" s="1"/>
+      <c r="CY18" s="1"/>
+      <c r="CZ18" s="1"/>
+      <c r="DA18" s="1"/>
+      <c r="DB18" s="1"/>
+      <c r="DC18" s="1"/>
+      <c r="DD18" s="1"/>
+      <c r="DE18" s="1"/>
+      <c r="DF18" s="1"/>
+      <c r="DG18" s="1"/>
+      <c r="DH18" s="1"/>
+      <c r="DI18" s="1"/>
+      <c r="DJ18" s="1"/>
+      <c r="DK18" s="1"/>
+      <c r="DL18" s="1"/>
+      <c r="DM18" s="1"/>
+      <c r="DN18" s="1"/>
+      <c r="DO18" s="1"/>
+      <c r="DP18" s="1"/>
+      <c r="DQ18" s="1"/>
+      <c r="DR18" s="1"/>
+      <c r="DS18" s="1"/>
+      <c r="DT18" s="1"/>
+      <c r="DU18" s="1"/>
+      <c r="DV18" s="1"/>
+      <c r="DW18" s="1"/>
+      <c r="DX18" s="1"/>
+      <c r="DY18" s="1"/>
+      <c r="DZ18" s="1"/>
+      <c r="EA18" s="1"/>
+      <c r="EB18" s="1"/>
+      <c r="EC18" s="1"/>
+      <c r="ED18" s="1"/>
+      <c r="EE18" s="1"/>
+      <c r="EF18" s="1"/>
+      <c r="EG18" s="1"/>
+      <c r="EH18" s="1"/>
+      <c r="EI18" s="1"/>
+      <c r="EJ18" s="1"/>
+      <c r="EK18" s="1"/>
+      <c r="EL18" s="1"/>
+      <c r="EM18" s="1"/>
+      <c r="EN18" s="1"/>
+      <c r="EO18" s="1"/>
+      <c r="EP18" s="1"/>
+      <c r="EQ18" s="1"/>
+      <c r="ER18" s="1"/>
+      <c r="ES18" s="1"/>
+      <c r="ET18" s="1"/>
+      <c r="EU18" s="1"/>
+      <c r="EV18" s="1"/>
+      <c r="EW18" s="1"/>
+      <c r="EX18" s="1"/>
+      <c r="EY18" s="1"/>
+      <c r="EZ18" s="1"/>
+      <c r="FA18" s="1"/>
+      <c r="FB18" s="1"/>
+      <c r="FC18" s="1"/>
+      <c r="FD18" s="1"/>
+      <c r="FE18" s="1"/>
+      <c r="FF18" s="1"/>
+      <c r="FG18" s="1"/>
+      <c r="FH18" s="1"/>
+      <c r="FI18" s="1"/>
+      <c r="FJ18" s="1"/>
+      <c r="FK18" s="1"/>
+      <c r="FL18" s="1"/>
+      <c r="FM18" s="1"/>
+      <c r="FN18" s="1"/>
+      <c r="FO18" s="1"/>
+      <c r="FP18" s="1"/>
+      <c r="FQ18" s="1"/>
+      <c r="FR18" s="1"/>
+      <c r="FS18" s="1"/>
+      <c r="FT18" s="1"/>
+      <c r="FU18" s="1"/>
+      <c r="FV18" s="1"/>
+      <c r="FW18" s="1"/>
+      <c r="FX18" s="1"/>
+      <c r="FY18" s="1"/>
+      <c r="FZ18" s="1"/>
+      <c r="GA18" s="1"/>
+      <c r="GB18" s="1"/>
+      <c r="GC18" s="1"/>
+      <c r="GD18" s="1"/>
+      <c r="GE18" s="1"/>
     </row>
-    <row r="19" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
+    <row r="19" spans="1:187" ht="15" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -4705,188 +4866,196 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="14"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="14"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="14"/>
-      <c r="BC19" s="14"/>
-      <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
-      <c r="BF19" s="9"/>
-      <c r="BG19" s="9"/>
-      <c r="BH19" s="9"/>
-      <c r="BI19" s="9"/>
-      <c r="BJ19" s="9"/>
-      <c r="BK19" s="9"/>
-      <c r="BL19" s="9"/>
-      <c r="BM19" s="9"/>
-      <c r="BN19" s="9"/>
-      <c r="BO19" s="9"/>
-      <c r="BP19" s="9"/>
-      <c r="BQ19" s="9"/>
-      <c r="BR19" s="9"/>
-      <c r="BS19" s="9"/>
-      <c r="BT19" s="9"/>
-      <c r="BU19" s="9"/>
-      <c r="BV19" s="9"/>
-      <c r="BW19" s="9"/>
-      <c r="BX19" s="9"/>
-      <c r="BY19" s="9"/>
-      <c r="BZ19" s="9"/>
-      <c r="CA19" s="9"/>
-      <c r="CB19" s="9"/>
-      <c r="CC19" s="9"/>
-      <c r="CD19" s="9"/>
-      <c r="CE19" s="9"/>
-      <c r="CF19" s="9"/>
-      <c r="CG19" s="9"/>
-      <c r="CH19" s="9"/>
-      <c r="CI19" s="9"/>
-      <c r="CJ19" s="9"/>
-      <c r="CK19" s="9"/>
-      <c r="CL19" s="9"/>
-      <c r="CM19" s="9"/>
-      <c r="CN19" s="9"/>
-      <c r="CO19" s="9"/>
-      <c r="CP19" s="9"/>
-      <c r="CQ19" s="9"/>
-      <c r="CR19" s="9"/>
-      <c r="CS19" s="9"/>
-      <c r="CT19" s="9"/>
-      <c r="CU19" s="9"/>
-      <c r="CV19" s="9"/>
-      <c r="CW19" s="9"/>
-      <c r="CX19" s="9"/>
-      <c r="CY19" s="9"/>
-      <c r="CZ19" s="9"/>
-      <c r="DA19" s="9"/>
-      <c r="DB19" s="9"/>
-      <c r="DC19" s="9"/>
-      <c r="DD19" s="9"/>
-      <c r="DE19" s="9"/>
-      <c r="DF19" s="9"/>
-      <c r="DG19" s="9"/>
-      <c r="DH19" s="9"/>
-      <c r="DI19" s="9"/>
-      <c r="DJ19" s="9"/>
-      <c r="DK19" s="9"/>
-      <c r="DL19" s="9"/>
-      <c r="DM19" s="9"/>
-      <c r="DN19" s="9"/>
-      <c r="DO19" s="9"/>
-      <c r="DP19" s="9"/>
-      <c r="DQ19" s="9"/>
-      <c r="DR19" s="9"/>
-      <c r="DS19" s="9"/>
-      <c r="DT19" s="9"/>
-      <c r="DU19" s="9"/>
-      <c r="DV19" s="9"/>
-      <c r="DW19" s="9"/>
-      <c r="DX19" s="9"/>
-      <c r="DY19" s="9"/>
-      <c r="DZ19" s="9"/>
-      <c r="EA19" s="9"/>
-      <c r="EB19" s="9"/>
-      <c r="EC19" s="9"/>
-      <c r="ED19" s="9"/>
-      <c r="EE19" s="9"/>
-      <c r="EF19" s="9"/>
-      <c r="EG19" s="9"/>
-      <c r="EH19" s="9"/>
-      <c r="EI19" s="9"/>
-      <c r="EJ19" s="9"/>
-      <c r="EK19" s="9"/>
-      <c r="EL19" s="9"/>
-      <c r="EM19" s="9"/>
-      <c r="EN19" s="9"/>
-      <c r="EO19" s="9"/>
-      <c r="EP19" s="9"/>
-      <c r="EQ19" s="9"/>
-      <c r="ER19" s="9"/>
-      <c r="ES19" s="9"/>
-      <c r="ET19" s="9"/>
-      <c r="EU19" s="9"/>
-      <c r="EV19" s="9"/>
-      <c r="EW19" s="9"/>
-      <c r="EX19" s="9"/>
-      <c r="EY19" s="9"/>
-      <c r="EZ19" s="9"/>
-      <c r="FA19" s="9"/>
-      <c r="FB19" s="9"/>
-      <c r="FC19" s="9"/>
-      <c r="FD19" s="9"/>
-      <c r="FE19" s="9"/>
-      <c r="FF19" s="9"/>
-      <c r="FG19" s="9"/>
-      <c r="FH19" s="9"/>
-      <c r="FI19" s="9"/>
-      <c r="FJ19" s="9"/>
-      <c r="FK19" s="9"/>
-      <c r="FL19" s="9"/>
-      <c r="FM19" s="9"/>
-      <c r="FN19" s="9"/>
-      <c r="FO19" s="9"/>
-      <c r="FP19" s="9"/>
-      <c r="FQ19" s="9"/>
-      <c r="FR19" s="9"/>
-      <c r="FS19" s="9"/>
-      <c r="FT19" s="9"/>
-      <c r="FU19" s="9"/>
-      <c r="FV19" s="9"/>
-      <c r="FW19" s="9"/>
-      <c r="FX19" s="9"/>
-      <c r="FY19" s="9"/>
-      <c r="FZ19" s="9"/>
-      <c r="GA19" s="9"/>
-      <c r="GB19" s="9"/>
-      <c r="GC19" s="9"/>
-      <c r="GD19" s="9"/>
-      <c r="GE19" s="9"/>
+      <c r="Q19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="1"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="1"/>
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
+      <c r="CW19" s="1"/>
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="1"/>
+      <c r="CZ19" s="1"/>
+      <c r="DA19" s="1"/>
+      <c r="DB19" s="1"/>
+      <c r="DC19" s="1"/>
+      <c r="DD19" s="1"/>
+      <c r="DE19" s="1"/>
+      <c r="DF19" s="1"/>
+      <c r="DG19" s="1"/>
+      <c r="DH19" s="1"/>
+      <c r="DI19" s="1"/>
+      <c r="DJ19" s="1"/>
+      <c r="DK19" s="1"/>
+      <c r="DL19" s="1"/>
+      <c r="DM19" s="1"/>
+      <c r="DN19" s="1"/>
+      <c r="DO19" s="1"/>
+      <c r="DP19" s="1"/>
+      <c r="DQ19" s="1"/>
+      <c r="DR19" s="1"/>
+      <c r="DS19" s="1"/>
+      <c r="DT19" s="1"/>
+      <c r="DU19" s="1"/>
+      <c r="DV19" s="1"/>
+      <c r="DW19" s="1"/>
+      <c r="DX19" s="1"/>
+      <c r="DY19" s="1"/>
+      <c r="DZ19" s="1"/>
+      <c r="EA19" s="1"/>
+      <c r="EB19" s="1"/>
+      <c r="EC19" s="1"/>
+      <c r="ED19" s="1"/>
+      <c r="EE19" s="1"/>
+      <c r="EF19" s="1"/>
+      <c r="EG19" s="1"/>
+      <c r="EH19" s="1"/>
+      <c r="EI19" s="1"/>
+      <c r="EJ19" s="1"/>
+      <c r="EK19" s="1"/>
+      <c r="EL19" s="1"/>
+      <c r="EM19" s="1"/>
+      <c r="EN19" s="1"/>
+      <c r="EO19" s="1"/>
+      <c r="EP19" s="1"/>
+      <c r="EQ19" s="1"/>
+      <c r="ER19" s="1"/>
+      <c r="ES19" s="1"/>
+      <c r="ET19" s="1"/>
+      <c r="EU19" s="1"/>
+      <c r="EV19" s="1"/>
+      <c r="EW19" s="1"/>
+      <c r="EX19" s="1"/>
+      <c r="EY19" s="1"/>
+      <c r="EZ19" s="1"/>
+      <c r="FA19" s="1"/>
+      <c r="FB19" s="1"/>
+      <c r="FC19" s="1"/>
+      <c r="FD19" s="1"/>
+      <c r="FE19" s="1"/>
+      <c r="FF19" s="1"/>
+      <c r="FG19" s="1"/>
+      <c r="FH19" s="1"/>
+      <c r="FI19" s="1"/>
+      <c r="FJ19" s="1"/>
+      <c r="FK19" s="1"/>
+      <c r="FL19" s="1"/>
+      <c r="FM19" s="1"/>
+      <c r="FN19" s="1"/>
+      <c r="FO19" s="1"/>
+      <c r="FP19" s="1"/>
+      <c r="FQ19" s="1"/>
+      <c r="FR19" s="1"/>
+      <c r="FS19" s="1"/>
+      <c r="FT19" s="1"/>
+      <c r="FU19" s="1"/>
+      <c r="FV19" s="1"/>
+      <c r="FW19" s="1"/>
+      <c r="FX19" s="1"/>
+      <c r="FY19" s="1"/>
+      <c r="FZ19" s="1"/>
+      <c r="GA19" s="1"/>
+      <c r="GB19" s="1"/>
+      <c r="GC19" s="1"/>
+      <c r="GD19" s="1"/>
+      <c r="GE19" s="1"/>
     </row>
-    <row r="20" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
+    <row r="20" spans="1:187" ht="15" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -4894,423 +5063,435 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="14"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="9"/>
-      <c r="BG20" s="9"/>
-      <c r="BH20" s="9"/>
-      <c r="BI20" s="9"/>
-      <c r="BJ20" s="9"/>
-      <c r="BK20" s="9"/>
-      <c r="BL20" s="9"/>
-      <c r="BM20" s="9"/>
-      <c r="BN20" s="9"/>
-      <c r="BO20" s="9"/>
-      <c r="BP20" s="9"/>
-      <c r="BQ20" s="9"/>
-      <c r="BR20" s="9"/>
-      <c r="BS20" s="9"/>
-      <c r="BT20" s="9"/>
-      <c r="BU20" s="9"/>
-      <c r="BV20" s="9"/>
-      <c r="BW20" s="9"/>
-      <c r="BX20" s="9"/>
-      <c r="BY20" s="9"/>
-      <c r="BZ20" s="9"/>
-      <c r="CA20" s="9"/>
-      <c r="CB20" s="9"/>
-      <c r="CC20" s="9"/>
-      <c r="CD20" s="9"/>
-      <c r="CE20" s="9"/>
-      <c r="CF20" s="9"/>
-      <c r="CG20" s="9"/>
-      <c r="CH20" s="9"/>
-      <c r="CI20" s="9"/>
-      <c r="CJ20" s="9"/>
-      <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="9"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
-      <c r="CU20" s="9"/>
-      <c r="CV20" s="9"/>
-      <c r="CW20" s="9"/>
-      <c r="CX20" s="9"/>
-      <c r="CY20" s="9"/>
-      <c r="CZ20" s="9"/>
-      <c r="DA20" s="9"/>
-      <c r="DB20" s="9"/>
-      <c r="DC20" s="9"/>
-      <c r="DD20" s="9"/>
-      <c r="DE20" s="9"/>
-      <c r="DF20" s="9"/>
-      <c r="DG20" s="9"/>
-      <c r="DH20" s="9"/>
-      <c r="DI20" s="9"/>
-      <c r="DJ20" s="9"/>
-      <c r="DK20" s="9"/>
-      <c r="DL20" s="9"/>
-      <c r="DM20" s="9"/>
-      <c r="DN20" s="9"/>
-      <c r="DO20" s="9"/>
-      <c r="DP20" s="9"/>
-      <c r="DQ20" s="9"/>
-      <c r="DR20" s="9"/>
-      <c r="DS20" s="9"/>
-      <c r="DT20" s="9"/>
-      <c r="DU20" s="9"/>
-      <c r="DV20" s="9"/>
-      <c r="DW20" s="9"/>
-      <c r="DX20" s="9"/>
-      <c r="DY20" s="9"/>
-      <c r="DZ20" s="9"/>
-      <c r="EA20" s="9"/>
-      <c r="EB20" s="9"/>
-      <c r="EC20" s="9"/>
-      <c r="ED20" s="9"/>
-      <c r="EE20" s="9"/>
-      <c r="EF20" s="9"/>
-      <c r="EG20" s="9"/>
-      <c r="EH20" s="9"/>
-      <c r="EI20" s="9"/>
-      <c r="EJ20" s="9"/>
-      <c r="EK20" s="9"/>
-      <c r="EL20" s="9"/>
-      <c r="EM20" s="9"/>
-      <c r="EN20" s="9"/>
-      <c r="EO20" s="9"/>
-      <c r="EP20" s="9"/>
-      <c r="EQ20" s="9"/>
-      <c r="ER20" s="9"/>
-      <c r="ES20" s="9"/>
-      <c r="ET20" s="9"/>
-      <c r="EU20" s="9"/>
-      <c r="EV20" s="9"/>
-      <c r="EW20" s="9"/>
-      <c r="EX20" s="9"/>
-      <c r="EY20" s="9"/>
-      <c r="EZ20" s="9"/>
-      <c r="FA20" s="9"/>
-      <c r="FB20" s="9"/>
-      <c r="FC20" s="9"/>
-      <c r="FD20" s="9"/>
-      <c r="FE20" s="9"/>
-      <c r="FF20" s="9"/>
-      <c r="FG20" s="9"/>
-      <c r="FH20" s="9"/>
-      <c r="FI20" s="9"/>
-      <c r="FJ20" s="9"/>
-      <c r="FK20" s="9"/>
-      <c r="FL20" s="9"/>
-      <c r="FM20" s="9"/>
-      <c r="FN20" s="9"/>
-      <c r="FO20" s="9"/>
-      <c r="FP20" s="9"/>
-      <c r="FQ20" s="9"/>
-      <c r="FR20" s="9"/>
-      <c r="FS20" s="9"/>
-      <c r="FT20" s="9"/>
-      <c r="FU20" s="9"/>
-      <c r="FV20" s="9"/>
-      <c r="FW20" s="9"/>
-      <c r="FX20" s="9"/>
-      <c r="FY20" s="9"/>
-      <c r="FZ20" s="9"/>
-      <c r="GA20" s="9"/>
-      <c r="GB20" s="9"/>
-      <c r="GC20" s="9"/>
-      <c r="GD20" s="9"/>
-      <c r="GE20" s="9"/>
+      <c r="Q20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
+      <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
+      <c r="CW20" s="1"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="1"/>
+      <c r="CZ20" s="1"/>
+      <c r="DA20" s="1"/>
+      <c r="DB20" s="1"/>
+      <c r="DC20" s="1"/>
+      <c r="DD20" s="1"/>
+      <c r="DE20" s="1"/>
+      <c r="DF20" s="1"/>
+      <c r="DG20" s="1"/>
+      <c r="DH20" s="1"/>
+      <c r="DI20" s="1"/>
+      <c r="DJ20" s="1"/>
+      <c r="DK20" s="1"/>
+      <c r="DL20" s="1"/>
+      <c r="DM20" s="1"/>
+      <c r="DN20" s="1"/>
+      <c r="DO20" s="1"/>
+      <c r="DP20" s="1"/>
+      <c r="DQ20" s="1"/>
+      <c r="DR20" s="1"/>
+      <c r="DS20" s="1"/>
+      <c r="DT20" s="1"/>
+      <c r="DU20" s="1"/>
+      <c r="DV20" s="1"/>
+      <c r="DW20" s="1"/>
+      <c r="DX20" s="1"/>
+      <c r="DY20" s="1"/>
+      <c r="DZ20" s="1"/>
+      <c r="EA20" s="1"/>
+      <c r="EB20" s="1"/>
+      <c r="EC20" s="1"/>
+      <c r="ED20" s="1"/>
+      <c r="EE20" s="1"/>
+      <c r="EF20" s="1"/>
+      <c r="EG20" s="1"/>
+      <c r="EH20" s="1"/>
+      <c r="EI20" s="1"/>
+      <c r="EJ20" s="1"/>
+      <c r="EK20" s="1"/>
+      <c r="EL20" s="1"/>
+      <c r="EM20" s="1"/>
+      <c r="EN20" s="1"/>
+      <c r="EO20" s="1"/>
+      <c r="EP20" s="1"/>
+      <c r="EQ20" s="1"/>
+      <c r="ER20" s="1"/>
+      <c r="ES20" s="1"/>
+      <c r="ET20" s="1"/>
+      <c r="EU20" s="1"/>
+      <c r="EV20" s="1"/>
+      <c r="EW20" s="1"/>
+      <c r="EX20" s="1"/>
+      <c r="EY20" s="1"/>
+      <c r="EZ20" s="1"/>
+      <c r="FA20" s="1"/>
+      <c r="FB20" s="1"/>
+      <c r="FC20" s="1"/>
+      <c r="FD20" s="1"/>
+      <c r="FE20" s="1"/>
+      <c r="FF20" s="1"/>
+      <c r="FG20" s="1"/>
+      <c r="FH20" s="1"/>
+      <c r="FI20" s="1"/>
+      <c r="FJ20" s="1"/>
+      <c r="FK20" s="1"/>
+      <c r="FL20" s="1"/>
+      <c r="FM20" s="1"/>
+      <c r="FN20" s="1"/>
+      <c r="FO20" s="1"/>
+      <c r="FP20" s="1"/>
+      <c r="FQ20" s="1"/>
+      <c r="FR20" s="1"/>
+      <c r="FS20" s="1"/>
+      <c r="FT20" s="1"/>
+      <c r="FU20" s="1"/>
+      <c r="FV20" s="1"/>
+      <c r="FW20" s="1"/>
+      <c r="FX20" s="1"/>
+      <c r="FY20" s="1"/>
+      <c r="FZ20" s="1"/>
+      <c r="GA20" s="1"/>
+      <c r="GB20" s="1"/>
+      <c r="GC20" s="1"/>
+      <c r="GD20" s="1"/>
+      <c r="GE20" s="1"/>
     </row>
-    <row r="21" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="14"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="14"/>
-      <c r="AU21" s="14"/>
-      <c r="AV21" s="14"/>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="14"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="14"/>
-      <c r="BC21" s="14"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
-      <c r="BG21" s="9"/>
-      <c r="BH21" s="9"/>
-      <c r="BI21" s="9"/>
-      <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
-      <c r="BL21" s="9"/>
-      <c r="BM21" s="9"/>
-      <c r="BN21" s="9"/>
-      <c r="BO21" s="9"/>
-      <c r="BP21" s="9"/>
-      <c r="BQ21" s="9"/>
-      <c r="BR21" s="9"/>
-      <c r="BS21" s="9"/>
-      <c r="BT21" s="9"/>
-      <c r="BU21" s="9"/>
-      <c r="BV21" s="9"/>
-      <c r="BW21" s="9"/>
-      <c r="BX21" s="9"/>
-      <c r="BY21" s="9"/>
-      <c r="BZ21" s="9"/>
-      <c r="CA21" s="9"/>
-      <c r="CB21" s="9"/>
-      <c r="CC21" s="9"/>
-      <c r="CD21" s="9"/>
-      <c r="CE21" s="9"/>
-      <c r="CF21" s="9"/>
-      <c r="CG21" s="9"/>
-      <c r="CH21" s="9"/>
-      <c r="CI21" s="9"/>
-      <c r="CJ21" s="9"/>
-      <c r="CK21" s="9"/>
-      <c r="CL21" s="9"/>
-      <c r="CM21" s="9"/>
-      <c r="CN21" s="9"/>
-      <c r="CO21" s="9"/>
-      <c r="CP21" s="9"/>
-      <c r="CQ21" s="9"/>
-      <c r="CR21" s="9"/>
-      <c r="CS21" s="9"/>
-      <c r="CT21" s="9"/>
-      <c r="CU21" s="9"/>
-      <c r="CV21" s="9"/>
-      <c r="CW21" s="9"/>
-      <c r="CX21" s="9"/>
-      <c r="CY21" s="9"/>
-      <c r="CZ21" s="9"/>
-      <c r="DA21" s="9"/>
-      <c r="DB21" s="9"/>
-      <c r="DC21" s="9"/>
-      <c r="DD21" s="9"/>
-      <c r="DE21" s="9"/>
-      <c r="DF21" s="9"/>
-      <c r="DG21" s="9"/>
-      <c r="DH21" s="9"/>
-      <c r="DI21" s="9"/>
-      <c r="DJ21" s="9"/>
-      <c r="DK21" s="9"/>
-      <c r="DL21" s="9"/>
-      <c r="DM21" s="9"/>
-      <c r="DN21" s="9"/>
-      <c r="DO21" s="9"/>
-      <c r="DP21" s="9"/>
-      <c r="DQ21" s="9"/>
-      <c r="DR21" s="9"/>
-      <c r="DS21" s="9"/>
-      <c r="DT21" s="9"/>
-      <c r="DU21" s="9"/>
-      <c r="DV21" s="9"/>
-      <c r="DW21" s="9"/>
-      <c r="DX21" s="9"/>
-      <c r="DY21" s="9"/>
-      <c r="DZ21" s="9"/>
-      <c r="EA21" s="9"/>
-      <c r="EB21" s="9"/>
-      <c r="EC21" s="9"/>
-      <c r="ED21" s="9"/>
-      <c r="EE21" s="9"/>
-      <c r="EF21" s="9"/>
-      <c r="EG21" s="9"/>
-      <c r="EH21" s="9"/>
-      <c r="EI21" s="9"/>
-      <c r="EJ21" s="9"/>
-      <c r="EK21" s="9"/>
-      <c r="EL21" s="9"/>
-      <c r="EM21" s="9"/>
-      <c r="EN21" s="9"/>
-      <c r="EO21" s="9"/>
-      <c r="EP21" s="9"/>
-      <c r="EQ21" s="9"/>
-      <c r="ER21" s="9"/>
-      <c r="ES21" s="9"/>
-      <c r="ET21" s="9"/>
-      <c r="EU21" s="9"/>
-      <c r="EV21" s="9"/>
-      <c r="EW21" s="9"/>
-      <c r="EX21" s="9"/>
-      <c r="EY21" s="9"/>
-      <c r="EZ21" s="9"/>
-      <c r="FA21" s="9"/>
-      <c r="FB21" s="9"/>
-      <c r="FC21" s="9"/>
-      <c r="FD21" s="9"/>
-      <c r="FE21" s="9"/>
-      <c r="FF21" s="9"/>
-      <c r="FG21" s="9"/>
-      <c r="FH21" s="9"/>
-      <c r="FI21" s="9"/>
-      <c r="FJ21" s="9"/>
-      <c r="FK21" s="9"/>
-      <c r="FL21" s="9"/>
-      <c r="FM21" s="9"/>
-      <c r="FN21" s="9"/>
-      <c r="FO21" s="9"/>
-      <c r="FP21" s="9"/>
-      <c r="FQ21" s="9"/>
-      <c r="FR21" s="9"/>
-      <c r="FS21" s="9"/>
-      <c r="FT21" s="9"/>
-      <c r="FU21" s="9"/>
-      <c r="FV21" s="9"/>
-      <c r="FW21" s="9"/>
-      <c r="FX21" s="9"/>
-      <c r="FY21" s="9"/>
-      <c r="FZ21" s="9"/>
-      <c r="GA21" s="9"/>
-      <c r="GB21" s="9"/>
-      <c r="GC21" s="9"/>
-      <c r="GD21" s="9"/>
-      <c r="GE21" s="9"/>
+    <row r="21" spans="1:187" ht="15" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
+      <c r="CW21" s="1"/>
+      <c r="CX21" s="1"/>
+      <c r="CY21" s="1"/>
+      <c r="CZ21" s="1"/>
+      <c r="DA21" s="1"/>
+      <c r="DB21" s="1"/>
+      <c r="DC21" s="1"/>
+      <c r="DD21" s="1"/>
+      <c r="DE21" s="1"/>
+      <c r="DF21" s="1"/>
+      <c r="DG21" s="1"/>
+      <c r="DH21" s="1"/>
+      <c r="DI21" s="1"/>
+      <c r="DJ21" s="1"/>
+      <c r="DK21" s="1"/>
+      <c r="DL21" s="1"/>
+      <c r="DM21" s="1"/>
+      <c r="DN21" s="1"/>
+      <c r="DO21" s="1"/>
+      <c r="DP21" s="1"/>
+      <c r="DQ21" s="1"/>
+      <c r="DR21" s="1"/>
+      <c r="DS21" s="1"/>
+      <c r="DT21" s="1"/>
+      <c r="DU21" s="1"/>
+      <c r="DV21" s="1"/>
+      <c r="DW21" s="1"/>
+      <c r="DX21" s="1"/>
+      <c r="DY21" s="1"/>
+      <c r="DZ21" s="1"/>
+      <c r="EA21" s="1"/>
+      <c r="EB21" s="1"/>
+      <c r="EC21" s="1"/>
+      <c r="ED21" s="1"/>
+      <c r="EE21" s="1"/>
+      <c r="EF21" s="1"/>
+      <c r="EG21" s="1"/>
+      <c r="EH21" s="1"/>
+      <c r="EI21" s="1"/>
+      <c r="EJ21" s="1"/>
+      <c r="EK21" s="1"/>
+      <c r="EL21" s="1"/>
+      <c r="EM21" s="1"/>
+      <c r="EN21" s="1"/>
+      <c r="EO21" s="1"/>
+      <c r="EP21" s="1"/>
+      <c r="EQ21" s="1"/>
+      <c r="ER21" s="1"/>
+      <c r="ES21" s="1"/>
+      <c r="ET21" s="1"/>
+      <c r="EU21" s="1"/>
+      <c r="EV21" s="1"/>
+      <c r="EW21" s="1"/>
+      <c r="EX21" s="1"/>
+      <c r="EY21" s="1"/>
+      <c r="EZ21" s="1"/>
+      <c r="FA21" s="1"/>
+      <c r="FB21" s="1"/>
+      <c r="FC21" s="1"/>
+      <c r="FD21" s="1"/>
+      <c r="FE21" s="1"/>
+      <c r="FF21" s="1"/>
+      <c r="FG21" s="1"/>
+      <c r="FH21" s="1"/>
+      <c r="FI21" s="1"/>
+      <c r="FJ21" s="1"/>
+      <c r="FK21" s="1"/>
+      <c r="FL21" s="1"/>
+      <c r="FM21" s="1"/>
+      <c r="FN21" s="1"/>
+      <c r="FO21" s="1"/>
+      <c r="FP21" s="1"/>
+      <c r="FQ21" s="1"/>
+      <c r="FR21" s="1"/>
+      <c r="FS21" s="1"/>
+      <c r="FT21" s="1"/>
+      <c r="FU21" s="1"/>
+      <c r="FV21" s="1"/>
+      <c r="FW21" s="1"/>
+      <c r="FX21" s="1"/>
+      <c r="FY21" s="1"/>
+      <c r="FZ21" s="1"/>
+      <c r="GA21" s="1"/>
+      <c r="GB21" s="1"/>
+      <c r="GC21" s="1"/>
+      <c r="GD21" s="1"/>
+      <c r="GE21" s="1"/>
     </row>
     <row r="22" spans="1:187" ht="15" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="19"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="19"/>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="19"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
@@ -5444,16 +5625,16 @@
       <c r="GD22" s="1"/>
       <c r="GE22" s="1"/>
     </row>
-    <row r="23" spans="1:187" ht="15" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="22"/>
+    <row r="23" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -5461,188 +5642,188 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="AU23" s="19"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="19"/>
-      <c r="AY23" s="19"/>
-      <c r="AZ23" s="19"/>
-      <c r="BA23" s="19"/>
-      <c r="BB23" s="19"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
-      <c r="BM23" s="1"/>
-      <c r="BN23" s="1"/>
-      <c r="BO23" s="1"/>
-      <c r="BP23" s="1"/>
-      <c r="BQ23" s="1"/>
-      <c r="BR23" s="1"/>
-      <c r="BS23" s="1"/>
-      <c r="BT23" s="1"/>
-      <c r="BU23" s="1"/>
-      <c r="BV23" s="1"/>
-      <c r="BW23" s="1"/>
-      <c r="BX23" s="1"/>
-      <c r="BY23" s="1"/>
-      <c r="BZ23" s="1"/>
-      <c r="CA23" s="1"/>
-      <c r="CB23" s="1"/>
-      <c r="CC23" s="1"/>
-      <c r="CD23" s="1"/>
-      <c r="CE23" s="1"/>
-      <c r="CF23" s="1"/>
-      <c r="CG23" s="1"/>
-      <c r="CH23" s="1"/>
-      <c r="CI23" s="1"/>
-      <c r="CJ23" s="1"/>
-      <c r="CK23" s="1"/>
-      <c r="CL23" s="1"/>
-      <c r="CM23" s="1"/>
-      <c r="CN23" s="1"/>
-      <c r="CO23" s="1"/>
-      <c r="CP23" s="1"/>
-      <c r="CQ23" s="1"/>
-      <c r="CR23" s="1"/>
-      <c r="CS23" s="1"/>
-      <c r="CT23" s="1"/>
-      <c r="CU23" s="1"/>
-      <c r="CV23" s="1"/>
-      <c r="CW23" s="1"/>
-      <c r="CX23" s="1"/>
-      <c r="CY23" s="1"/>
-      <c r="CZ23" s="1"/>
-      <c r="DA23" s="1"/>
-      <c r="DB23" s="1"/>
-      <c r="DC23" s="1"/>
-      <c r="DD23" s="1"/>
-      <c r="DE23" s="1"/>
-      <c r="DF23" s="1"/>
-      <c r="DG23" s="1"/>
-      <c r="DH23" s="1"/>
-      <c r="DI23" s="1"/>
-      <c r="DJ23" s="1"/>
-      <c r="DK23" s="1"/>
-      <c r="DL23" s="1"/>
-      <c r="DM23" s="1"/>
-      <c r="DN23" s="1"/>
-      <c r="DO23" s="1"/>
-      <c r="DP23" s="1"/>
-      <c r="DQ23" s="1"/>
-      <c r="DR23" s="1"/>
-      <c r="DS23" s="1"/>
-      <c r="DT23" s="1"/>
-      <c r="DU23" s="1"/>
-      <c r="DV23" s="1"/>
-      <c r="DW23" s="1"/>
-      <c r="DX23" s="1"/>
-      <c r="DY23" s="1"/>
-      <c r="DZ23" s="1"/>
-      <c r="EA23" s="1"/>
-      <c r="EB23" s="1"/>
-      <c r="EC23" s="1"/>
-      <c r="ED23" s="1"/>
-      <c r="EE23" s="1"/>
-      <c r="EF23" s="1"/>
-      <c r="EG23" s="1"/>
-      <c r="EH23" s="1"/>
-      <c r="EI23" s="1"/>
-      <c r="EJ23" s="1"/>
-      <c r="EK23" s="1"/>
-      <c r="EL23" s="1"/>
-      <c r="EM23" s="1"/>
-      <c r="EN23" s="1"/>
-      <c r="EO23" s="1"/>
-      <c r="EP23" s="1"/>
-      <c r="EQ23" s="1"/>
-      <c r="ER23" s="1"/>
-      <c r="ES23" s="1"/>
-      <c r="ET23" s="1"/>
-      <c r="EU23" s="1"/>
-      <c r="EV23" s="1"/>
-      <c r="EW23" s="1"/>
-      <c r="EX23" s="1"/>
-      <c r="EY23" s="1"/>
-      <c r="EZ23" s="1"/>
-      <c r="FA23" s="1"/>
-      <c r="FB23" s="1"/>
-      <c r="FC23" s="1"/>
-      <c r="FD23" s="1"/>
-      <c r="FE23" s="1"/>
-      <c r="FF23" s="1"/>
-      <c r="FG23" s="1"/>
-      <c r="FH23" s="1"/>
-      <c r="FI23" s="1"/>
-      <c r="FJ23" s="1"/>
-      <c r="FK23" s="1"/>
-      <c r="FL23" s="1"/>
-      <c r="FM23" s="1"/>
-      <c r="FN23" s="1"/>
-      <c r="FO23" s="1"/>
-      <c r="FP23" s="1"/>
-      <c r="FQ23" s="1"/>
-      <c r="FR23" s="1"/>
-      <c r="FS23" s="1"/>
-      <c r="FT23" s="1"/>
-      <c r="FU23" s="1"/>
-      <c r="FV23" s="1"/>
-      <c r="FW23" s="1"/>
-      <c r="FX23" s="1"/>
-      <c r="FY23" s="1"/>
-      <c r="FZ23" s="1"/>
-      <c r="GA23" s="1"/>
-      <c r="GB23" s="1"/>
-      <c r="GC23" s="1"/>
-      <c r="GD23" s="1"/>
-      <c r="GE23" s="1"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="9"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="9"/>
+      <c r="BU23" s="9"/>
+      <c r="BV23" s="9"/>
+      <c r="BW23" s="9"/>
+      <c r="BX23" s="9"/>
+      <c r="BY23" s="9"/>
+      <c r="BZ23" s="9"/>
+      <c r="CA23" s="9"/>
+      <c r="CB23" s="9"/>
+      <c r="CC23" s="9"/>
+      <c r="CD23" s="9"/>
+      <c r="CE23" s="9"/>
+      <c r="CF23" s="9"/>
+      <c r="CG23" s="9"/>
+      <c r="CH23" s="9"/>
+      <c r="CI23" s="9"/>
+      <c r="CJ23" s="9"/>
+      <c r="CK23" s="9"/>
+      <c r="CL23" s="9"/>
+      <c r="CM23" s="9"/>
+      <c r="CN23" s="9"/>
+      <c r="CO23" s="9"/>
+      <c r="CP23" s="9"/>
+      <c r="CQ23" s="9"/>
+      <c r="CR23" s="9"/>
+      <c r="CS23" s="9"/>
+      <c r="CT23" s="9"/>
+      <c r="CU23" s="9"/>
+      <c r="CV23" s="9"/>
+      <c r="CW23" s="9"/>
+      <c r="CX23" s="9"/>
+      <c r="CY23" s="9"/>
+      <c r="CZ23" s="9"/>
+      <c r="DA23" s="9"/>
+      <c r="DB23" s="9"/>
+      <c r="DC23" s="9"/>
+      <c r="DD23" s="9"/>
+      <c r="DE23" s="9"/>
+      <c r="DF23" s="9"/>
+      <c r="DG23" s="9"/>
+      <c r="DH23" s="9"/>
+      <c r="DI23" s="9"/>
+      <c r="DJ23" s="9"/>
+      <c r="DK23" s="9"/>
+      <c r="DL23" s="9"/>
+      <c r="DM23" s="9"/>
+      <c r="DN23" s="9"/>
+      <c r="DO23" s="9"/>
+      <c r="DP23" s="9"/>
+      <c r="DQ23" s="9"/>
+      <c r="DR23" s="9"/>
+      <c r="DS23" s="9"/>
+      <c r="DT23" s="9"/>
+      <c r="DU23" s="9"/>
+      <c r="DV23" s="9"/>
+      <c r="DW23" s="9"/>
+      <c r="DX23" s="9"/>
+      <c r="DY23" s="9"/>
+      <c r="DZ23" s="9"/>
+      <c r="EA23" s="9"/>
+      <c r="EB23" s="9"/>
+      <c r="EC23" s="9"/>
+      <c r="ED23" s="9"/>
+      <c r="EE23" s="9"/>
+      <c r="EF23" s="9"/>
+      <c r="EG23" s="9"/>
+      <c r="EH23" s="9"/>
+      <c r="EI23" s="9"/>
+      <c r="EJ23" s="9"/>
+      <c r="EK23" s="9"/>
+      <c r="EL23" s="9"/>
+      <c r="EM23" s="9"/>
+      <c r="EN23" s="9"/>
+      <c r="EO23" s="9"/>
+      <c r="EP23" s="9"/>
+      <c r="EQ23" s="9"/>
+      <c r="ER23" s="9"/>
+      <c r="ES23" s="9"/>
+      <c r="ET23" s="9"/>
+      <c r="EU23" s="9"/>
+      <c r="EV23" s="9"/>
+      <c r="EW23" s="9"/>
+      <c r="EX23" s="9"/>
+      <c r="EY23" s="9"/>
+      <c r="EZ23" s="9"/>
+      <c r="FA23" s="9"/>
+      <c r="FB23" s="9"/>
+      <c r="FC23" s="9"/>
+      <c r="FD23" s="9"/>
+      <c r="FE23" s="9"/>
+      <c r="FF23" s="9"/>
+      <c r="FG23" s="9"/>
+      <c r="FH23" s="9"/>
+      <c r="FI23" s="9"/>
+      <c r="FJ23" s="9"/>
+      <c r="FK23" s="9"/>
+      <c r="FL23" s="9"/>
+      <c r="FM23" s="9"/>
+      <c r="FN23" s="9"/>
+      <c r="FO23" s="9"/>
+      <c r="FP23" s="9"/>
+      <c r="FQ23" s="9"/>
+      <c r="FR23" s="9"/>
+      <c r="FS23" s="9"/>
+      <c r="FT23" s="9"/>
+      <c r="FU23" s="9"/>
+      <c r="FV23" s="9"/>
+      <c r="FW23" s="9"/>
+      <c r="FX23" s="9"/>
+      <c r="FY23" s="9"/>
+      <c r="FZ23" s="9"/>
+      <c r="GA23" s="9"/>
+      <c r="GB23" s="9"/>
+      <c r="GC23" s="9"/>
+      <c r="GD23" s="9"/>
+      <c r="GE23" s="9"/>
     </row>
-    <row r="24" spans="1:187" ht="15" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="22"/>
+    <row r="24" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -5650,612 +5831,612 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="19"/>
-      <c r="AP24" s="19"/>
-      <c r="AQ24" s="19"/>
-      <c r="AR24" s="19"/>
-      <c r="AS24" s="19"/>
-      <c r="AT24" s="19"/>
-      <c r="AU24" s="19"/>
-      <c r="AV24" s="19"/>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="19"/>
-      <c r="AZ24" s="19"/>
-      <c r="BA24" s="19"/>
-      <c r="BB24" s="19"/>
-      <c r="BC24" s="19"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
-      <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
-      <c r="BO24" s="1"/>
-      <c r="BP24" s="1"/>
-      <c r="BQ24" s="1"/>
-      <c r="BR24" s="1"/>
-      <c r="BS24" s="1"/>
-      <c r="BT24" s="1"/>
-      <c r="BU24" s="1"/>
-      <c r="BV24" s="1"/>
-      <c r="BW24" s="1"/>
-      <c r="BX24" s="1"/>
-      <c r="BY24" s="1"/>
-      <c r="BZ24" s="1"/>
-      <c r="CA24" s="1"/>
-      <c r="CB24" s="1"/>
-      <c r="CC24" s="1"/>
-      <c r="CD24" s="1"/>
-      <c r="CE24" s="1"/>
-      <c r="CF24" s="1"/>
-      <c r="CG24" s="1"/>
-      <c r="CH24" s="1"/>
-      <c r="CI24" s="1"/>
-      <c r="CJ24" s="1"/>
-      <c r="CK24" s="1"/>
-      <c r="CL24" s="1"/>
-      <c r="CM24" s="1"/>
-      <c r="CN24" s="1"/>
-      <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
-      <c r="CR24" s="1"/>
-      <c r="CS24" s="1"/>
-      <c r="CT24" s="1"/>
-      <c r="CU24" s="1"/>
-      <c r="CV24" s="1"/>
-      <c r="CW24" s="1"/>
-      <c r="CX24" s="1"/>
-      <c r="CY24" s="1"/>
-      <c r="CZ24" s="1"/>
-      <c r="DA24" s="1"/>
-      <c r="DB24" s="1"/>
-      <c r="DC24" s="1"/>
-      <c r="DD24" s="1"/>
-      <c r="DE24" s="1"/>
-      <c r="DF24" s="1"/>
-      <c r="DG24" s="1"/>
-      <c r="DH24" s="1"/>
-      <c r="DI24" s="1"/>
-      <c r="DJ24" s="1"/>
-      <c r="DK24" s="1"/>
-      <c r="DL24" s="1"/>
-      <c r="DM24" s="1"/>
-      <c r="DN24" s="1"/>
-      <c r="DO24" s="1"/>
-      <c r="DP24" s="1"/>
-      <c r="DQ24" s="1"/>
-      <c r="DR24" s="1"/>
-      <c r="DS24" s="1"/>
-      <c r="DT24" s="1"/>
-      <c r="DU24" s="1"/>
-      <c r="DV24" s="1"/>
-      <c r="DW24" s="1"/>
-      <c r="DX24" s="1"/>
-      <c r="DY24" s="1"/>
-      <c r="DZ24" s="1"/>
-      <c r="EA24" s="1"/>
-      <c r="EB24" s="1"/>
-      <c r="EC24" s="1"/>
-      <c r="ED24" s="1"/>
-      <c r="EE24" s="1"/>
-      <c r="EF24" s="1"/>
-      <c r="EG24" s="1"/>
-      <c r="EH24" s="1"/>
-      <c r="EI24" s="1"/>
-      <c r="EJ24" s="1"/>
-      <c r="EK24" s="1"/>
-      <c r="EL24" s="1"/>
-      <c r="EM24" s="1"/>
-      <c r="EN24" s="1"/>
-      <c r="EO24" s="1"/>
-      <c r="EP24" s="1"/>
-      <c r="EQ24" s="1"/>
-      <c r="ER24" s="1"/>
-      <c r="ES24" s="1"/>
-      <c r="ET24" s="1"/>
-      <c r="EU24" s="1"/>
-      <c r="EV24" s="1"/>
-      <c r="EW24" s="1"/>
-      <c r="EX24" s="1"/>
-      <c r="EY24" s="1"/>
-      <c r="EZ24" s="1"/>
-      <c r="FA24" s="1"/>
-      <c r="FB24" s="1"/>
-      <c r="FC24" s="1"/>
-      <c r="FD24" s="1"/>
-      <c r="FE24" s="1"/>
-      <c r="FF24" s="1"/>
-      <c r="FG24" s="1"/>
-      <c r="FH24" s="1"/>
-      <c r="FI24" s="1"/>
-      <c r="FJ24" s="1"/>
-      <c r="FK24" s="1"/>
-      <c r="FL24" s="1"/>
-      <c r="FM24" s="1"/>
-      <c r="FN24" s="1"/>
-      <c r="FO24" s="1"/>
-      <c r="FP24" s="1"/>
-      <c r="FQ24" s="1"/>
-      <c r="FR24" s="1"/>
-      <c r="FS24" s="1"/>
-      <c r="FT24" s="1"/>
-      <c r="FU24" s="1"/>
-      <c r="FV24" s="1"/>
-      <c r="FW24" s="1"/>
-      <c r="FX24" s="1"/>
-      <c r="FY24" s="1"/>
-      <c r="FZ24" s="1"/>
-      <c r="GA24" s="1"/>
-      <c r="GB24" s="1"/>
-      <c r="GC24" s="1"/>
-      <c r="GD24" s="1"/>
-      <c r="GE24" s="1"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="9"/>
+      <c r="BH24" s="9"/>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="9"/>
+      <c r="BK24" s="9"/>
+      <c r="BL24" s="9"/>
+      <c r="BM24" s="9"/>
+      <c r="BN24" s="9"/>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="9"/>
+      <c r="BQ24" s="9"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="9"/>
+      <c r="BT24" s="9"/>
+      <c r="BU24" s="9"/>
+      <c r="BV24" s="9"/>
+      <c r="BW24" s="9"/>
+      <c r="BX24" s="9"/>
+      <c r="BY24" s="9"/>
+      <c r="BZ24" s="9"/>
+      <c r="CA24" s="9"/>
+      <c r="CB24" s="9"/>
+      <c r="CC24" s="9"/>
+      <c r="CD24" s="9"/>
+      <c r="CE24" s="9"/>
+      <c r="CF24" s="9"/>
+      <c r="CG24" s="9"/>
+      <c r="CH24" s="9"/>
+      <c r="CI24" s="9"/>
+      <c r="CJ24" s="9"/>
+      <c r="CK24" s="9"/>
+      <c r="CL24" s="9"/>
+      <c r="CM24" s="9"/>
+      <c r="CN24" s="9"/>
+      <c r="CO24" s="9"/>
+      <c r="CP24" s="9"/>
+      <c r="CQ24" s="9"/>
+      <c r="CR24" s="9"/>
+      <c r="CS24" s="9"/>
+      <c r="CT24" s="9"/>
+      <c r="CU24" s="9"/>
+      <c r="CV24" s="9"/>
+      <c r="CW24" s="9"/>
+      <c r="CX24" s="9"/>
+      <c r="CY24" s="9"/>
+      <c r="CZ24" s="9"/>
+      <c r="DA24" s="9"/>
+      <c r="DB24" s="9"/>
+      <c r="DC24" s="9"/>
+      <c r="DD24" s="9"/>
+      <c r="DE24" s="9"/>
+      <c r="DF24" s="9"/>
+      <c r="DG24" s="9"/>
+      <c r="DH24" s="9"/>
+      <c r="DI24" s="9"/>
+      <c r="DJ24" s="9"/>
+      <c r="DK24" s="9"/>
+      <c r="DL24" s="9"/>
+      <c r="DM24" s="9"/>
+      <c r="DN24" s="9"/>
+      <c r="DO24" s="9"/>
+      <c r="DP24" s="9"/>
+      <c r="DQ24" s="9"/>
+      <c r="DR24" s="9"/>
+      <c r="DS24" s="9"/>
+      <c r="DT24" s="9"/>
+      <c r="DU24" s="9"/>
+      <c r="DV24" s="9"/>
+      <c r="DW24" s="9"/>
+      <c r="DX24" s="9"/>
+      <c r="DY24" s="9"/>
+      <c r="DZ24" s="9"/>
+      <c r="EA24" s="9"/>
+      <c r="EB24" s="9"/>
+      <c r="EC24" s="9"/>
+      <c r="ED24" s="9"/>
+      <c r="EE24" s="9"/>
+      <c r="EF24" s="9"/>
+      <c r="EG24" s="9"/>
+      <c r="EH24" s="9"/>
+      <c r="EI24" s="9"/>
+      <c r="EJ24" s="9"/>
+      <c r="EK24" s="9"/>
+      <c r="EL24" s="9"/>
+      <c r="EM24" s="9"/>
+      <c r="EN24" s="9"/>
+      <c r="EO24" s="9"/>
+      <c r="EP24" s="9"/>
+      <c r="EQ24" s="9"/>
+      <c r="ER24" s="9"/>
+      <c r="ES24" s="9"/>
+      <c r="ET24" s="9"/>
+      <c r="EU24" s="9"/>
+      <c r="EV24" s="9"/>
+      <c r="EW24" s="9"/>
+      <c r="EX24" s="9"/>
+      <c r="EY24" s="9"/>
+      <c r="EZ24" s="9"/>
+      <c r="FA24" s="9"/>
+      <c r="FB24" s="9"/>
+      <c r="FC24" s="9"/>
+      <c r="FD24" s="9"/>
+      <c r="FE24" s="9"/>
+      <c r="FF24" s="9"/>
+      <c r="FG24" s="9"/>
+      <c r="FH24" s="9"/>
+      <c r="FI24" s="9"/>
+      <c r="FJ24" s="9"/>
+      <c r="FK24" s="9"/>
+      <c r="FL24" s="9"/>
+      <c r="FM24" s="9"/>
+      <c r="FN24" s="9"/>
+      <c r="FO24" s="9"/>
+      <c r="FP24" s="9"/>
+      <c r="FQ24" s="9"/>
+      <c r="FR24" s="9"/>
+      <c r="FS24" s="9"/>
+      <c r="FT24" s="9"/>
+      <c r="FU24" s="9"/>
+      <c r="FV24" s="9"/>
+      <c r="FW24" s="9"/>
+      <c r="FX24" s="9"/>
+      <c r="FY24" s="9"/>
+      <c r="FZ24" s="9"/>
+      <c r="GA24" s="9"/>
+      <c r="GB24" s="9"/>
+      <c r="GC24" s="9"/>
+      <c r="GD24" s="9"/>
+      <c r="GE24" s="9"/>
     </row>
-    <row r="25" spans="1:187" ht="15" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
-      <c r="AX25" s="31"/>
-      <c r="AY25" s="31"/>
-      <c r="AZ25" s="31"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="31"/>
-      <c r="BC25" s="31"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
-      <c r="BF25" s="8"/>
-      <c r="BG25" s="8"/>
-      <c r="BH25" s="8"/>
-      <c r="BI25" s="8"/>
-      <c r="BJ25" s="8"/>
-      <c r="BK25" s="8"/>
-      <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
-      <c r="BN25" s="8"/>
-      <c r="BO25" s="8"/>
-      <c r="BP25" s="8"/>
-      <c r="BQ25" s="8"/>
-      <c r="BR25" s="8"/>
-      <c r="BS25" s="8"/>
-      <c r="BT25" s="8"/>
-      <c r="BU25" s="8"/>
-      <c r="BV25" s="8"/>
-      <c r="BW25" s="8"/>
-      <c r="BX25" s="8"/>
-      <c r="BY25" s="8"/>
-      <c r="BZ25" s="8"/>
-      <c r="CA25" s="8"/>
-      <c r="CB25" s="8"/>
-      <c r="CC25" s="8"/>
-      <c r="CD25" s="8"/>
-      <c r="CE25" s="8"/>
-      <c r="CF25" s="8"/>
-      <c r="CG25" s="8"/>
-      <c r="CH25" s="8"/>
-      <c r="CI25" s="8"/>
-      <c r="CJ25" s="8"/>
-      <c r="CK25" s="8"/>
-      <c r="CL25" s="8"/>
-      <c r="CM25" s="8"/>
-      <c r="CN25" s="8"/>
-      <c r="CO25" s="8"/>
-      <c r="CP25" s="8"/>
-      <c r="CQ25" s="8"/>
-      <c r="CR25" s="8"/>
-      <c r="CS25" s="8"/>
-      <c r="CT25" s="8"/>
-      <c r="CU25" s="8"/>
-      <c r="CV25" s="8"/>
-      <c r="CW25" s="8"/>
-      <c r="CX25" s="8"/>
-      <c r="CY25" s="8"/>
-      <c r="CZ25" s="8"/>
-      <c r="DA25" s="8"/>
-      <c r="DB25" s="8"/>
-      <c r="DC25" s="8"/>
-      <c r="DD25" s="8"/>
-      <c r="DE25" s="8"/>
-      <c r="DF25" s="8"/>
-      <c r="DG25" s="8"/>
-      <c r="DH25" s="8"/>
-      <c r="DI25" s="8"/>
-      <c r="DJ25" s="8"/>
-      <c r="DK25" s="8"/>
-      <c r="DL25" s="8"/>
-      <c r="DM25" s="8"/>
-      <c r="DN25" s="8"/>
-      <c r="DO25" s="8"/>
-      <c r="DP25" s="8"/>
-      <c r="DQ25" s="8"/>
-      <c r="DR25" s="8"/>
-      <c r="DS25" s="8"/>
-      <c r="DT25" s="8"/>
-      <c r="DU25" s="8"/>
-      <c r="DV25" s="8"/>
-      <c r="DW25" s="8"/>
-      <c r="DX25" s="8"/>
-      <c r="DY25" s="8"/>
-      <c r="DZ25" s="8"/>
-      <c r="EA25" s="8"/>
-      <c r="EB25" s="8"/>
-      <c r="EC25" s="8"/>
-      <c r="ED25" s="8"/>
-      <c r="EE25" s="8"/>
-      <c r="EF25" s="8"/>
-      <c r="EG25" s="8"/>
-      <c r="EH25" s="8"/>
-      <c r="EI25" s="8"/>
-      <c r="EJ25" s="8"/>
-      <c r="EK25" s="8"/>
-      <c r="EL25" s="8"/>
-      <c r="EM25" s="8"/>
-      <c r="EN25" s="8"/>
-      <c r="EO25" s="8"/>
-      <c r="EP25" s="8"/>
-      <c r="EQ25" s="8"/>
-      <c r="ER25" s="8"/>
-      <c r="ES25" s="8"/>
-      <c r="ET25" s="8"/>
-      <c r="EU25" s="8"/>
-      <c r="EV25" s="8"/>
-      <c r="EW25" s="8"/>
-      <c r="EX25" s="8"/>
-      <c r="EY25" s="8"/>
-      <c r="EZ25" s="8"/>
-      <c r="FA25" s="8"/>
-      <c r="FB25" s="8"/>
-      <c r="FC25" s="8"/>
-      <c r="FD25" s="8"/>
-      <c r="FE25" s="8"/>
-      <c r="FF25" s="8"/>
-      <c r="FG25" s="8"/>
-      <c r="FH25" s="8"/>
-      <c r="FI25" s="8"/>
-      <c r="FJ25" s="8"/>
-      <c r="FK25" s="8"/>
-      <c r="FL25" s="8"/>
-      <c r="FM25" s="8"/>
-      <c r="FN25" s="8"/>
-      <c r="FO25" s="8"/>
-      <c r="FP25" s="8"/>
-      <c r="FQ25" s="8"/>
-      <c r="FR25" s="8"/>
-      <c r="FS25" s="8"/>
-      <c r="FT25" s="8"/>
-      <c r="FU25" s="8"/>
-      <c r="FV25" s="8"/>
-      <c r="FW25" s="8"/>
-      <c r="FX25" s="8"/>
-      <c r="FY25" s="8"/>
-      <c r="FZ25" s="8"/>
-      <c r="GA25" s="8"/>
-      <c r="GB25" s="8"/>
-      <c r="GC25" s="8"/>
-      <c r="GD25" s="8"/>
-      <c r="GE25" s="8"/>
+    <row r="25" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+      <c r="BF25" s="9"/>
+      <c r="BG25" s="9"/>
+      <c r="BH25" s="9"/>
+      <c r="BI25" s="9"/>
+      <c r="BJ25" s="9"/>
+      <c r="BK25" s="9"/>
+      <c r="BL25" s="9"/>
+      <c r="BM25" s="9"/>
+      <c r="BN25" s="9"/>
+      <c r="BO25" s="9"/>
+      <c r="BP25" s="9"/>
+      <c r="BQ25" s="9"/>
+      <c r="BR25" s="9"/>
+      <c r="BS25" s="9"/>
+      <c r="BT25" s="9"/>
+      <c r="BU25" s="9"/>
+      <c r="BV25" s="9"/>
+      <c r="BW25" s="9"/>
+      <c r="BX25" s="9"/>
+      <c r="BY25" s="9"/>
+      <c r="BZ25" s="9"/>
+      <c r="CA25" s="9"/>
+      <c r="CB25" s="9"/>
+      <c r="CC25" s="9"/>
+      <c r="CD25" s="9"/>
+      <c r="CE25" s="9"/>
+      <c r="CF25" s="9"/>
+      <c r="CG25" s="9"/>
+      <c r="CH25" s="9"/>
+      <c r="CI25" s="9"/>
+      <c r="CJ25" s="9"/>
+      <c r="CK25" s="9"/>
+      <c r="CL25" s="9"/>
+      <c r="CM25" s="9"/>
+      <c r="CN25" s="9"/>
+      <c r="CO25" s="9"/>
+      <c r="CP25" s="9"/>
+      <c r="CQ25" s="9"/>
+      <c r="CR25" s="9"/>
+      <c r="CS25" s="9"/>
+      <c r="CT25" s="9"/>
+      <c r="CU25" s="9"/>
+      <c r="CV25" s="9"/>
+      <c r="CW25" s="9"/>
+      <c r="CX25" s="9"/>
+      <c r="CY25" s="9"/>
+      <c r="CZ25" s="9"/>
+      <c r="DA25" s="9"/>
+      <c r="DB25" s="9"/>
+      <c r="DC25" s="9"/>
+      <c r="DD25" s="9"/>
+      <c r="DE25" s="9"/>
+      <c r="DF25" s="9"/>
+      <c r="DG25" s="9"/>
+      <c r="DH25" s="9"/>
+      <c r="DI25" s="9"/>
+      <c r="DJ25" s="9"/>
+      <c r="DK25" s="9"/>
+      <c r="DL25" s="9"/>
+      <c r="DM25" s="9"/>
+      <c r="DN25" s="9"/>
+      <c r="DO25" s="9"/>
+      <c r="DP25" s="9"/>
+      <c r="DQ25" s="9"/>
+      <c r="DR25" s="9"/>
+      <c r="DS25" s="9"/>
+      <c r="DT25" s="9"/>
+      <c r="DU25" s="9"/>
+      <c r="DV25" s="9"/>
+      <c r="DW25" s="9"/>
+      <c r="DX25" s="9"/>
+      <c r="DY25" s="9"/>
+      <c r="DZ25" s="9"/>
+      <c r="EA25" s="9"/>
+      <c r="EB25" s="9"/>
+      <c r="EC25" s="9"/>
+      <c r="ED25" s="9"/>
+      <c r="EE25" s="9"/>
+      <c r="EF25" s="9"/>
+      <c r="EG25" s="9"/>
+      <c r="EH25" s="9"/>
+      <c r="EI25" s="9"/>
+      <c r="EJ25" s="9"/>
+      <c r="EK25" s="9"/>
+      <c r="EL25" s="9"/>
+      <c r="EM25" s="9"/>
+      <c r="EN25" s="9"/>
+      <c r="EO25" s="9"/>
+      <c r="EP25" s="9"/>
+      <c r="EQ25" s="9"/>
+      <c r="ER25" s="9"/>
+      <c r="ES25" s="9"/>
+      <c r="ET25" s="9"/>
+      <c r="EU25" s="9"/>
+      <c r="EV25" s="9"/>
+      <c r="EW25" s="9"/>
+      <c r="EX25" s="9"/>
+      <c r="EY25" s="9"/>
+      <c r="EZ25" s="9"/>
+      <c r="FA25" s="9"/>
+      <c r="FB25" s="9"/>
+      <c r="FC25" s="9"/>
+      <c r="FD25" s="9"/>
+      <c r="FE25" s="9"/>
+      <c r="FF25" s="9"/>
+      <c r="FG25" s="9"/>
+      <c r="FH25" s="9"/>
+      <c r="FI25" s="9"/>
+      <c r="FJ25" s="9"/>
+      <c r="FK25" s="9"/>
+      <c r="FL25" s="9"/>
+      <c r="FM25" s="9"/>
+      <c r="FN25" s="9"/>
+      <c r="FO25" s="9"/>
+      <c r="FP25" s="9"/>
+      <c r="FQ25" s="9"/>
+      <c r="FR25" s="9"/>
+      <c r="FS25" s="9"/>
+      <c r="FT25" s="9"/>
+      <c r="FU25" s="9"/>
+      <c r="FV25" s="9"/>
+      <c r="FW25" s="9"/>
+      <c r="FX25" s="9"/>
+      <c r="FY25" s="9"/>
+      <c r="FZ25" s="9"/>
+      <c r="GA25" s="9"/>
+      <c r="GB25" s="9"/>
+      <c r="GC25" s="9"/>
+      <c r="GD25" s="9"/>
+      <c r="GE25" s="9"/>
     </row>
-    <row r="26" spans="1:187" ht="15" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="25"/>
-      <c r="AV26" s="25"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="25"/>
-      <c r="AY26" s="25"/>
-      <c r="AZ26" s="25"/>
-      <c r="BA26" s="25"/>
-      <c r="BB26" s="25"/>
-      <c r="BC26" s="25"/>
-      <c r="BD26" s="8"/>
-      <c r="BE26" s="8"/>
-      <c r="BF26" s="8"/>
-      <c r="BG26" s="8"/>
-      <c r="BH26" s="8"/>
-      <c r="BI26" s="8"/>
-      <c r="BJ26" s="8"/>
-      <c r="BK26" s="8"/>
-      <c r="BL26" s="8"/>
-      <c r="BM26" s="8"/>
-      <c r="BN26" s="8"/>
-      <c r="BO26" s="8"/>
-      <c r="BP26" s="8"/>
-      <c r="BQ26" s="8"/>
-      <c r="BR26" s="8"/>
-      <c r="BS26" s="8"/>
-      <c r="BT26" s="8"/>
-      <c r="BU26" s="8"/>
-      <c r="BV26" s="8"/>
-      <c r="BW26" s="8"/>
-      <c r="BX26" s="8"/>
-      <c r="BY26" s="8"/>
-      <c r="BZ26" s="8"/>
-      <c r="CA26" s="8"/>
-      <c r="CB26" s="8"/>
-      <c r="CC26" s="8"/>
-      <c r="CD26" s="8"/>
-      <c r="CE26" s="8"/>
-      <c r="CF26" s="8"/>
-      <c r="CG26" s="8"/>
-      <c r="CH26" s="8"/>
-      <c r="CI26" s="8"/>
-      <c r="CJ26" s="8"/>
-      <c r="CK26" s="8"/>
-      <c r="CL26" s="8"/>
-      <c r="CM26" s="8"/>
-      <c r="CN26" s="8"/>
-      <c r="CO26" s="8"/>
-      <c r="CP26" s="8"/>
-      <c r="CQ26" s="8"/>
-      <c r="CR26" s="8"/>
-      <c r="CS26" s="8"/>
-      <c r="CT26" s="8"/>
-      <c r="CU26" s="8"/>
-      <c r="CV26" s="8"/>
-      <c r="CW26" s="8"/>
-      <c r="CX26" s="8"/>
-      <c r="CY26" s="8"/>
-      <c r="CZ26" s="8"/>
-      <c r="DA26" s="8"/>
-      <c r="DB26" s="8"/>
-      <c r="DC26" s="8"/>
-      <c r="DD26" s="8"/>
-      <c r="DE26" s="8"/>
-      <c r="DF26" s="8"/>
-      <c r="DG26" s="8"/>
-      <c r="DH26" s="8"/>
-      <c r="DI26" s="8"/>
-      <c r="DJ26" s="8"/>
-      <c r="DK26" s="8"/>
-      <c r="DL26" s="8"/>
-      <c r="DM26" s="8"/>
-      <c r="DN26" s="8"/>
-      <c r="DO26" s="8"/>
-      <c r="DP26" s="8"/>
-      <c r="DQ26" s="8"/>
-      <c r="DR26" s="8"/>
-      <c r="DS26" s="8"/>
-      <c r="DT26" s="8"/>
-      <c r="DU26" s="8"/>
-      <c r="DV26" s="8"/>
-      <c r="DW26" s="8"/>
-      <c r="DX26" s="8"/>
-      <c r="DY26" s="8"/>
-      <c r="DZ26" s="8"/>
-      <c r="EA26" s="8"/>
-      <c r="EB26" s="8"/>
-      <c r="EC26" s="8"/>
-      <c r="ED26" s="8"/>
-      <c r="EE26" s="8"/>
-      <c r="EF26" s="8"/>
-      <c r="EG26" s="8"/>
-      <c r="EH26" s="8"/>
-      <c r="EI26" s="8"/>
-      <c r="EJ26" s="8"/>
-      <c r="EK26" s="8"/>
-      <c r="EL26" s="8"/>
-      <c r="EM26" s="8"/>
-      <c r="EN26" s="8"/>
-      <c r="EO26" s="8"/>
-      <c r="EP26" s="8"/>
-      <c r="EQ26" s="8"/>
-      <c r="ER26" s="8"/>
-      <c r="ES26" s="8"/>
-      <c r="ET26" s="8"/>
-      <c r="EU26" s="8"/>
-      <c r="EV26" s="8"/>
-      <c r="EW26" s="8"/>
-      <c r="EX26" s="8"/>
-      <c r="EY26" s="8"/>
-      <c r="EZ26" s="8"/>
-      <c r="FA26" s="8"/>
-      <c r="FB26" s="8"/>
-      <c r="FC26" s="8"/>
-      <c r="FD26" s="8"/>
-      <c r="FE26" s="8"/>
-      <c r="FF26" s="8"/>
-      <c r="FG26" s="8"/>
-      <c r="FH26" s="8"/>
-      <c r="FI26" s="8"/>
-      <c r="FJ26" s="8"/>
-      <c r="FK26" s="8"/>
-      <c r="FL26" s="8"/>
-      <c r="FM26" s="8"/>
-      <c r="FN26" s="8"/>
-      <c r="FO26" s="8"/>
-      <c r="FP26" s="8"/>
-      <c r="FQ26" s="8"/>
-      <c r="FR26" s="8"/>
-      <c r="FS26" s="8"/>
-      <c r="FT26" s="8"/>
-      <c r="FU26" s="8"/>
-      <c r="FV26" s="8"/>
-      <c r="FW26" s="8"/>
-      <c r="FX26" s="8"/>
-      <c r="FY26" s="8"/>
-      <c r="FZ26" s="8"/>
-      <c r="GA26" s="8"/>
-      <c r="GB26" s="8"/>
-      <c r="GC26" s="8"/>
-      <c r="GD26" s="8"/>
-      <c r="GE26" s="8"/>
+    <row r="26" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
+      <c r="BH26" s="9"/>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="9"/>
+      <c r="BK26" s="9"/>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="9"/>
+      <c r="BQ26" s="9"/>
+      <c r="BR26" s="9"/>
+      <c r="BS26" s="9"/>
+      <c r="BT26" s="9"/>
+      <c r="BU26" s="9"/>
+      <c r="BV26" s="9"/>
+      <c r="BW26" s="9"/>
+      <c r="BX26" s="9"/>
+      <c r="BY26" s="9"/>
+      <c r="BZ26" s="9"/>
+      <c r="CA26" s="9"/>
+      <c r="CB26" s="9"/>
+      <c r="CC26" s="9"/>
+      <c r="CD26" s="9"/>
+      <c r="CE26" s="9"/>
+      <c r="CF26" s="9"/>
+      <c r="CG26" s="9"/>
+      <c r="CH26" s="9"/>
+      <c r="CI26" s="9"/>
+      <c r="CJ26" s="9"/>
+      <c r="CK26" s="9"/>
+      <c r="CL26" s="9"/>
+      <c r="CM26" s="9"/>
+      <c r="CN26" s="9"/>
+      <c r="CO26" s="9"/>
+      <c r="CP26" s="9"/>
+      <c r="CQ26" s="9"/>
+      <c r="CR26" s="9"/>
+      <c r="CS26" s="9"/>
+      <c r="CT26" s="9"/>
+      <c r="CU26" s="9"/>
+      <c r="CV26" s="9"/>
+      <c r="CW26" s="9"/>
+      <c r="CX26" s="9"/>
+      <c r="CY26" s="9"/>
+      <c r="CZ26" s="9"/>
+      <c r="DA26" s="9"/>
+      <c r="DB26" s="9"/>
+      <c r="DC26" s="9"/>
+      <c r="DD26" s="9"/>
+      <c r="DE26" s="9"/>
+      <c r="DF26" s="9"/>
+      <c r="DG26" s="9"/>
+      <c r="DH26" s="9"/>
+      <c r="DI26" s="9"/>
+      <c r="DJ26" s="9"/>
+      <c r="DK26" s="9"/>
+      <c r="DL26" s="9"/>
+      <c r="DM26" s="9"/>
+      <c r="DN26" s="9"/>
+      <c r="DO26" s="9"/>
+      <c r="DP26" s="9"/>
+      <c r="DQ26" s="9"/>
+      <c r="DR26" s="9"/>
+      <c r="DS26" s="9"/>
+      <c r="DT26" s="9"/>
+      <c r="DU26" s="9"/>
+      <c r="DV26" s="9"/>
+      <c r="DW26" s="9"/>
+      <c r="DX26" s="9"/>
+      <c r="DY26" s="9"/>
+      <c r="DZ26" s="9"/>
+      <c r="EA26" s="9"/>
+      <c r="EB26" s="9"/>
+      <c r="EC26" s="9"/>
+      <c r="ED26" s="9"/>
+      <c r="EE26" s="9"/>
+      <c r="EF26" s="9"/>
+      <c r="EG26" s="9"/>
+      <c r="EH26" s="9"/>
+      <c r="EI26" s="9"/>
+      <c r="EJ26" s="9"/>
+      <c r="EK26" s="9"/>
+      <c r="EL26" s="9"/>
+      <c r="EM26" s="9"/>
+      <c r="EN26" s="9"/>
+      <c r="EO26" s="9"/>
+      <c r="EP26" s="9"/>
+      <c r="EQ26" s="9"/>
+      <c r="ER26" s="9"/>
+      <c r="ES26" s="9"/>
+      <c r="ET26" s="9"/>
+      <c r="EU26" s="9"/>
+      <c r="EV26" s="9"/>
+      <c r="EW26" s="9"/>
+      <c r="EX26" s="9"/>
+      <c r="EY26" s="9"/>
+      <c r="EZ26" s="9"/>
+      <c r="FA26" s="9"/>
+      <c r="FB26" s="9"/>
+      <c r="FC26" s="9"/>
+      <c r="FD26" s="9"/>
+      <c r="FE26" s="9"/>
+      <c r="FF26" s="9"/>
+      <c r="FG26" s="9"/>
+      <c r="FH26" s="9"/>
+      <c r="FI26" s="9"/>
+      <c r="FJ26" s="9"/>
+      <c r="FK26" s="9"/>
+      <c r="FL26" s="9"/>
+      <c r="FM26" s="9"/>
+      <c r="FN26" s="9"/>
+      <c r="FO26" s="9"/>
+      <c r="FP26" s="9"/>
+      <c r="FQ26" s="9"/>
+      <c r="FR26" s="9"/>
+      <c r="FS26" s="9"/>
+      <c r="FT26" s="9"/>
+      <c r="FU26" s="9"/>
+      <c r="FV26" s="9"/>
+      <c r="FW26" s="9"/>
+      <c r="FX26" s="9"/>
+      <c r="FY26" s="9"/>
+      <c r="FZ26" s="9"/>
+      <c r="GA26" s="9"/>
+      <c r="GB26" s="9"/>
+      <c r="GC26" s="9"/>
+      <c r="GD26" s="9"/>
+      <c r="GE26" s="9"/>
     </row>
     <row r="27" spans="1:187" ht="15" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="19"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="19"/>
-      <c r="AQ27" s="19"/>
-      <c r="AR27" s="19"/>
-      <c r="AS27" s="19"/>
-      <c r="AT27" s="19"/>
-      <c r="AU27" s="19"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
-      <c r="AZ27" s="19"/>
-      <c r="BA27" s="19"/>
-      <c r="BB27" s="19"/>
-      <c r="BC27" s="19"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="21"/>
+      <c r="AR27" s="21"/>
+      <c r="AS27" s="21"/>
+      <c r="AT27" s="21"/>
+      <c r="AU27" s="21"/>
+      <c r="AV27" s="21"/>
+      <c r="AW27" s="21"/>
+      <c r="AX27" s="21"/>
+      <c r="AY27" s="21"/>
+      <c r="AZ27" s="21"/>
+      <c r="BA27" s="21"/>
+      <c r="BB27" s="21"/>
+      <c r="BC27" s="21"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
@@ -6390,61 +6571,61 @@
       <c r="GE27" s="1"/>
     </row>
     <row r="28" spans="1:187" ht="15" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="14"/>
-      <c r="AM28" s="14"/>
-      <c r="AN28" s="14"/>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="14"/>
-      <c r="AQ28" s="14"/>
-      <c r="AR28" s="14"/>
-      <c r="AS28" s="14"/>
-      <c r="AT28" s="14"/>
-      <c r="AU28" s="14"/>
-      <c r="AV28" s="14"/>
-      <c r="AW28" s="14"/>
-      <c r="AX28" s="14"/>
-      <c r="AY28" s="14"/>
-      <c r="AZ28" s="14"/>
-      <c r="BA28" s="14"/>
-      <c r="BB28" s="14"/>
-      <c r="BC28" s="14"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="21"/>
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="21"/>
+      <c r="BA28" s="21"/>
+      <c r="BB28" s="21"/>
+      <c r="BC28" s="21"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
@@ -6579,61 +6760,61 @@
       <c r="GE28" s="1"/>
     </row>
     <row r="29" spans="1:187" ht="15" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="15"/>
-      <c r="AN29" s="15"/>
-      <c r="AO29" s="15"/>
-      <c r="AP29" s="15"/>
-      <c r="AQ29" s="15"/>
-      <c r="AR29" s="15"/>
-      <c r="AS29" s="15"/>
-      <c r="AT29" s="15"/>
-      <c r="AU29" s="15"/>
-      <c r="AV29" s="15"/>
-      <c r="AW29" s="15"/>
-      <c r="AX29" s="15"/>
-      <c r="AY29" s="15"/>
-      <c r="AZ29" s="15"/>
-      <c r="BA29" s="15"/>
-      <c r="BB29" s="15"/>
-      <c r="BC29" s="15"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="21"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="21"/>
+      <c r="AP29" s="21"/>
+      <c r="AQ29" s="21"/>
+      <c r="AR29" s="21"/>
+      <c r="AS29" s="21"/>
+      <c r="AT29" s="21"/>
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="21"/>
+      <c r="AW29" s="21"/>
+      <c r="AX29" s="21"/>
+      <c r="AY29" s="21"/>
+      <c r="AZ29" s="21"/>
+      <c r="BA29" s="21"/>
+      <c r="BB29" s="21"/>
+      <c r="BC29" s="21"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
@@ -6768,439 +6949,439 @@
       <c r="GE29" s="1"/>
     </row>
     <row r="30" spans="1:187" ht="15" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="15"/>
-      <c r="AM30" s="15"/>
-      <c r="AN30" s="15"/>
-      <c r="AO30" s="15"/>
-      <c r="AP30" s="15"/>
-      <c r="AQ30" s="15"/>
-      <c r="AR30" s="15"/>
-      <c r="AS30" s="15"/>
-      <c r="AT30" s="15"/>
-      <c r="AU30" s="15"/>
-      <c r="AV30" s="15"/>
-      <c r="AW30" s="15"/>
-      <c r="AX30" s="15"/>
-      <c r="AY30" s="15"/>
-      <c r="AZ30" s="15"/>
-      <c r="BA30" s="15"/>
-      <c r="BB30" s="15"/>
-      <c r="BC30" s="15"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
-      <c r="BI30" s="1"/>
-      <c r="BJ30" s="1"/>
-      <c r="BK30" s="1"/>
-      <c r="BL30" s="1"/>
-      <c r="BM30" s="1"/>
-      <c r="BN30" s="1"/>
-      <c r="BO30" s="1"/>
-      <c r="BP30" s="1"/>
-      <c r="BQ30" s="1"/>
-      <c r="BR30" s="1"/>
-      <c r="BS30" s="1"/>
-      <c r="BT30" s="1"/>
-      <c r="BU30" s="1"/>
-      <c r="BV30" s="1"/>
-      <c r="BW30" s="1"/>
-      <c r="BX30" s="1"/>
-      <c r="BY30" s="1"/>
-      <c r="BZ30" s="1"/>
-      <c r="CA30" s="1"/>
-      <c r="CB30" s="1"/>
-      <c r="CC30" s="1"/>
-      <c r="CD30" s="1"/>
-      <c r="CE30" s="1"/>
-      <c r="CF30" s="1"/>
-      <c r="CG30" s="1"/>
-      <c r="CH30" s="1"/>
-      <c r="CI30" s="1"/>
-      <c r="CJ30" s="1"/>
-      <c r="CK30" s="1"/>
-      <c r="CL30" s="1"/>
-      <c r="CM30" s="1"/>
-      <c r="CN30" s="1"/>
-      <c r="CO30" s="1"/>
-      <c r="CP30" s="1"/>
-      <c r="CQ30" s="1"/>
-      <c r="CR30" s="1"/>
-      <c r="CS30" s="1"/>
-      <c r="CT30" s="1"/>
-      <c r="CU30" s="1"/>
-      <c r="CV30" s="1"/>
-      <c r="CW30" s="1"/>
-      <c r="CX30" s="1"/>
-      <c r="CY30" s="1"/>
-      <c r="CZ30" s="1"/>
-      <c r="DA30" s="1"/>
-      <c r="DB30" s="1"/>
-      <c r="DC30" s="1"/>
-      <c r="DD30" s="1"/>
-      <c r="DE30" s="1"/>
-      <c r="DF30" s="1"/>
-      <c r="DG30" s="1"/>
-      <c r="DH30" s="1"/>
-      <c r="DI30" s="1"/>
-      <c r="DJ30" s="1"/>
-      <c r="DK30" s="1"/>
-      <c r="DL30" s="1"/>
-      <c r="DM30" s="1"/>
-      <c r="DN30" s="1"/>
-      <c r="DO30" s="1"/>
-      <c r="DP30" s="1"/>
-      <c r="DQ30" s="1"/>
-      <c r="DR30" s="1"/>
-      <c r="DS30" s="1"/>
-      <c r="DT30" s="1"/>
-      <c r="DU30" s="1"/>
-      <c r="DV30" s="1"/>
-      <c r="DW30" s="1"/>
-      <c r="DX30" s="1"/>
-      <c r="DY30" s="1"/>
-      <c r="DZ30" s="1"/>
-      <c r="EA30" s="1"/>
-      <c r="EB30" s="1"/>
-      <c r="EC30" s="1"/>
-      <c r="ED30" s="1"/>
-      <c r="EE30" s="1"/>
-      <c r="EF30" s="1"/>
-      <c r="EG30" s="1"/>
-      <c r="EH30" s="1"/>
-      <c r="EI30" s="1"/>
-      <c r="EJ30" s="1"/>
-      <c r="EK30" s="1"/>
-      <c r="EL30" s="1"/>
-      <c r="EM30" s="1"/>
-      <c r="EN30" s="1"/>
-      <c r="EO30" s="1"/>
-      <c r="EP30" s="1"/>
-      <c r="EQ30" s="1"/>
-      <c r="ER30" s="1"/>
-      <c r="ES30" s="1"/>
-      <c r="ET30" s="1"/>
-      <c r="EU30" s="1"/>
-      <c r="EV30" s="1"/>
-      <c r="EW30" s="1"/>
-      <c r="EX30" s="1"/>
-      <c r="EY30" s="1"/>
-      <c r="EZ30" s="1"/>
-      <c r="FA30" s="1"/>
-      <c r="FB30" s="1"/>
-      <c r="FC30" s="1"/>
-      <c r="FD30" s="1"/>
-      <c r="FE30" s="1"/>
-      <c r="FF30" s="1"/>
-      <c r="FG30" s="1"/>
-      <c r="FH30" s="1"/>
-      <c r="FI30" s="1"/>
-      <c r="FJ30" s="1"/>
-      <c r="FK30" s="1"/>
-      <c r="FL30" s="1"/>
-      <c r="FM30" s="1"/>
-      <c r="FN30" s="1"/>
-      <c r="FO30" s="1"/>
-      <c r="FP30" s="1"/>
-      <c r="FQ30" s="1"/>
-      <c r="FR30" s="1"/>
-      <c r="FS30" s="1"/>
-      <c r="FT30" s="1"/>
-      <c r="FU30" s="1"/>
-      <c r="FV30" s="1"/>
-      <c r="FW30" s="1"/>
-      <c r="FX30" s="1"/>
-      <c r="FY30" s="1"/>
-      <c r="FZ30" s="1"/>
-      <c r="GA30" s="1"/>
-      <c r="GB30" s="1"/>
-      <c r="GC30" s="1"/>
-      <c r="GD30" s="1"/>
-      <c r="GE30" s="1"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="31"/>
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="8"/>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="8"/>
+      <c r="BK30" s="8"/>
+      <c r="BL30" s="8"/>
+      <c r="BM30" s="8"/>
+      <c r="BN30" s="8"/>
+      <c r="BO30" s="8"/>
+      <c r="BP30" s="8"/>
+      <c r="BQ30" s="8"/>
+      <c r="BR30" s="8"/>
+      <c r="BS30" s="8"/>
+      <c r="BT30" s="8"/>
+      <c r="BU30" s="8"/>
+      <c r="BV30" s="8"/>
+      <c r="BW30" s="8"/>
+      <c r="BX30" s="8"/>
+      <c r="BY30" s="8"/>
+      <c r="BZ30" s="8"/>
+      <c r="CA30" s="8"/>
+      <c r="CB30" s="8"/>
+      <c r="CC30" s="8"/>
+      <c r="CD30" s="8"/>
+      <c r="CE30" s="8"/>
+      <c r="CF30" s="8"/>
+      <c r="CG30" s="8"/>
+      <c r="CH30" s="8"/>
+      <c r="CI30" s="8"/>
+      <c r="CJ30" s="8"/>
+      <c r="CK30" s="8"/>
+      <c r="CL30" s="8"/>
+      <c r="CM30" s="8"/>
+      <c r="CN30" s="8"/>
+      <c r="CO30" s="8"/>
+      <c r="CP30" s="8"/>
+      <c r="CQ30" s="8"/>
+      <c r="CR30" s="8"/>
+      <c r="CS30" s="8"/>
+      <c r="CT30" s="8"/>
+      <c r="CU30" s="8"/>
+      <c r="CV30" s="8"/>
+      <c r="CW30" s="8"/>
+      <c r="CX30" s="8"/>
+      <c r="CY30" s="8"/>
+      <c r="CZ30" s="8"/>
+      <c r="DA30" s="8"/>
+      <c r="DB30" s="8"/>
+      <c r="DC30" s="8"/>
+      <c r="DD30" s="8"/>
+      <c r="DE30" s="8"/>
+      <c r="DF30" s="8"/>
+      <c r="DG30" s="8"/>
+      <c r="DH30" s="8"/>
+      <c r="DI30" s="8"/>
+      <c r="DJ30" s="8"/>
+      <c r="DK30" s="8"/>
+      <c r="DL30" s="8"/>
+      <c r="DM30" s="8"/>
+      <c r="DN30" s="8"/>
+      <c r="DO30" s="8"/>
+      <c r="DP30" s="8"/>
+      <c r="DQ30" s="8"/>
+      <c r="DR30" s="8"/>
+      <c r="DS30" s="8"/>
+      <c r="DT30" s="8"/>
+      <c r="DU30" s="8"/>
+      <c r="DV30" s="8"/>
+      <c r="DW30" s="8"/>
+      <c r="DX30" s="8"/>
+      <c r="DY30" s="8"/>
+      <c r="DZ30" s="8"/>
+      <c r="EA30" s="8"/>
+      <c r="EB30" s="8"/>
+      <c r="EC30" s="8"/>
+      <c r="ED30" s="8"/>
+      <c r="EE30" s="8"/>
+      <c r="EF30" s="8"/>
+      <c r="EG30" s="8"/>
+      <c r="EH30" s="8"/>
+      <c r="EI30" s="8"/>
+      <c r="EJ30" s="8"/>
+      <c r="EK30" s="8"/>
+      <c r="EL30" s="8"/>
+      <c r="EM30" s="8"/>
+      <c r="EN30" s="8"/>
+      <c r="EO30" s="8"/>
+      <c r="EP30" s="8"/>
+      <c r="EQ30" s="8"/>
+      <c r="ER30" s="8"/>
+      <c r="ES30" s="8"/>
+      <c r="ET30" s="8"/>
+      <c r="EU30" s="8"/>
+      <c r="EV30" s="8"/>
+      <c r="EW30" s="8"/>
+      <c r="EX30" s="8"/>
+      <c r="EY30" s="8"/>
+      <c r="EZ30" s="8"/>
+      <c r="FA30" s="8"/>
+      <c r="FB30" s="8"/>
+      <c r="FC30" s="8"/>
+      <c r="FD30" s="8"/>
+      <c r="FE30" s="8"/>
+      <c r="FF30" s="8"/>
+      <c r="FG30" s="8"/>
+      <c r="FH30" s="8"/>
+      <c r="FI30" s="8"/>
+      <c r="FJ30" s="8"/>
+      <c r="FK30" s="8"/>
+      <c r="FL30" s="8"/>
+      <c r="FM30" s="8"/>
+      <c r="FN30" s="8"/>
+      <c r="FO30" s="8"/>
+      <c r="FP30" s="8"/>
+      <c r="FQ30" s="8"/>
+      <c r="FR30" s="8"/>
+      <c r="FS30" s="8"/>
+      <c r="FT30" s="8"/>
+      <c r="FU30" s="8"/>
+      <c r="FV30" s="8"/>
+      <c r="FW30" s="8"/>
+      <c r="FX30" s="8"/>
+      <c r="FY30" s="8"/>
+      <c r="FZ30" s="8"/>
+      <c r="GA30" s="8"/>
+      <c r="GB30" s="8"/>
+      <c r="GC30" s="8"/>
+      <c r="GD30" s="8"/>
+      <c r="GE30" s="8"/>
     </row>
-    <row r="31" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="14"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="14"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="14"/>
-      <c r="AS31" s="14"/>
-      <c r="AT31" s="14"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="14"/>
-      <c r="AW31" s="14"/>
-      <c r="AX31" s="14"/>
-      <c r="AY31" s="14"/>
-      <c r="AZ31" s="14"/>
-      <c r="BA31" s="14"/>
-      <c r="BB31" s="14"/>
-      <c r="BC31" s="14"/>
-      <c r="BD31" s="9"/>
-      <c r="BE31" s="9"/>
-      <c r="BF31" s="9"/>
-      <c r="BG31" s="9"/>
-      <c r="BH31" s="9"/>
-      <c r="BI31" s="9"/>
-      <c r="BJ31" s="9"/>
-      <c r="BK31" s="9"/>
-      <c r="BL31" s="9"/>
-      <c r="BM31" s="9"/>
-      <c r="BN31" s="9"/>
-      <c r="BO31" s="9"/>
-      <c r="BP31" s="9"/>
-      <c r="BQ31" s="9"/>
-      <c r="BR31" s="9"/>
-      <c r="BS31" s="9"/>
-      <c r="BT31" s="9"/>
-      <c r="BU31" s="9"/>
-      <c r="BV31" s="9"/>
-      <c r="BW31" s="9"/>
-      <c r="BX31" s="9"/>
-      <c r="BY31" s="9"/>
-      <c r="BZ31" s="9"/>
-      <c r="CA31" s="9"/>
-      <c r="CB31" s="9"/>
-      <c r="CC31" s="9"/>
-      <c r="CD31" s="9"/>
-      <c r="CE31" s="9"/>
-      <c r="CF31" s="9"/>
-      <c r="CG31" s="9"/>
-      <c r="CH31" s="9"/>
-      <c r="CI31" s="9"/>
-      <c r="CJ31" s="9"/>
-      <c r="CK31" s="9"/>
-      <c r="CL31" s="9"/>
-      <c r="CM31" s="9"/>
-      <c r="CN31" s="9"/>
-      <c r="CO31" s="9"/>
-      <c r="CP31" s="9"/>
-      <c r="CQ31" s="9"/>
-      <c r="CR31" s="9"/>
-      <c r="CS31" s="9"/>
-      <c r="CT31" s="9"/>
-      <c r="CU31" s="9"/>
-      <c r="CV31" s="9"/>
-      <c r="CW31" s="9"/>
-      <c r="CX31" s="9"/>
-      <c r="CY31" s="9"/>
-      <c r="CZ31" s="9"/>
-      <c r="DA31" s="9"/>
-      <c r="DB31" s="9"/>
-      <c r="DC31" s="9"/>
-      <c r="DD31" s="9"/>
-      <c r="DE31" s="9"/>
-      <c r="DF31" s="9"/>
-      <c r="DG31" s="9"/>
-      <c r="DH31" s="9"/>
-      <c r="DI31" s="9"/>
-      <c r="DJ31" s="9"/>
-      <c r="DK31" s="9"/>
-      <c r="DL31" s="9"/>
-      <c r="DM31" s="9"/>
-      <c r="DN31" s="9"/>
-      <c r="DO31" s="9"/>
-      <c r="DP31" s="9"/>
-      <c r="DQ31" s="9"/>
-      <c r="DR31" s="9"/>
-      <c r="DS31" s="9"/>
-      <c r="DT31" s="9"/>
-      <c r="DU31" s="9"/>
-      <c r="DV31" s="9"/>
-      <c r="DW31" s="9"/>
-      <c r="DX31" s="9"/>
-      <c r="DY31" s="9"/>
-      <c r="DZ31" s="9"/>
-      <c r="EA31" s="9"/>
-      <c r="EB31" s="9"/>
-      <c r="EC31" s="9"/>
-      <c r="ED31" s="9"/>
-      <c r="EE31" s="9"/>
-      <c r="EF31" s="9"/>
-      <c r="EG31" s="9"/>
-      <c r="EH31" s="9"/>
-      <c r="EI31" s="9"/>
-      <c r="EJ31" s="9"/>
-      <c r="EK31" s="9"/>
-      <c r="EL31" s="9"/>
-      <c r="EM31" s="9"/>
-      <c r="EN31" s="9"/>
-      <c r="EO31" s="9"/>
-      <c r="EP31" s="9"/>
-      <c r="EQ31" s="9"/>
-      <c r="ER31" s="9"/>
-      <c r="ES31" s="9"/>
-      <c r="ET31" s="9"/>
-      <c r="EU31" s="9"/>
-      <c r="EV31" s="9"/>
-      <c r="EW31" s="9"/>
-      <c r="EX31" s="9"/>
-      <c r="EY31" s="9"/>
-      <c r="EZ31" s="9"/>
-      <c r="FA31" s="9"/>
-      <c r="FB31" s="9"/>
-      <c r="FC31" s="9"/>
-      <c r="FD31" s="9"/>
-      <c r="FE31" s="9"/>
-      <c r="FF31" s="9"/>
-      <c r="FG31" s="9"/>
-      <c r="FH31" s="9"/>
-      <c r="FI31" s="9"/>
-      <c r="FJ31" s="9"/>
-      <c r="FK31" s="9"/>
-      <c r="FL31" s="9"/>
-      <c r="FM31" s="9"/>
-      <c r="FN31" s="9"/>
-      <c r="FO31" s="9"/>
-      <c r="FP31" s="9"/>
-      <c r="FQ31" s="9"/>
-      <c r="FR31" s="9"/>
-      <c r="FS31" s="9"/>
-      <c r="FT31" s="9"/>
-      <c r="FU31" s="9"/>
-      <c r="FV31" s="9"/>
-      <c r="FW31" s="9"/>
-      <c r="FX31" s="9"/>
-      <c r="FY31" s="9"/>
-      <c r="FZ31" s="9"/>
-      <c r="GA31" s="9"/>
-      <c r="GB31" s="9"/>
-      <c r="GC31" s="9"/>
-      <c r="GD31" s="9"/>
-      <c r="GE31" s="9"/>
+    <row r="31" spans="1:187" ht="15" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="25"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="25"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="25"/>
+      <c r="BA31" s="25"/>
+      <c r="BB31" s="25"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="8"/>
+      <c r="BF31" s="8"/>
+      <c r="BG31" s="8"/>
+      <c r="BH31" s="8"/>
+      <c r="BI31" s="8"/>
+      <c r="BJ31" s="8"/>
+      <c r="BK31" s="8"/>
+      <c r="BL31" s="8"/>
+      <c r="BM31" s="8"/>
+      <c r="BN31" s="8"/>
+      <c r="BO31" s="8"/>
+      <c r="BP31" s="8"/>
+      <c r="BQ31" s="8"/>
+      <c r="BR31" s="8"/>
+      <c r="BS31" s="8"/>
+      <c r="BT31" s="8"/>
+      <c r="BU31" s="8"/>
+      <c r="BV31" s="8"/>
+      <c r="BW31" s="8"/>
+      <c r="BX31" s="8"/>
+      <c r="BY31" s="8"/>
+      <c r="BZ31" s="8"/>
+      <c r="CA31" s="8"/>
+      <c r="CB31" s="8"/>
+      <c r="CC31" s="8"/>
+      <c r="CD31" s="8"/>
+      <c r="CE31" s="8"/>
+      <c r="CF31" s="8"/>
+      <c r="CG31" s="8"/>
+      <c r="CH31" s="8"/>
+      <c r="CI31" s="8"/>
+      <c r="CJ31" s="8"/>
+      <c r="CK31" s="8"/>
+      <c r="CL31" s="8"/>
+      <c r="CM31" s="8"/>
+      <c r="CN31" s="8"/>
+      <c r="CO31" s="8"/>
+      <c r="CP31" s="8"/>
+      <c r="CQ31" s="8"/>
+      <c r="CR31" s="8"/>
+      <c r="CS31" s="8"/>
+      <c r="CT31" s="8"/>
+      <c r="CU31" s="8"/>
+      <c r="CV31" s="8"/>
+      <c r="CW31" s="8"/>
+      <c r="CX31" s="8"/>
+      <c r="CY31" s="8"/>
+      <c r="CZ31" s="8"/>
+      <c r="DA31" s="8"/>
+      <c r="DB31" s="8"/>
+      <c r="DC31" s="8"/>
+      <c r="DD31" s="8"/>
+      <c r="DE31" s="8"/>
+      <c r="DF31" s="8"/>
+      <c r="DG31" s="8"/>
+      <c r="DH31" s="8"/>
+      <c r="DI31" s="8"/>
+      <c r="DJ31" s="8"/>
+      <c r="DK31" s="8"/>
+      <c r="DL31" s="8"/>
+      <c r="DM31" s="8"/>
+      <c r="DN31" s="8"/>
+      <c r="DO31" s="8"/>
+      <c r="DP31" s="8"/>
+      <c r="DQ31" s="8"/>
+      <c r="DR31" s="8"/>
+      <c r="DS31" s="8"/>
+      <c r="DT31" s="8"/>
+      <c r="DU31" s="8"/>
+      <c r="DV31" s="8"/>
+      <c r="DW31" s="8"/>
+      <c r="DX31" s="8"/>
+      <c r="DY31" s="8"/>
+      <c r="DZ31" s="8"/>
+      <c r="EA31" s="8"/>
+      <c r="EB31" s="8"/>
+      <c r="EC31" s="8"/>
+      <c r="ED31" s="8"/>
+      <c r="EE31" s="8"/>
+      <c r="EF31" s="8"/>
+      <c r="EG31" s="8"/>
+      <c r="EH31" s="8"/>
+      <c r="EI31" s="8"/>
+      <c r="EJ31" s="8"/>
+      <c r="EK31" s="8"/>
+      <c r="EL31" s="8"/>
+      <c r="EM31" s="8"/>
+      <c r="EN31" s="8"/>
+      <c r="EO31" s="8"/>
+      <c r="EP31" s="8"/>
+      <c r="EQ31" s="8"/>
+      <c r="ER31" s="8"/>
+      <c r="ES31" s="8"/>
+      <c r="ET31" s="8"/>
+      <c r="EU31" s="8"/>
+      <c r="EV31" s="8"/>
+      <c r="EW31" s="8"/>
+      <c r="EX31" s="8"/>
+      <c r="EY31" s="8"/>
+      <c r="EZ31" s="8"/>
+      <c r="FA31" s="8"/>
+      <c r="FB31" s="8"/>
+      <c r="FC31" s="8"/>
+      <c r="FD31" s="8"/>
+      <c r="FE31" s="8"/>
+      <c r="FF31" s="8"/>
+      <c r="FG31" s="8"/>
+      <c r="FH31" s="8"/>
+      <c r="FI31" s="8"/>
+      <c r="FJ31" s="8"/>
+      <c r="FK31" s="8"/>
+      <c r="FL31" s="8"/>
+      <c r="FM31" s="8"/>
+      <c r="FN31" s="8"/>
+      <c r="FO31" s="8"/>
+      <c r="FP31" s="8"/>
+      <c r="FQ31" s="8"/>
+      <c r="FR31" s="8"/>
+      <c r="FS31" s="8"/>
+      <c r="FT31" s="8"/>
+      <c r="FU31" s="8"/>
+      <c r="FV31" s="8"/>
+      <c r="FW31" s="8"/>
+      <c r="FX31" s="8"/>
+      <c r="FY31" s="8"/>
+      <c r="FZ31" s="8"/>
+      <c r="GA31" s="8"/>
+      <c r="GB31" s="8"/>
+      <c r="GC31" s="8"/>
+      <c r="GD31" s="8"/>
+      <c r="GE31" s="8"/>
     </row>
     <row r="32" spans="1:187" ht="15" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="15"/>
-      <c r="AL32" s="15"/>
-      <c r="AM32" s="15"/>
-      <c r="AN32" s="15"/>
-      <c r="AO32" s="15"/>
-      <c r="AP32" s="15"/>
-      <c r="AQ32" s="15"/>
-      <c r="AR32" s="15"/>
-      <c r="AS32" s="15"/>
-      <c r="AT32" s="15"/>
-      <c r="AU32" s="15"/>
-      <c r="AV32" s="15"/>
-      <c r="AW32" s="15"/>
-      <c r="AX32" s="15"/>
-      <c r="AY32" s="15"/>
-      <c r="AZ32" s="15"/>
-      <c r="BA32" s="15"/>
-      <c r="BB32" s="15"/>
-      <c r="BC32" s="15"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
+      <c r="AJ32" s="21"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="21"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
+      <c r="AO32" s="21"/>
+      <c r="AP32" s="21"/>
+      <c r="AQ32" s="21"/>
+      <c r="AR32" s="21"/>
+      <c r="AS32" s="21"/>
+      <c r="AT32" s="21"/>
+      <c r="AU32" s="21"/>
+      <c r="AV32" s="21"/>
+      <c r="AW32" s="21"/>
+      <c r="AX32" s="21"/>
+      <c r="AY32" s="21"/>
+      <c r="AZ32" s="21"/>
+      <c r="BA32" s="21"/>
+      <c r="BB32" s="21"/>
+      <c r="BC32" s="21"/>
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
@@ -7334,62 +7515,62 @@
       <c r="GD32" s="1"/>
       <c r="GE32" s="1"/>
     </row>
-    <row r="33" spans="1:187" ht="13.5" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
+    <row r="33" spans="1:187" ht="15" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
@@ -7523,28 +7704,979 @@
       <c r="GD33" s="1"/>
       <c r="GE33" s="1"/>
     </row>
+    <row r="34" spans="1:187" ht="15" customHeight="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
+      <c r="BB34" s="17"/>
+      <c r="BC34" s="17"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
+      <c r="CW34" s="1"/>
+      <c r="CX34" s="1"/>
+      <c r="CY34" s="1"/>
+      <c r="CZ34" s="1"/>
+      <c r="DA34" s="1"/>
+      <c r="DB34" s="1"/>
+      <c r="DC34" s="1"/>
+      <c r="DD34" s="1"/>
+      <c r="DE34" s="1"/>
+      <c r="DF34" s="1"/>
+      <c r="DG34" s="1"/>
+      <c r="DH34" s="1"/>
+      <c r="DI34" s="1"/>
+      <c r="DJ34" s="1"/>
+      <c r="DK34" s="1"/>
+      <c r="DL34" s="1"/>
+      <c r="DM34" s="1"/>
+      <c r="DN34" s="1"/>
+      <c r="DO34" s="1"/>
+      <c r="DP34" s="1"/>
+      <c r="DQ34" s="1"/>
+      <c r="DR34" s="1"/>
+      <c r="DS34" s="1"/>
+      <c r="DT34" s="1"/>
+      <c r="DU34" s="1"/>
+      <c r="DV34" s="1"/>
+      <c r="DW34" s="1"/>
+      <c r="DX34" s="1"/>
+      <c r="DY34" s="1"/>
+      <c r="DZ34" s="1"/>
+      <c r="EA34" s="1"/>
+      <c r="EB34" s="1"/>
+      <c r="EC34" s="1"/>
+      <c r="ED34" s="1"/>
+      <c r="EE34" s="1"/>
+      <c r="EF34" s="1"/>
+      <c r="EG34" s="1"/>
+      <c r="EH34" s="1"/>
+      <c r="EI34" s="1"/>
+      <c r="EJ34" s="1"/>
+      <c r="EK34" s="1"/>
+      <c r="EL34" s="1"/>
+      <c r="EM34" s="1"/>
+      <c r="EN34" s="1"/>
+      <c r="EO34" s="1"/>
+      <c r="EP34" s="1"/>
+      <c r="EQ34" s="1"/>
+      <c r="ER34" s="1"/>
+      <c r="ES34" s="1"/>
+      <c r="ET34" s="1"/>
+      <c r="EU34" s="1"/>
+      <c r="EV34" s="1"/>
+      <c r="EW34" s="1"/>
+      <c r="EX34" s="1"/>
+      <c r="EY34" s="1"/>
+      <c r="EZ34" s="1"/>
+      <c r="FA34" s="1"/>
+      <c r="FB34" s="1"/>
+      <c r="FC34" s="1"/>
+      <c r="FD34" s="1"/>
+      <c r="FE34" s="1"/>
+      <c r="FF34" s="1"/>
+      <c r="FG34" s="1"/>
+      <c r="FH34" s="1"/>
+      <c r="FI34" s="1"/>
+      <c r="FJ34" s="1"/>
+      <c r="FK34" s="1"/>
+      <c r="FL34" s="1"/>
+      <c r="FM34" s="1"/>
+      <c r="FN34" s="1"/>
+      <c r="FO34" s="1"/>
+      <c r="FP34" s="1"/>
+      <c r="FQ34" s="1"/>
+      <c r="FR34" s="1"/>
+      <c r="FS34" s="1"/>
+      <c r="FT34" s="1"/>
+      <c r="FU34" s="1"/>
+      <c r="FV34" s="1"/>
+      <c r="FW34" s="1"/>
+      <c r="FX34" s="1"/>
+      <c r="FY34" s="1"/>
+      <c r="FZ34" s="1"/>
+      <c r="GA34" s="1"/>
+      <c r="GB34" s="1"/>
+      <c r="GC34" s="1"/>
+      <c r="GD34" s="1"/>
+      <c r="GE34" s="1"/>
+    </row>
+    <row r="35" spans="1:187" ht="15" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="17"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
+      <c r="AT35" s="17"/>
+      <c r="AU35" s="17"/>
+      <c r="AV35" s="17"/>
+      <c r="AW35" s="17"/>
+      <c r="AX35" s="17"/>
+      <c r="AY35" s="17"/>
+      <c r="AZ35" s="17"/>
+      <c r="BA35" s="17"/>
+      <c r="BB35" s="17"/>
+      <c r="BC35" s="17"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="1"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="1"/>
+      <c r="CP35" s="1"/>
+      <c r="CQ35" s="1"/>
+      <c r="CR35" s="1"/>
+      <c r="CS35" s="1"/>
+      <c r="CT35" s="1"/>
+      <c r="CU35" s="1"/>
+      <c r="CV35" s="1"/>
+      <c r="CW35" s="1"/>
+      <c r="CX35" s="1"/>
+      <c r="CY35" s="1"/>
+      <c r="CZ35" s="1"/>
+      <c r="DA35" s="1"/>
+      <c r="DB35" s="1"/>
+      <c r="DC35" s="1"/>
+      <c r="DD35" s="1"/>
+      <c r="DE35" s="1"/>
+      <c r="DF35" s="1"/>
+      <c r="DG35" s="1"/>
+      <c r="DH35" s="1"/>
+      <c r="DI35" s="1"/>
+      <c r="DJ35" s="1"/>
+      <c r="DK35" s="1"/>
+      <c r="DL35" s="1"/>
+      <c r="DM35" s="1"/>
+      <c r="DN35" s="1"/>
+      <c r="DO35" s="1"/>
+      <c r="DP35" s="1"/>
+      <c r="DQ35" s="1"/>
+      <c r="DR35" s="1"/>
+      <c r="DS35" s="1"/>
+      <c r="DT35" s="1"/>
+      <c r="DU35" s="1"/>
+      <c r="DV35" s="1"/>
+      <c r="DW35" s="1"/>
+      <c r="DX35" s="1"/>
+      <c r="DY35" s="1"/>
+      <c r="DZ35" s="1"/>
+      <c r="EA35" s="1"/>
+      <c r="EB35" s="1"/>
+      <c r="EC35" s="1"/>
+      <c r="ED35" s="1"/>
+      <c r="EE35" s="1"/>
+      <c r="EF35" s="1"/>
+      <c r="EG35" s="1"/>
+      <c r="EH35" s="1"/>
+      <c r="EI35" s="1"/>
+      <c r="EJ35" s="1"/>
+      <c r="EK35" s="1"/>
+      <c r="EL35" s="1"/>
+      <c r="EM35" s="1"/>
+      <c r="EN35" s="1"/>
+      <c r="EO35" s="1"/>
+      <c r="EP35" s="1"/>
+      <c r="EQ35" s="1"/>
+      <c r="ER35" s="1"/>
+      <c r="ES35" s="1"/>
+      <c r="ET35" s="1"/>
+      <c r="EU35" s="1"/>
+      <c r="EV35" s="1"/>
+      <c r="EW35" s="1"/>
+      <c r="EX35" s="1"/>
+      <c r="EY35" s="1"/>
+      <c r="EZ35" s="1"/>
+      <c r="FA35" s="1"/>
+      <c r="FB35" s="1"/>
+      <c r="FC35" s="1"/>
+      <c r="FD35" s="1"/>
+      <c r="FE35" s="1"/>
+      <c r="FF35" s="1"/>
+      <c r="FG35" s="1"/>
+      <c r="FH35" s="1"/>
+      <c r="FI35" s="1"/>
+      <c r="FJ35" s="1"/>
+      <c r="FK35" s="1"/>
+      <c r="FL35" s="1"/>
+      <c r="FM35" s="1"/>
+      <c r="FN35" s="1"/>
+      <c r="FO35" s="1"/>
+      <c r="FP35" s="1"/>
+      <c r="FQ35" s="1"/>
+      <c r="FR35" s="1"/>
+      <c r="FS35" s="1"/>
+      <c r="FT35" s="1"/>
+      <c r="FU35" s="1"/>
+      <c r="FV35" s="1"/>
+      <c r="FW35" s="1"/>
+      <c r="FX35" s="1"/>
+      <c r="FY35" s="1"/>
+      <c r="FZ35" s="1"/>
+      <c r="GA35" s="1"/>
+      <c r="GB35" s="1"/>
+      <c r="GC35" s="1"/>
+      <c r="GD35" s="1"/>
+      <c r="GE35" s="1"/>
+    </row>
+    <row r="36" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="9"/>
+      <c r="BE36" s="9"/>
+      <c r="BF36" s="9"/>
+      <c r="BG36" s="9"/>
+      <c r="BH36" s="9"/>
+      <c r="BI36" s="9"/>
+      <c r="BJ36" s="9"/>
+      <c r="BK36" s="9"/>
+      <c r="BL36" s="9"/>
+      <c r="BM36" s="9"/>
+      <c r="BN36" s="9"/>
+      <c r="BO36" s="9"/>
+      <c r="BP36" s="9"/>
+      <c r="BQ36" s="9"/>
+      <c r="BR36" s="9"/>
+      <c r="BS36" s="9"/>
+      <c r="BT36" s="9"/>
+      <c r="BU36" s="9"/>
+      <c r="BV36" s="9"/>
+      <c r="BW36" s="9"/>
+      <c r="BX36" s="9"/>
+      <c r="BY36" s="9"/>
+      <c r="BZ36" s="9"/>
+      <c r="CA36" s="9"/>
+      <c r="CB36" s="9"/>
+      <c r="CC36" s="9"/>
+      <c r="CD36" s="9"/>
+      <c r="CE36" s="9"/>
+      <c r="CF36" s="9"/>
+      <c r="CG36" s="9"/>
+      <c r="CH36" s="9"/>
+      <c r="CI36" s="9"/>
+      <c r="CJ36" s="9"/>
+      <c r="CK36" s="9"/>
+      <c r="CL36" s="9"/>
+      <c r="CM36" s="9"/>
+      <c r="CN36" s="9"/>
+      <c r="CO36" s="9"/>
+      <c r="CP36" s="9"/>
+      <c r="CQ36" s="9"/>
+      <c r="CR36" s="9"/>
+      <c r="CS36" s="9"/>
+      <c r="CT36" s="9"/>
+      <c r="CU36" s="9"/>
+      <c r="CV36" s="9"/>
+      <c r="CW36" s="9"/>
+      <c r="CX36" s="9"/>
+      <c r="CY36" s="9"/>
+      <c r="CZ36" s="9"/>
+      <c r="DA36" s="9"/>
+      <c r="DB36" s="9"/>
+      <c r="DC36" s="9"/>
+      <c r="DD36" s="9"/>
+      <c r="DE36" s="9"/>
+      <c r="DF36" s="9"/>
+      <c r="DG36" s="9"/>
+      <c r="DH36" s="9"/>
+      <c r="DI36" s="9"/>
+      <c r="DJ36" s="9"/>
+      <c r="DK36" s="9"/>
+      <c r="DL36" s="9"/>
+      <c r="DM36" s="9"/>
+      <c r="DN36" s="9"/>
+      <c r="DO36" s="9"/>
+      <c r="DP36" s="9"/>
+      <c r="DQ36" s="9"/>
+      <c r="DR36" s="9"/>
+      <c r="DS36" s="9"/>
+      <c r="DT36" s="9"/>
+      <c r="DU36" s="9"/>
+      <c r="DV36" s="9"/>
+      <c r="DW36" s="9"/>
+      <c r="DX36" s="9"/>
+      <c r="DY36" s="9"/>
+      <c r="DZ36" s="9"/>
+      <c r="EA36" s="9"/>
+      <c r="EB36" s="9"/>
+      <c r="EC36" s="9"/>
+      <c r="ED36" s="9"/>
+      <c r="EE36" s="9"/>
+      <c r="EF36" s="9"/>
+      <c r="EG36" s="9"/>
+      <c r="EH36" s="9"/>
+      <c r="EI36" s="9"/>
+      <c r="EJ36" s="9"/>
+      <c r="EK36" s="9"/>
+      <c r="EL36" s="9"/>
+      <c r="EM36" s="9"/>
+      <c r="EN36" s="9"/>
+      <c r="EO36" s="9"/>
+      <c r="EP36" s="9"/>
+      <c r="EQ36" s="9"/>
+      <c r="ER36" s="9"/>
+      <c r="ES36" s="9"/>
+      <c r="ET36" s="9"/>
+      <c r="EU36" s="9"/>
+      <c r="EV36" s="9"/>
+      <c r="EW36" s="9"/>
+      <c r="EX36" s="9"/>
+      <c r="EY36" s="9"/>
+      <c r="EZ36" s="9"/>
+      <c r="FA36" s="9"/>
+      <c r="FB36" s="9"/>
+      <c r="FC36" s="9"/>
+      <c r="FD36" s="9"/>
+      <c r="FE36" s="9"/>
+      <c r="FF36" s="9"/>
+      <c r="FG36" s="9"/>
+      <c r="FH36" s="9"/>
+      <c r="FI36" s="9"/>
+      <c r="FJ36" s="9"/>
+      <c r="FK36" s="9"/>
+      <c r="FL36" s="9"/>
+      <c r="FM36" s="9"/>
+      <c r="FN36" s="9"/>
+      <c r="FO36" s="9"/>
+      <c r="FP36" s="9"/>
+      <c r="FQ36" s="9"/>
+      <c r="FR36" s="9"/>
+      <c r="FS36" s="9"/>
+      <c r="FT36" s="9"/>
+      <c r="FU36" s="9"/>
+      <c r="FV36" s="9"/>
+      <c r="FW36" s="9"/>
+      <c r="FX36" s="9"/>
+      <c r="FY36" s="9"/>
+      <c r="FZ36" s="9"/>
+      <c r="GA36" s="9"/>
+      <c r="GB36" s="9"/>
+      <c r="GC36" s="9"/>
+      <c r="GD36" s="9"/>
+      <c r="GE36" s="9"/>
+    </row>
+    <row r="37" spans="1:187" ht="15" customHeight="1">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="17"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="17"/>
+      <c r="AZ37" s="17"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="1"/>
+      <c r="CL37" s="1"/>
+      <c r="CM37" s="1"/>
+      <c r="CN37" s="1"/>
+      <c r="CO37" s="1"/>
+      <c r="CP37" s="1"/>
+      <c r="CQ37" s="1"/>
+      <c r="CR37" s="1"/>
+      <c r="CS37" s="1"/>
+      <c r="CT37" s="1"/>
+      <c r="CU37" s="1"/>
+      <c r="CV37" s="1"/>
+      <c r="CW37" s="1"/>
+      <c r="CX37" s="1"/>
+      <c r="CY37" s="1"/>
+      <c r="CZ37" s="1"/>
+      <c r="DA37" s="1"/>
+      <c r="DB37" s="1"/>
+      <c r="DC37" s="1"/>
+      <c r="DD37" s="1"/>
+      <c r="DE37" s="1"/>
+      <c r="DF37" s="1"/>
+      <c r="DG37" s="1"/>
+      <c r="DH37" s="1"/>
+      <c r="DI37" s="1"/>
+      <c r="DJ37" s="1"/>
+      <c r="DK37" s="1"/>
+      <c r="DL37" s="1"/>
+      <c r="DM37" s="1"/>
+      <c r="DN37" s="1"/>
+      <c r="DO37" s="1"/>
+      <c r="DP37" s="1"/>
+      <c r="DQ37" s="1"/>
+      <c r="DR37" s="1"/>
+      <c r="DS37" s="1"/>
+      <c r="DT37" s="1"/>
+      <c r="DU37" s="1"/>
+      <c r="DV37" s="1"/>
+      <c r="DW37" s="1"/>
+      <c r="DX37" s="1"/>
+      <c r="DY37" s="1"/>
+      <c r="DZ37" s="1"/>
+      <c r="EA37" s="1"/>
+      <c r="EB37" s="1"/>
+      <c r="EC37" s="1"/>
+      <c r="ED37" s="1"/>
+      <c r="EE37" s="1"/>
+      <c r="EF37" s="1"/>
+      <c r="EG37" s="1"/>
+      <c r="EH37" s="1"/>
+      <c r="EI37" s="1"/>
+      <c r="EJ37" s="1"/>
+      <c r="EK37" s="1"/>
+      <c r="EL37" s="1"/>
+      <c r="EM37" s="1"/>
+      <c r="EN37" s="1"/>
+      <c r="EO37" s="1"/>
+      <c r="EP37" s="1"/>
+      <c r="EQ37" s="1"/>
+      <c r="ER37" s="1"/>
+      <c r="ES37" s="1"/>
+      <c r="ET37" s="1"/>
+      <c r="EU37" s="1"/>
+      <c r="EV37" s="1"/>
+      <c r="EW37" s="1"/>
+      <c r="EX37" s="1"/>
+      <c r="EY37" s="1"/>
+      <c r="EZ37" s="1"/>
+      <c r="FA37" s="1"/>
+      <c r="FB37" s="1"/>
+      <c r="FC37" s="1"/>
+      <c r="FD37" s="1"/>
+      <c r="FE37" s="1"/>
+      <c r="FF37" s="1"/>
+      <c r="FG37" s="1"/>
+      <c r="FH37" s="1"/>
+      <c r="FI37" s="1"/>
+      <c r="FJ37" s="1"/>
+      <c r="FK37" s="1"/>
+      <c r="FL37" s="1"/>
+      <c r="FM37" s="1"/>
+      <c r="FN37" s="1"/>
+      <c r="FO37" s="1"/>
+      <c r="FP37" s="1"/>
+      <c r="FQ37" s="1"/>
+      <c r="FR37" s="1"/>
+      <c r="FS37" s="1"/>
+      <c r="FT37" s="1"/>
+      <c r="FU37" s="1"/>
+      <c r="FV37" s="1"/>
+      <c r="FW37" s="1"/>
+      <c r="FX37" s="1"/>
+      <c r="FY37" s="1"/>
+      <c r="FZ37" s="1"/>
+      <c r="GA37" s="1"/>
+      <c r="GB37" s="1"/>
+      <c r="GC37" s="1"/>
+      <c r="GD37" s="1"/>
+      <c r="GE37" s="1"/>
+    </row>
+    <row r="38" spans="1:187" ht="13.5" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
+      <c r="CW38" s="1"/>
+      <c r="CX38" s="1"/>
+      <c r="CY38" s="1"/>
+      <c r="CZ38" s="1"/>
+      <c r="DA38" s="1"/>
+      <c r="DB38" s="1"/>
+      <c r="DC38" s="1"/>
+      <c r="DD38" s="1"/>
+      <c r="DE38" s="1"/>
+      <c r="DF38" s="1"/>
+      <c r="DG38" s="1"/>
+      <c r="DH38" s="1"/>
+      <c r="DI38" s="1"/>
+      <c r="DJ38" s="1"/>
+      <c r="DK38" s="1"/>
+      <c r="DL38" s="1"/>
+      <c r="DM38" s="1"/>
+      <c r="DN38" s="1"/>
+      <c r="DO38" s="1"/>
+      <c r="DP38" s="1"/>
+      <c r="DQ38" s="1"/>
+      <c r="DR38" s="1"/>
+      <c r="DS38" s="1"/>
+      <c r="DT38" s="1"/>
+      <c r="DU38" s="1"/>
+      <c r="DV38" s="1"/>
+      <c r="DW38" s="1"/>
+      <c r="DX38" s="1"/>
+      <c r="DY38" s="1"/>
+      <c r="DZ38" s="1"/>
+      <c r="EA38" s="1"/>
+      <c r="EB38" s="1"/>
+      <c r="EC38" s="1"/>
+      <c r="ED38" s="1"/>
+      <c r="EE38" s="1"/>
+      <c r="EF38" s="1"/>
+      <c r="EG38" s="1"/>
+      <c r="EH38" s="1"/>
+      <c r="EI38" s="1"/>
+      <c r="EJ38" s="1"/>
+      <c r="EK38" s="1"/>
+      <c r="EL38" s="1"/>
+      <c r="EM38" s="1"/>
+      <c r="EN38" s="1"/>
+      <c r="EO38" s="1"/>
+      <c r="EP38" s="1"/>
+      <c r="EQ38" s="1"/>
+      <c r="ER38" s="1"/>
+      <c r="ES38" s="1"/>
+      <c r="ET38" s="1"/>
+      <c r="EU38" s="1"/>
+      <c r="EV38" s="1"/>
+      <c r="EW38" s="1"/>
+      <c r="EX38" s="1"/>
+      <c r="EY38" s="1"/>
+      <c r="EZ38" s="1"/>
+      <c r="FA38" s="1"/>
+      <c r="FB38" s="1"/>
+      <c r="FC38" s="1"/>
+      <c r="FD38" s="1"/>
+      <c r="FE38" s="1"/>
+      <c r="FF38" s="1"/>
+      <c r="FG38" s="1"/>
+      <c r="FH38" s="1"/>
+      <c r="FI38" s="1"/>
+      <c r="FJ38" s="1"/>
+      <c r="FK38" s="1"/>
+      <c r="FL38" s="1"/>
+      <c r="FM38" s="1"/>
+      <c r="FN38" s="1"/>
+      <c r="FO38" s="1"/>
+      <c r="FP38" s="1"/>
+      <c r="FQ38" s="1"/>
+      <c r="FR38" s="1"/>
+      <c r="FS38" s="1"/>
+      <c r="FT38" s="1"/>
+      <c r="FU38" s="1"/>
+      <c r="FV38" s="1"/>
+      <c r="FW38" s="1"/>
+      <c r="FX38" s="1"/>
+      <c r="FY38" s="1"/>
+      <c r="FZ38" s="1"/>
+      <c r="GA38" s="1"/>
+      <c r="GB38" s="1"/>
+      <c r="GC38" s="1"/>
+      <c r="GD38" s="1"/>
+      <c r="GE38" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="144">
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="W10:AD10"/>
-    <mergeCell ref="AE10:BC10"/>
+  <mergeCells count="164">
+    <mergeCell ref="AE16:BC17"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="I11:P11"/>
     <mergeCell ref="Q11:V11"/>
     <mergeCell ref="W11:AD11"/>
     <mergeCell ref="AE11:BC11"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="W18:AD18"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="A16:H17"/>
+    <mergeCell ref="I16:P17"/>
+    <mergeCell ref="Q16:V17"/>
+    <mergeCell ref="W16:AD17"/>
+    <mergeCell ref="AE14:BC14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="AE15:BC15"/>
     <mergeCell ref="AX2:BC2"/>
     <mergeCell ref="AN1:AT1"/>
     <mergeCell ref="AU1:AW1"/>
@@ -7569,110 +8701,124 @@
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="AE7:BC8"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="W26:AD26"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="W24:AD24"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="AE24:BC24"/>
+    <mergeCell ref="AE19:BC19"/>
+    <mergeCell ref="AE20:BC20"/>
+    <mergeCell ref="AE21:BC21"/>
     <mergeCell ref="AE22:BC22"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="W21:AD21"/>
-    <mergeCell ref="I19:P19"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="W19:AD19"/>
-    <mergeCell ref="AE21:BC21"/>
-    <mergeCell ref="AE19:BC19"/>
-    <mergeCell ref="AE14:BC14"/>
-    <mergeCell ref="AE15:BC15"/>
-    <mergeCell ref="AE16:BC16"/>
-    <mergeCell ref="AE17:BC17"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="AE12:BC12"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="AE18:BC18"/>
+    <mergeCell ref="Q18:V18"/>
     <mergeCell ref="AE13:BC13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="AE9:BC9"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="I34:P34"/>
+    <mergeCell ref="Q34:V34"/>
+    <mergeCell ref="W34:AD34"/>
+    <mergeCell ref="W30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="AE37:BC37"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="I35:P35"/>
+    <mergeCell ref="Q35:V35"/>
+    <mergeCell ref="W35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="I37:P37"/>
+    <mergeCell ref="Q37:V37"/>
+    <mergeCell ref="W37:AD37"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="W32:AD32"/>
+    <mergeCell ref="I32:P32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="W31:AD31"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="I29:P29"/>
     <mergeCell ref="Q29:V29"/>
     <mergeCell ref="W29:AD29"/>
-    <mergeCell ref="W25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="AE31:BC31"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="I30:P30"/>
     <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="W30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:P32"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="W32:AD32"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:P27"/>
     <mergeCell ref="Q27:V27"/>
     <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="AE27:BC27"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="W26:AD26"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="W24:AD24"/>
-    <mergeCell ref="AE24:BC24"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="I20:P20"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="W20:AD20"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="I19:P19"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="W19:AD19"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="I22:P22"/>
     <mergeCell ref="Q22:V22"/>
     <mergeCell ref="W22:AD22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="W17:AD17"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="W16:AD16"/>
     <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:P31"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="W31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="I18:P18"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="W18:AD18"/>
-    <mergeCell ref="AE18:BC18"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="I20:P20"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="W20:AD20"/>
-    <mergeCell ref="AE20:BC20"/>
-    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="W21:AD21"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="I36:P36"/>
+    <mergeCell ref="Q36:V36"/>
+    <mergeCell ref="W36:AD36"/>
+    <mergeCell ref="AE36:BC36"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:P23"/>
     <mergeCell ref="Q23:V23"/>
     <mergeCell ref="W23:AD23"/>
     <mergeCell ref="AE23:BC23"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="W25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="AE34:BC34"/>
     <mergeCell ref="Q28:V28"/>
     <mergeCell ref="W28:AD28"/>
     <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:P33"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="W33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="AE12:BC12"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="AE9:BC9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="AE10:BC10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q18:Q37 Q9:Q16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>部品種別</formula1>
     </dataValidation>
   </dataValidations>
@@ -7746,6 +8892,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -7877,7 +9029,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7886,13 +9038,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6750BA14-EF93-4A19-AEC6-7431BDBB93BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462924AE-F691-4F26-88D6-4B2DC7238578}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7910,19 +9065,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8A1FDC-951E-4F8A-8B1E-600169D502EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6750BA14-EF93-4A19-AEC6-7431BDBB93BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/03_内部設計/022-クラス仕様書/jsp/商品検索画面のJSP仕様書.xlsx
+++ b/03_内部設計/022-クラス仕様書/jsp/商品検索画面のJSP仕様書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD31B3-40FB-469C-A916-8556E9BE0C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66825E4E-4ED8-456C-B265-9286AD55B855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>JSP仕様</t>
   </si>
@@ -409,6 +409,13 @@
     <t>クリックしたとき、CartServletにGET送信する。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>「商品の検索を行います。」と表示する。</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -690,6 +697,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -697,12 +710,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,15 +766,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -782,6 +780,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,7 +808,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,6 +844,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -846,6 +862,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -853,24 +878,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HY38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18:BC18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2:BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="14.4"/>
@@ -1240,79 +1247,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:233" ht="15" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="34" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35" t="s">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="36" t="s">
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="40" t="s">
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="36" t="s">
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="39">
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="36">
         <v>45555</v>
       </c>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
@@ -1447,71 +1454,71 @@
       <c r="GE1" s="1"/>
     </row>
     <row r="2" spans="1:233" ht="15" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="36" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="40" t="s">
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="36" t="s">
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="39">
-        <v>45568</v>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="36">
+        <v>45569</v>
       </c>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
-      <c r="BC2" s="39"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
@@ -1835,65 +1842,65 @@
       <c r="GE3" s="1"/>
     </row>
     <row r="4" spans="1:233" ht="15" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="44" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="45"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="45"/>
-      <c r="AY4" s="45"/>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="45"/>
-      <c r="BC4" s="46"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="44"/>
       <c r="BD4" s="8"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
@@ -2074,61 +2081,61 @@
       <c r="HY4" s="8"/>
     </row>
     <row r="5" spans="1:233" ht="15" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="49"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="47"/>
       <c r="BD5" s="8"/>
       <c r="BE5" s="8"/>
       <c r="BF5" s="8"/>
@@ -2498,71 +2505,71 @@
       <c r="GE6" s="6"/>
     </row>
     <row r="7" spans="1:233" ht="15" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38" t="s">
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38" t="s">
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
@@ -2697,61 +2704,61 @@
       <c r="GE7" s="1"/>
     </row>
     <row r="8" spans="1:233" ht="15" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38"/>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="38"/>
-      <c r="BC8" s="38"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
@@ -2886,16 +2893,16 @@
       <c r="GE8" s="1"/>
     </row>
     <row r="9" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="16" t="s">
         <v>49</v>
       </c>
@@ -2906,47 +2913,49 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
@@ -3081,16 +3090,16 @@
       <c r="GE9" s="9"/>
     </row>
     <row r="10" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="16" t="s">
         <v>45</v>
       </c>
@@ -3101,51 +3110,51 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="14" t="s">
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="15" t="s">
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
@@ -3280,16 +3289,16 @@
       <c r="GE10" s="9"/>
     </row>
     <row r="11" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="16" t="s">
         <v>56</v>
       </c>
@@ -3300,51 +3309,51 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="14" t="s">
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="15" t="s">
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="15"/>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
       <c r="BD11" s="9"/>
       <c r="BE11" s="9"/>
       <c r="BF11" s="9"/>
@@ -3479,67 +3488,67 @@
       <c r="GE11" s="9"/>
     </row>
     <row r="12" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="15"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
       <c r="BD12" s="9"/>
       <c r="BE12" s="9"/>
       <c r="BF12" s="9"/>
@@ -3674,67 +3683,67 @@
       <c r="GE12" s="9"/>
     </row>
     <row r="13" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="13" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
       <c r="BD13" s="9"/>
       <c r="BE13" s="9"/>
       <c r="BF13" s="9"/>
@@ -3869,67 +3878,67 @@
       <c r="GE13" s="9"/>
     </row>
     <row r="14" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="15"/>
-      <c r="AZ14" s="15"/>
-      <c r="BA14" s="15"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
       <c r="BD14" s="9"/>
       <c r="BE14" s="9"/>
       <c r="BF14" s="9"/>
@@ -4064,71 +4073,71 @@
       <c r="GE14" s="9"/>
     </row>
     <row r="15" spans="1:233" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="13" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="14" t="s">
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="15" t="s">
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="15"/>
-      <c r="AU15" s="15"/>
-      <c r="AV15" s="15"/>
-      <c r="AW15" s="15"/>
-      <c r="AX15" s="15"/>
-      <c r="AY15" s="15"/>
-      <c r="AZ15" s="15"/>
-      <c r="BA15" s="15"/>
-      <c r="BB15" s="15"/>
-      <c r="BC15" s="15"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
       <c r="BF15" s="9"/>
@@ -4283,22 +4292,22 @@
       <c r="N16" s="58"/>
       <c r="O16" s="58"/>
       <c r="P16" s="59"/>
-      <c r="Q16" s="60" t="s">
+      <c r="Q16" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="65"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="71"/>
       <c r="AE16" s="51" t="s">
         <v>61</v>
       </c>
@@ -4460,28 +4469,28 @@
       <c r="GE16" s="1"/>
     </row>
     <row r="17" spans="1:187" ht="15" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="71"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="68"/>
       <c r="W17" s="72"/>
       <c r="X17" s="73"/>
       <c r="Y17" s="73"/>
@@ -4649,26 +4658,26 @@
       <c r="GE17" s="8"/>
     </row>
     <row r="18" spans="1:187" ht="15" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
       <c r="Q18" s="18" t="s">
         <v>42</v>
       </c>
@@ -4677,7 +4686,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
-      <c r="W18" s="14"/>
+      <c r="W18" s="11"/>
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
@@ -4685,33 +4694,33 @@
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
-      <c r="AE18" s="15" t="s">
+      <c r="AE18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="15"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="15"/>
-      <c r="BB18" s="15"/>
-      <c r="BC18" s="15"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
@@ -4846,26 +4855,26 @@
       <c r="GE18" s="1"/>
     </row>
     <row r="19" spans="1:187" ht="15" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
       <c r="Q19" s="18" t="s">
         <v>42</v>
       </c>
@@ -4882,33 +4891,33 @@
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
-      <c r="AE19" s="15" t="s">
+      <c r="AE19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="15"/>
-      <c r="AR19" s="15"/>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="15"/>
-      <c r="AW19" s="15"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="15"/>
-      <c r="AZ19" s="15"/>
-      <c r="BA19" s="15"/>
-      <c r="BB19" s="15"/>
-      <c r="BC19" s="15"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
@@ -5043,26 +5052,26 @@
       <c r="GE19" s="1"/>
     </row>
     <row r="20" spans="1:187" ht="15" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
       <c r="Q20" s="18" t="s">
         <v>42</v>
       </c>
@@ -5079,33 +5088,33 @@
       <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
-      <c r="AE20" s="15" t="s">
+      <c r="AE20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="15"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="15"/>
-      <c r="AW20" s="15"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="15"/>
-      <c r="AZ20" s="15"/>
-      <c r="BA20" s="15"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="15"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
@@ -5276,33 +5285,33 @@
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
       <c r="AD21" s="19"/>
-      <c r="AE21" s="15" t="s">
+      <c r="AE21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="15"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="15"/>
-      <c r="AW21" s="15"/>
-      <c r="AX21" s="15"/>
-      <c r="AY21" s="15"/>
-      <c r="AZ21" s="15"/>
-      <c r="BA21" s="15"/>
-      <c r="BB21" s="15"/>
-      <c r="BC21" s="15"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
@@ -5467,31 +5476,31 @@
       <c r="AB22" s="19"/>
       <c r="AC22" s="19"/>
       <c r="AD22" s="19"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="15"/>
-      <c r="BB22" s="15"/>
-      <c r="BC22" s="15"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
@@ -5626,14 +5635,14 @@
       <c r="GE22" s="1"/>
     </row>
     <row r="23" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
@@ -5642,45 +5651,45 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="15"/>
-      <c r="AN23" s="15"/>
-      <c r="AO23" s="15"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="15"/>
-      <c r="AR23" s="15"/>
-      <c r="AS23" s="15"/>
-      <c r="AT23" s="15"/>
-      <c r="AU23" s="15"/>
-      <c r="AV23" s="15"/>
-      <c r="AW23" s="15"/>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="15"/>
-      <c r="AZ23" s="15"/>
-      <c r="BA23" s="15"/>
-      <c r="BB23" s="15"/>
-      <c r="BC23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
       <c r="BD23" s="9"/>
       <c r="BE23" s="9"/>
       <c r="BF23" s="9"/>
@@ -5815,14 +5824,14 @@
       <c r="GE23" s="9"/>
     </row>
     <row r="24" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -5831,45 +5840,45 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="15"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="15"/>
-      <c r="AR24" s="15"/>
-      <c r="AS24" s="15"/>
-      <c r="AT24" s="15"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="15"/>
-      <c r="AW24" s="15"/>
-      <c r="AX24" s="15"/>
-      <c r="AY24" s="15"/>
-      <c r="AZ24" s="15"/>
-      <c r="BA24" s="15"/>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
       <c r="BD24" s="9"/>
       <c r="BE24" s="9"/>
       <c r="BF24" s="9"/>
@@ -6004,14 +6013,14 @@
       <c r="GE24" s="9"/>
     </row>
     <row r="25" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
@@ -6020,45 +6029,45 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
-      <c r="AZ25" s="15"/>
-      <c r="BA25" s="15"/>
-      <c r="BB25" s="15"/>
-      <c r="BC25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
       <c r="BD25" s="9"/>
       <c r="BE25" s="9"/>
       <c r="BF25" s="9"/>
@@ -6193,14 +6202,14 @@
       <c r="GE25" s="9"/>
     </row>
     <row r="26" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
@@ -6209,45 +6218,45 @@
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="15"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="15"/>
-      <c r="AW26" s="15"/>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="15"/>
-      <c r="AZ26" s="15"/>
-      <c r="BA26" s="15"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
       <c r="BD26" s="9"/>
       <c r="BE26" s="9"/>
       <c r="BF26" s="9"/>
@@ -6404,7 +6413,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
-      <c r="W27" s="14"/>
+      <c r="W27" s="11"/>
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
@@ -6782,7 +6791,7 @@
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
-      <c r="W29" s="14"/>
+      <c r="W29" s="11"/>
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
@@ -7349,7 +7358,7 @@
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
       <c r="V32" s="18"/>
-      <c r="W32" s="14"/>
+      <c r="W32" s="11"/>
       <c r="X32" s="19"/>
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
@@ -7538,39 +7547,39 @@
       <c r="T33" s="24"/>
       <c r="U33" s="24"/>
       <c r="V33" s="24"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="15"/>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="15"/>
-      <c r="AM33" s="15"/>
-      <c r="AN33" s="15"/>
-      <c r="AO33" s="15"/>
-      <c r="AP33" s="15"/>
-      <c r="AQ33" s="15"/>
-      <c r="AR33" s="15"/>
-      <c r="AS33" s="15"/>
-      <c r="AT33" s="15"/>
-      <c r="AU33" s="15"/>
-      <c r="AV33" s="15"/>
-      <c r="AW33" s="15"/>
-      <c r="AX33" s="15"/>
-      <c r="AY33" s="15"/>
-      <c r="AZ33" s="15"/>
-      <c r="BA33" s="15"/>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="15"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="12"/>
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
@@ -8083,14 +8092,14 @@
       <c r="GE35" s="1"/>
     </row>
     <row r="36" spans="1:187" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
@@ -8099,45 +8108,45 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="15"/>
-      <c r="AH36" s="15"/>
-      <c r="AI36" s="15"/>
-      <c r="AJ36" s="15"/>
-      <c r="AK36" s="15"/>
-      <c r="AL36" s="15"/>
-      <c r="AM36" s="15"/>
-      <c r="AN36" s="15"/>
-      <c r="AO36" s="15"/>
-      <c r="AP36" s="15"/>
-      <c r="AQ36" s="15"/>
-      <c r="AR36" s="15"/>
-      <c r="AS36" s="15"/>
-      <c r="AT36" s="15"/>
-      <c r="AU36" s="15"/>
-      <c r="AV36" s="15"/>
-      <c r="AW36" s="15"/>
-      <c r="AX36" s="15"/>
-      <c r="AY36" s="15"/>
-      <c r="AZ36" s="15"/>
-      <c r="BA36" s="15"/>
-      <c r="BB36" s="15"/>
-      <c r="BC36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="12"/>
+      <c r="BA36" s="12"/>
+      <c r="BB36" s="12"/>
+      <c r="BC36" s="12"/>
       <c r="BD36" s="9"/>
       <c r="BE36" s="9"/>
       <c r="BF36" s="9"/>
@@ -8718,6 +8727,11 @@
     <mergeCell ref="AE18:BC18"/>
     <mergeCell ref="Q18:V18"/>
     <mergeCell ref="AE13:BC13"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="I34:P34"/>
     <mergeCell ref="Q34:V34"/>
@@ -8742,8 +8756,6 @@
     <mergeCell ref="I31:P31"/>
     <mergeCell ref="Q31:V31"/>
     <mergeCell ref="W31:AD31"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="I29:P29"/>
     <mergeCell ref="Q29:V29"/>
@@ -8754,16 +8766,6 @@
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="I30:P30"/>
     <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="I20:P20"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="W20:AD20"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="I19:P19"/>
     <mergeCell ref="Q19:V19"/>
     <mergeCell ref="W19:AD19"/>
     <mergeCell ref="A22:H22"/>
@@ -8774,8 +8776,6 @@
     <mergeCell ref="I21:P21"/>
     <mergeCell ref="Q21:V21"/>
     <mergeCell ref="W21:AD21"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A24:H24"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="I36:P36"/>
     <mergeCell ref="Q36:V36"/>
@@ -8798,6 +8798,8 @@
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="I33:P33"/>
     <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
     <mergeCell ref="W33:AD33"/>
     <mergeCell ref="AE33:BC33"/>
     <mergeCell ref="A12:H12"/>
@@ -8815,6 +8817,13 @@
     <mergeCell ref="Q10:V10"/>
     <mergeCell ref="W10:AD10"/>
     <mergeCell ref="AE10:BC10"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I20:P20"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="W20:AD20"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="I19:P19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -8892,12 +8901,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -9029,7 +9032,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9038,16 +9041,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6750BA14-EF93-4A19-AEC6-7431BDBB93BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462924AE-F691-4F26-88D6-4B2DC7238578}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9065,10 +9065,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8A1FDC-951E-4F8A-8B1E-600169D502EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6750BA14-EF93-4A19-AEC6-7431BDBB93BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>